--- a/data/raw/supplyit/UsageOverview.xlsx
+++ b/data/raw/supplyit/UsageOverview.xlsx
@@ -315,7 +315,7 @@
         <is>
           <t xml:space="preserve">
 Location(s): 7
-Date Range:: 7/13/2025 - 7/19/2025
+Date Range:: 7/20/2025 - 7/26/2025
 Days: All
 Products: All
 Shifts: All
@@ -390,39 +390,39 @@
         </is>
       </c>
       <c s="8" r="B8">
-        <v>10575</v>
+        <v>9945</v>
       </c>
       <c s="8" r="C8">
-        <v>822</v>
+        <v>547</v>
       </c>
       <c s="9" r="D8">
-        <v>0.0777304964539007</v>
+        <v>0.0550025138260432</v>
       </c>
       <c s="10" r="E8">
-        <v>130.7350</v>
+        <v>174.9200</v>
       </c>
       <c s="8" r="F8">
-        <v>9753</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="11" r="A9">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B9">
-        <v>1581</v>
+        <v>1482</v>
       </c>
       <c s="12" r="C9">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c s="13" r="D9">
-        <v>0.00822264389626818</v>
+        <v>0.122132253711201</v>
       </c>
       <c s="14" r="E9">
-        <v>5.9125</v>
+        <v>31.9425</v>
       </c>
       <c s="12" r="F9">
-        <v>1568</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="0">
@@ -432,19 +432,19 @@
         </is>
       </c>
       <c s="16" r="B10">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c s="16" r="C10">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c s="17" r="D10">
-        <v>0.0201465201465201</v>
+        <v>0.0773809523809524</v>
       </c>
       <c s="18" r="E10">
-        <v>3.9325</v>
+        <v>13.9425</v>
       </c>
       <c s="16" r="F10">
-        <v>535</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="0">
@@ -454,19 +454,19 @@
         </is>
       </c>
       <c s="16" r="B11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c s="16" r="C11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="17" r="D11">
-        <v>0.133333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c s="18" r="E11">
-        <v>1.9800</v>
+        <v>6.9300</v>
       </c>
       <c s="16" r="F11">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="0">
@@ -476,39 +476,39 @@
         </is>
       </c>
       <c s="16" r="B12">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c s="16" r="C12">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c s="17" r="D12">
-        <v>0</v>
+        <v>0.140625</v>
       </c>
       <c s="18" r="E12">
-        <v>0.0000</v>
+        <v>11.0700</v>
       </c>
       <c s="16" r="F12">
-        <v>1020</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="0">
       <c s="11" r="A13">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B13">
-        <v>1338</v>
+        <v>1074</v>
       </c>
       <c s="12" r="C13">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c s="13" r="D13">
-        <v>0.0979073243647235</v>
+        <v>0.0456238361266294</v>
       </c>
       <c s="14" r="E13">
-        <v>34.9550</v>
+        <v>13.7700</v>
       </c>
       <c s="12" r="F13">
-        <v>1207</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="0">
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c s="16" r="B14">
-        <v>486</v>
+        <v>342</v>
       </c>
       <c s="16" r="C14">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c s="17" r="D14">
-        <v>0.160493827160494</v>
+        <v>0.0350877192982456</v>
       </c>
       <c s="18" r="E14">
-        <v>27.8850</v>
+        <v>4.3800</v>
       </c>
       <c s="16" r="F14">
-        <v>408</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
@@ -543,16 +543,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="17" r="D15">
-        <v>0.25</v>
+        <v>0.583333333333333</v>
       </c>
       <c s="18" r="E15">
-        <v>2.9700</v>
+        <v>6.9300</v>
       </c>
       <c s="16" r="F15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -562,39 +562,39 @@
         </is>
       </c>
       <c s="16" r="B16">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c s="16" r="C16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c s="17" r="D16">
-        <v>0.0595238095238095</v>
+        <v>0.0416666666666667</v>
       </c>
       <c s="18" r="E16">
-        <v>4.1000</v>
+        <v>2.4600</v>
       </c>
       <c s="16" r="F16">
-        <v>790</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
       <c s="11" r="A17">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B17">
-        <v>1272</v>
+        <v>1176</v>
       </c>
       <c s="12" r="C17">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c s="13" r="D17">
-        <v>0.132861635220126</v>
+        <v>0.0459183673469388</v>
       </c>
       <c s="14" r="E17">
-        <v>23.7450</v>
+        <v>28.4275</v>
       </c>
       <c s="12" r="F17">
-        <v>1103</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c s="16" r="B18">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c s="16" r="C18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c s="17" r="D18">
-        <v>0.0619047619047619</v>
+        <v>0.108465608465608</v>
       </c>
       <c s="18" r="E18">
-        <v>9.2950</v>
+        <v>15.5575</v>
       </c>
       <c s="16" r="F18">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c s="16" r="B19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c s="16" r="C19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c s="17" r="D19">
-        <v>0.25</v>
+        <v>0.722222222222222</v>
       </c>
       <c s="18" r="E19">
-        <v>2.9700</v>
+        <v>12.8700</v>
       </c>
       <c s="16" r="F19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -648,39 +648,39 @@
         </is>
       </c>
       <c s="16" r="B20">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c s="16" r="C20">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c s="17" r="D20">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c s="18" r="E20">
-        <v>11.4800</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F20">
-        <v>700</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
       <c s="11" r="A21">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B21">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c s="12" r="C21">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c s="13" r="D21">
-        <v>0.0334890965732087</v>
+        <v>0.0162037037037037</v>
       </c>
       <c s="14" r="E21">
-        <v>20.5225</v>
+        <v>2.5485</v>
       </c>
       <c s="12" r="F21">
-        <v>1241</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -690,19 +690,19 @@
         </is>
       </c>
       <c s="16" r="B22">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c s="16" r="C22">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c s="17" r="D22">
-        <v>0.0821596244131455</v>
+        <v>0.00684931506849315</v>
       </c>
       <c s="18" r="E22">
-        <v>12.6025</v>
+        <v>1.0725</v>
       </c>
       <c s="16" r="F22">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -715,16 +715,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c s="17" r="D23">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c s="18" r="E23">
-        <v>7.9200</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F23">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -737,36 +737,36 @@
         <v>840</v>
       </c>
       <c s="16" r="C24">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c s="17" r="D24">
-        <v>0</v>
+        <v>0.0214285714285714</v>
       </c>
       <c s="18" r="E24">
-        <v>0.0000</v>
+        <v>1.4760</v>
       </c>
       <c s="16" r="F24">
-        <v>840</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
       <c s="11" r="A25">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B25">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c s="12" r="C25">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c s="13" r="D25">
-        <v>0</v>
+        <v>0.0270078180525942</v>
       </c>
       <c s="14" r="E25">
-        <v>0.0000</v>
+        <v>18.3725</v>
       </c>
       <c s="12" r="F25">
-        <v>1410</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -776,19 +776,19 @@
         </is>
       </c>
       <c s="16" r="B26">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c s="16" r="C26">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c s="17" r="D26">
-        <v>0</v>
+        <v>0.0637860082304527</v>
       </c>
       <c s="18" r="E26">
-        <v>0.0000</v>
+        <v>11.4425</v>
       </c>
       <c s="16" r="F26">
-        <v>492</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c s="16" r="B27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c s="16" r="C27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c s="17" r="D27">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E27">
-        <v>0.0000</v>
+        <v>6.9300</v>
       </c>
       <c s="16" r="F27">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -837,22 +837,22 @@
     </row>
     <row r="29" ht="18" customHeight="0">
       <c s="11" r="A29">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B29">
-        <v>1467</v>
+        <v>1509</v>
       </c>
       <c s="12" r="C29">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c s="13" r="D29">
-        <v>0</v>
+        <v>0.0616302186878728</v>
       </c>
       <c s="14" r="E29">
-        <v>0.0000</v>
+        <v>30.0565</v>
       </c>
       <c s="12" r="F29">
-        <v>1467</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c s="16" r="B30">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c s="16" r="C30">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c s="17" r="D30">
-        <v>0</v>
+        <v>0.0587121212121212</v>
       </c>
       <c s="18" r="E30">
-        <v>0.0000</v>
+        <v>11.3525</v>
       </c>
       <c s="16" r="F30">
-        <v>546</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -887,16 +887,16 @@
         <v>21</v>
       </c>
       <c s="16" r="C31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c s="17" r="D31">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c s="18" r="E31">
-        <v>0.0000</v>
+        <v>14.8500</v>
       </c>
       <c s="16" r="F31">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -906,39 +906,39 @@
         </is>
       </c>
       <c s="16" r="B32">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c s="16" r="C32">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c s="17" r="D32">
-        <v>0</v>
+        <v>0.0489583333333333</v>
       </c>
       <c s="18" r="E32">
-        <v>0.0000</v>
+        <v>3.8540</v>
       </c>
       <c s="16" r="F32">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
       <c s="11" r="A33">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B33">
-        <v>2223</v>
+        <v>2001</v>
       </c>
       <c s="12" r="C33">
-        <v>466</v>
+        <v>111</v>
       </c>
       <c s="13" r="D33">
-        <v>0.209626630679262</v>
+        <v>0.055472263868066</v>
       </c>
       <c s="14" r="E33">
-        <v>45.6000</v>
+        <v>49.8025</v>
       </c>
       <c s="12" r="F33">
-        <v>1757</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c s="16" r="B34">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c s="16" r="C34">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c s="17" r="D34">
-        <v>0.0186915887850467</v>
+        <v>0.158333333333333</v>
       </c>
       <c s="18" r="E34">
-        <v>4.7400</v>
+        <v>33.9625</v>
       </c>
       <c s="16" r="F34">
-        <v>630</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -973,16 +973,16 @@
         <v>21</v>
       </c>
       <c s="16" r="C35">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c s="17" r="D35">
-        <v>0.19047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c s="18" r="E35">
-        <v>3.9600</v>
+        <v>15.8400</v>
       </c>
       <c s="16" r="F35">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c s="16" r="B36">
-        <v>1560</v>
+        <v>1380</v>
       </c>
       <c s="16" r="C36">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c s="17" r="D36">
-        <v>0.288461538461538</v>
+        <v>0</v>
       </c>
       <c s="18" r="E36">
-        <v>36.9000</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F36">
-        <v>1110</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -1014,39 +1014,39 @@
         </is>
       </c>
       <c s="8" r="B37">
-        <v>11643</v>
+        <v>11988</v>
       </c>
       <c s="8" r="C37">
-        <v>1098</v>
+        <v>1563</v>
       </c>
       <c s="9" r="D37">
-        <v>0.0943055913424375</v>
+        <v>0.13038038038038</v>
       </c>
       <c s="10" r="E37">
-        <v>234.5365</v>
+        <v>232.2430</v>
       </c>
       <c s="8" r="F37">
-        <v>10545</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
       <c s="11" r="A38">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B38">
-        <v>1866</v>
+        <v>1983</v>
       </c>
       <c s="12" r="C38">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c s="13" r="D38">
-        <v>0</v>
+        <v>0.0413514876449824</v>
       </c>
       <c s="14" r="E38">
-        <v>0.0000</v>
+        <v>7.2750</v>
       </c>
       <c s="12" r="F38">
-        <v>1866</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c s="16" r="B42">
-        <v>480</v>
+        <v>594</v>
       </c>
       <c s="16" r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="17" r="D42">
-        <v>0</v>
+        <v>0.00336700336700337</v>
       </c>
       <c s="18" r="E42">
-        <v>0.0000</v>
+        <v>0.7150</v>
       </c>
       <c s="16" r="F42">
-        <v>480</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c s="16" r="B43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c s="16" r="C43">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F43">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
@@ -1169,36 +1169,36 @@
         <v>1380</v>
       </c>
       <c s="16" r="C44">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c s="17" r="D44">
-        <v>0</v>
+        <v>0.0579710144927536</v>
       </c>
       <c s="18" r="E44">
-        <v>0.0000</v>
+        <v>6.5600</v>
       </c>
       <c s="16" r="F44">
-        <v>1380</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="0">
       <c s="11" r="A45">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B45">
-        <v>1530</v>
+        <v>1476</v>
       </c>
       <c s="12" r="C45">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c s="13" r="D45">
-        <v>0.100653594771242</v>
+        <v>0.0731707317073171</v>
       </c>
       <c s="14" r="E45">
-        <v>44.8615</v>
+        <v>20.7025</v>
       </c>
       <c s="12" r="F45">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="0">
@@ -1274,19 +1274,19 @@
         </is>
       </c>
       <c s="16" r="B49">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c s="16" r="C49">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c s="17" r="D49">
-        <v>0.3046875</v>
+        <v>0.0955555555555556</v>
       </c>
       <c s="18" r="E49">
-        <v>41.8275</v>
+        <v>15.3725</v>
       </c>
       <c s="16" r="F49">
-        <v>267</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="0">
@@ -1318,39 +1318,39 @@
         </is>
       </c>
       <c s="16" r="B51">
-        <v>1140</v>
+        <v>1020</v>
       </c>
       <c s="16" r="C51">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c s="17" r="D51">
-        <v>0.0324561403508772</v>
+        <v>0.0637254901960784</v>
       </c>
       <c s="18" r="E51">
-        <v>3.0340</v>
+        <v>5.3300</v>
       </c>
       <c s="16" r="F51">
-        <v>1103</v>
+        <v>955</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="0">
       <c s="11" r="A52">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B52">
-        <v>1518</v>
+        <v>1464</v>
       </c>
       <c s="12" r="C52">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c s="13" r="D52">
-        <v>0.128458498023715</v>
+        <v>0.0676229508196721</v>
       </c>
       <c s="14" r="E52">
-        <v>42.1625</v>
+        <v>37.2900</v>
       </c>
       <c s="12" r="F52">
-        <v>1323</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="0">
@@ -1426,19 +1426,19 @@
         </is>
       </c>
       <c s="16" r="B56">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c s="16" r="C56">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="17" r="D56">
-        <v>0.219907407407407</v>
+        <v>0.253968253968254</v>
       </c>
       <c s="18" r="E56">
-        <v>33.9625</v>
+        <v>34.3200</v>
       </c>
       <c s="16" r="F56">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="0">
@@ -1451,16 +1451,16 @@
         <v>6</v>
       </c>
       <c s="16" r="C57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="17" r="D57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c s="18" r="E57">
-        <v>0.0000</v>
+        <v>2.9700</v>
       </c>
       <c s="16" r="F57">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="0">
@@ -1473,36 +1473,36 @@
         <v>1080</v>
       </c>
       <c s="16" r="C58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c s="17" r="D58">
-        <v>0.0925925925925926</v>
+        <v>0</v>
       </c>
       <c s="18" r="E58">
-        <v>8.2000</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F58">
-        <v>980</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="0">
       <c s="11" r="A59">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B59">
         <v>1512</v>
       </c>
       <c s="12" r="C59">
-        <v>311</v>
+        <v>622</v>
       </c>
       <c s="13" r="D59">
-        <v>0.205687830687831</v>
+        <v>0.411375661375661</v>
       </c>
       <c s="14" r="E59">
-        <v>50.3475</v>
+        <v>86.9005</v>
       </c>
       <c s="12" r="F59">
-        <v>1201</v>
+        <v>890</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="0">
@@ -1578,19 +1578,19 @@
         </is>
       </c>
       <c s="16" r="B63">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c s="16" r="C63">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c s="17" r="D63">
-        <v>0.183333333333333</v>
+        <v>0.346994535519126</v>
       </c>
       <c s="18" r="E63">
-        <v>27.5275</v>
+        <v>45.4025</v>
       </c>
       <c s="16" r="F63">
-        <v>343</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="0">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c s="16" r="B64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c s="16" r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="17" r="D64">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c s="18" r="E64">
-        <v>3.9600</v>
+        <v>0.9900</v>
       </c>
       <c s="16" r="F64">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="0">
@@ -1622,39 +1622,39 @@
         </is>
       </c>
       <c s="16" r="B65">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c s="16" r="C65">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c s="17" r="D65">
-        <v>0.212962962962963</v>
+        <v>0.433333333333333</v>
       </c>
       <c s="18" r="E65">
-        <v>18.8600</v>
+        <v>40.5080</v>
       </c>
       <c s="16" r="F65">
-        <v>850</v>
+        <v>646</v>
       </c>
     </row>
     <row r="66" ht="18" customHeight="0">
       <c s="11" r="A66">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B66">
-        <v>1620</v>
+        <v>1632</v>
       </c>
       <c s="12" r="C66">
-        <v>339</v>
+        <v>475</v>
       </c>
       <c s="13" r="D66">
-        <v>0.209259259259259</v>
+        <v>0.291053921568627</v>
       </c>
       <c s="14" r="E66">
-        <v>61.6225</v>
+        <v>56.8575</v>
       </c>
       <c s="12" r="F66">
-        <v>1281</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="0">
@@ -1730,19 +1730,19 @@
         </is>
       </c>
       <c s="16" r="B70">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c s="16" r="C70">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c s="17" r="D70">
-        <v>0.252450980392157</v>
+        <v>0.177595628415301</v>
       </c>
       <c s="18" r="E70">
-        <v>36.8225</v>
+        <v>23.2375</v>
       </c>
       <c s="16" r="F70">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="0">
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c s="16" r="B71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c s="16" r="C71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c s="17" r="D71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c s="18" r="E71">
-        <v>5.9400</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F71">
         <v>6</v>
@@ -1774,39 +1774,39 @@
         </is>
       </c>
       <c s="16" r="B72">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c s="16" r="C72">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c s="17" r="D72">
-        <v>0.191666666666667</v>
+        <v>0.325396825396825</v>
       </c>
       <c s="18" r="E72">
-        <v>18.8600</v>
+        <v>33.6200</v>
       </c>
       <c s="16" r="F72">
-        <v>970</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="0">
       <c s="11" r="A73">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B73">
-        <v>1659</v>
+        <v>1911</v>
       </c>
       <c s="12" r="C73">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c s="13" r="D73">
-        <v>0.0373719107896323</v>
+        <v>0.0894819466248038</v>
       </c>
       <c s="14" r="E73">
-        <v>22.3150</v>
+        <v>21.0725</v>
       </c>
       <c s="12" r="F73">
-        <v>1597</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="0">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c s="16" r="B77">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c s="16" r="C77">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c s="17" r="D77">
-        <v>0.137777777777778</v>
+        <v>0.0411255411255411</v>
       </c>
       <c s="18" r="E77">
-        <v>22.3150</v>
+        <v>6.7925</v>
       </c>
       <c s="16" r="F77">
-        <v>388</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="0">
@@ -1907,16 +1907,16 @@
         <v>9</v>
       </c>
       <c s="16" r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="17" r="D78">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c s="18" r="E78">
-        <v>0.0000</v>
+        <v>1.9800</v>
       </c>
       <c s="16" r="F78">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="0">
@@ -1926,39 +1926,39 @@
         </is>
       </c>
       <c s="16" r="B79">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c s="16" r="C79">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c s="17" r="D79">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c s="18" r="E79">
-        <v>0.0000</v>
+        <v>12.3000</v>
       </c>
       <c s="16" r="F79">
-        <v>1200</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="0">
       <c s="11" r="A80">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B80">
-        <v>1938</v>
+        <v>2010</v>
       </c>
       <c s="12" r="C80">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c s="13" r="D80">
-        <v>0.0190918472652219</v>
+        <v>0.00298507462686567</v>
       </c>
       <c s="14" r="E80">
-        <v>13.2275</v>
+        <v>2.1450</v>
       </c>
       <c s="12" r="F80">
-        <v>1901</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="0">
@@ -2034,19 +2034,19 @@
         </is>
       </c>
       <c s="16" r="B84">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c s="16" r="C84">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c s="17" r="D84">
-        <v>0.0670289855072464</v>
+        <v>0.0106382978723404</v>
       </c>
       <c s="18" r="E84">
-        <v>13.2275</v>
+        <v>2.1450</v>
       </c>
       <c s="16" r="F84">
-        <v>515</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="0">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c s="16" r="B86">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c s="16" r="C86">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F86">
-        <v>1380</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="0">
@@ -2100,39 +2100,39 @@
         </is>
       </c>
       <c s="8" r="B87">
-        <v>11274</v>
+        <v>11118</v>
       </c>
       <c s="8" r="C87">
-        <v>415</v>
+        <v>576</v>
       </c>
       <c s="9" r="D87">
-        <v>0.0368103601206315</v>
+        <v>0.0518078791149487</v>
       </c>
       <c s="10" r="E87">
-        <v>159.6775</v>
+        <v>215.5130</v>
       </c>
       <c s="8" r="F87">
-        <v>10859</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="0">
       <c s="11" r="A88">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B88">
-        <v>1824</v>
+        <v>2052</v>
       </c>
       <c s="12" r="C88">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c s="13" r="D88">
-        <v>0.0131578947368421</v>
+        <v>0.0292397660818713</v>
       </c>
       <c s="14" r="E88">
-        <v>8.5800</v>
+        <v>23.9800</v>
       </c>
       <c s="12" r="F88">
-        <v>1800</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="0">
@@ -2208,19 +2208,19 @@
         </is>
       </c>
       <c s="16" r="B92">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c s="16" r="C92">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c s="17" r="D92">
-        <v>0.028169014084507</v>
+        <v>0.0666666666666667</v>
       </c>
       <c s="18" r="E92">
-        <v>8.5800</v>
+        <v>20.0200</v>
       </c>
       <c s="16" r="F92">
-        <v>828</v>
+        <v>784</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="0">
@@ -2233,16 +2233,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c s="17" r="D93">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E93">
-        <v>0.0000</v>
+        <v>3.9600</v>
       </c>
       <c s="16" r="F93">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="0">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c s="16" r="B94">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c s="16" r="C94">
         <v>0</v>
@@ -2264,27 +2264,27 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F94">
-        <v>960</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="0">
       <c s="11" r="A95">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B95">
         <v>1350</v>
       </c>
       <c s="12" r="C95">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c s="13" r="D95">
-        <v>0.0488888888888889</v>
+        <v>0.0474074074074074</v>
       </c>
       <c s="14" r="E95">
-        <v>24.1350</v>
+        <v>23.2400</v>
       </c>
       <c s="12" r="F95">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="0">
@@ -2363,16 +2363,16 @@
         <v>498</v>
       </c>
       <c s="16" r="C99">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c s="17" r="D99">
-        <v>0.132530120481928</v>
+        <v>0.1285140562249</v>
       </c>
       <c s="18" r="E99">
-        <v>24.1350</v>
+        <v>23.2400</v>
       </c>
       <c s="16" r="F99">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="0">
@@ -2421,22 +2421,22 @@
     </row>
     <row r="102" ht="18" customHeight="0">
       <c s="11" r="A102">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B102">
-        <v>1398</v>
+        <v>1356</v>
       </c>
       <c s="12" r="C102">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c s="13" r="D102">
-        <v>0.0579399141630901</v>
+        <v>0.0125368731563422</v>
       </c>
       <c s="14" r="E102">
-        <v>29.2575</v>
+        <v>9.8725</v>
       </c>
       <c s="12" r="F102">
-        <v>1317</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="0">
@@ -2512,19 +2512,19 @@
         </is>
       </c>
       <c s="16" r="B106">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c s="16" r="C106">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c s="17" r="D106">
-        <v>0.148351648351648</v>
+        <v>0.0218253968253968</v>
       </c>
       <c s="18" r="E106">
-        <v>29.2575</v>
+        <v>3.9325</v>
       </c>
       <c s="16" r="F106">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" ht="18" customHeight="0">
@@ -2537,16 +2537,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c s="17" r="D107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c s="18" r="E107">
-        <v>0.0000</v>
+        <v>5.9400</v>
       </c>
       <c s="16" r="F107">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="0">
@@ -2573,22 +2573,22 @@
     </row>
     <row r="109" ht="18" customHeight="0">
       <c s="11" r="A109">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B109">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c s="12" r="C109">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c s="13" r="D109">
-        <v>0.061965811965812</v>
+        <v>0.107758620689655</v>
       </c>
       <c s="14" r="E109">
-        <v>32.2950</v>
+        <v>44.8880</v>
       </c>
       <c s="12" r="F109">
-        <v>1317</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="0">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c s="16" r="B113">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c s="16" r="C113">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="17" r="D113">
-        <v>0.155797101449275</v>
+        <v>0.162962962962963</v>
       </c>
       <c s="18" r="E113">
-        <v>31.3050</v>
+        <v>32.5400</v>
       </c>
       <c s="16" r="F113">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="0">
@@ -2689,16 +2689,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C114">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c s="17" r="D114">
-        <v>0.0833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c s="18" r="E114">
-        <v>0.9900</v>
+        <v>7.9200</v>
       </c>
       <c s="16" r="F114">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="0">
@@ -2711,36 +2711,36 @@
         <v>840</v>
       </c>
       <c s="16" r="C115">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c s="17" r="D115">
-        <v>0</v>
+        <v>0.0642857142857143</v>
       </c>
       <c s="18" r="E115">
-        <v>0.0000</v>
+        <v>4.4280</v>
       </c>
       <c s="16" r="F115">
-        <v>840</v>
+        <v>786</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="0">
       <c s="11" r="A116">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B116">
-        <v>1434</v>
+        <v>1410</v>
       </c>
       <c s="12" r="C116">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c s="13" r="D116">
-        <v>0.0341701534170153</v>
+        <v>0.0163120567375887</v>
       </c>
       <c s="14" r="E116">
-        <v>20.0475</v>
+        <v>10.7525</v>
       </c>
       <c s="12" r="F116">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="0">
@@ -2816,19 +2816,19 @@
         </is>
       </c>
       <c s="16" r="B120">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c s="16" r="C120">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c s="17" r="D120">
-        <v>0.078125</v>
+        <v>0.0344202898550725</v>
       </c>
       <c s="18" r="E120">
-        <v>16.0875</v>
+        <v>6.7925</v>
       </c>
       <c s="16" r="F120">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="0">
@@ -2877,22 +2877,22 @@
     </row>
     <row r="123" ht="18" customHeight="0">
       <c s="11" r="A123">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B123">
-        <v>1914</v>
+        <v>1644</v>
       </c>
       <c s="12" r="C123">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c s="13" r="D123">
-        <v>0.0412748171368861</v>
+        <v>0.0875912408759124</v>
       </c>
       <c s="14" r="E123">
-        <v>34.6350</v>
+        <v>56.6250</v>
       </c>
       <c s="12" r="F123">
-        <v>1835</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="124" ht="18" customHeight="0">
@@ -2968,19 +2968,19 @@
         </is>
       </c>
       <c s="16" r="B127">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c s="16" r="C127">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c s="17" r="D127">
-        <v>0.100574712643678</v>
+        <v>0.207207207207207</v>
       </c>
       <c s="18" r="E127">
-        <v>25.7250</v>
+        <v>50.6850</v>
       </c>
       <c s="16" r="F127">
-        <v>626</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" ht="18" customHeight="0">
@@ -2993,16 +2993,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C128">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="17" r="D128">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E128">
-        <v>8.9100</v>
+        <v>5.9400</v>
       </c>
       <c s="16" r="F128">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="18" customHeight="0">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c s="16" r="B129">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c s="16" r="C129">
         <v>0</v>
@@ -3024,27 +3024,27 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F129">
-        <v>1200</v>
+        <v>960</v>
       </c>
     </row>
     <row r="130" ht="18" customHeight="0">
       <c s="11" r="A130">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B130">
-        <v>1950</v>
+        <v>1914</v>
       </c>
       <c s="12" r="C130">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c s="13" r="D130">
-        <v>0.0148717948717949</v>
+        <v>0.0616509926854754</v>
       </c>
       <c s="14" r="E130">
-        <v>10.7275</v>
+        <v>46.1550</v>
       </c>
       <c s="12" r="F130">
-        <v>1921</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="131" ht="18" customHeight="0">
@@ -3120,19 +3120,19 @@
         </is>
       </c>
       <c s="16" r="B134">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c s="16" r="C134">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c s="17" r="D134">
-        <v>0.0396174863387978</v>
+        <v>0.163793103448276</v>
       </c>
       <c s="18" r="E134">
-        <v>10.7275</v>
+        <v>42.1950</v>
       </c>
       <c s="16" r="F134">
-        <v>703</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135" ht="18" customHeight="0">
@@ -3145,16 +3145,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c s="17" r="D135">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c s="18" r="E135">
-        <v>0.0000</v>
+        <v>3.9600</v>
       </c>
       <c s="16" r="F135">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" ht="18" customHeight="0">
@@ -3186,39 +3186,39 @@
         </is>
       </c>
       <c s="8" r="B137">
-        <v>9690</v>
+        <v>9543</v>
       </c>
       <c s="8" r="C137">
-        <v>1083</v>
+        <v>1143</v>
       </c>
       <c s="9" r="D137">
-        <v>0.111764705882353</v>
+        <v>0.119773656082993</v>
       </c>
       <c s="10" r="E137">
-        <v>259.0220</v>
+        <v>237.5040</v>
       </c>
       <c s="8" r="F137">
-        <v>8607</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="0">
       <c s="11" r="A138">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B138">
-        <v>1536</v>
+        <v>1506</v>
       </c>
       <c s="12" r="C138">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c s="13" r="D138">
-        <v>0.107421875</v>
+        <v>0.223771580345286</v>
       </c>
       <c s="14" r="E138">
-        <v>45.2895</v>
+        <v>65.8105</v>
       </c>
       <c s="12" r="F138">
-        <v>1371</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="139" ht="18" customHeight="0">
@@ -3294,19 +3294,19 @@
         </is>
       </c>
       <c s="16" r="B142">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c s="16" r="C142">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c s="17" r="D142">
-        <v>0.166666666666667</v>
+        <v>0.195075757575758</v>
       </c>
       <c s="18" r="E142">
-        <v>33.9375</v>
+        <v>37.5425</v>
       </c>
       <c s="16" r="F142">
-        <v>465</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" ht="18" customHeight="0">
@@ -3319,16 +3319,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C143">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c s="17" r="D143">
-        <v>0.333333333333333</v>
+        <v>0.555555555555556</v>
       </c>
       <c s="18" r="E143">
-        <v>5.9400</v>
+        <v>9.9000</v>
       </c>
       <c s="16" r="F143">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" ht="18" customHeight="0">
@@ -3341,36 +3341,36 @@
         <v>960</v>
       </c>
       <c s="16" r="C144">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c s="17" r="D144">
-        <v>0.06875</v>
+        <v>0.233333333333333</v>
       </c>
       <c s="18" r="E144">
-        <v>5.4120</v>
+        <v>18.3680</v>
       </c>
       <c s="16" r="F144">
-        <v>894</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" ht="18" customHeight="0">
       <c s="11" r="A145">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B145">
-        <v>1254</v>
+        <v>1146</v>
       </c>
       <c s="12" r="C145">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c s="13" r="D145">
-        <v>0.164274322169059</v>
+        <v>0.0584642233856894</v>
       </c>
       <c s="14" r="E145">
-        <v>61.9765</v>
+        <v>26.0275</v>
       </c>
       <c s="12" r="F145">
-        <v>1048</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="146" ht="18" customHeight="0">
@@ -3446,19 +3446,19 @@
         </is>
       </c>
       <c s="16" r="B149">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c s="16" r="C149">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c s="17" r="D149">
-        <v>0.355721393034826</v>
+        <v>0.157004830917874</v>
       </c>
       <c s="18" r="E149">
-        <v>51.3625</v>
+        <v>24.0475</v>
       </c>
       <c s="16" r="F149">
-        <v>259</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150" ht="18" customHeight="0">
@@ -3471,16 +3471,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="17" r="D150">
-        <v>0.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c s="18" r="E150">
-        <v>5.9400</v>
+        <v>1.9800</v>
       </c>
       <c s="16" r="F150">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" ht="18" customHeight="0">
@@ -3490,39 +3490,39 @@
         </is>
       </c>
       <c s="16" r="B151">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c s="16" r="C151">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c s="17" r="D151">
-        <v>0.0678571428571429</v>
+        <v>0</v>
       </c>
       <c s="18" r="E151">
-        <v>4.6740</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F151">
-        <v>783</v>
+        <v>720</v>
       </c>
     </row>
     <row r="152" ht="18" customHeight="0">
       <c s="11" r="A152">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B152">
-        <v>1266</v>
+        <v>1146</v>
       </c>
       <c s="12" r="C152">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c s="13" r="D152">
-        <v>0.187993680884676</v>
+        <v>0</v>
       </c>
       <c s="14" r="E152">
-        <v>43.7290</v>
+        <v>0.0000</v>
       </c>
       <c s="12" r="F152">
-        <v>1028</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="153" ht="18" customHeight="0">
@@ -3601,16 +3601,16 @@
         <v>414</v>
       </c>
       <c s="16" r="C156">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c s="17" r="D156">
-        <v>0.188405797101449</v>
+        <v>0</v>
       </c>
       <c s="18" r="E156">
-        <v>27.8850</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F156">
-        <v>336</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" ht="18" customHeight="0">
@@ -3623,16 +3623,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="17" r="D157">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c s="18" r="E157">
-        <v>2.9700</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F157">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" ht="18" customHeight="0">
@@ -3642,39 +3642,39 @@
         </is>
       </c>
       <c s="16" r="B158">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c s="16" r="C158">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c s="17" r="D158">
-        <v>0.186904761904762</v>
+        <v>0</v>
       </c>
       <c s="18" r="E158">
-        <v>12.8740</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F158">
-        <v>683</v>
+        <v>720</v>
       </c>
     </row>
     <row r="159" ht="18" customHeight="0">
       <c s="11" r="A159">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B159">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c s="12" r="C159">
-        <v>150</v>
+        <v>528</v>
       </c>
       <c s="13" r="D159">
-        <v>0.116279069767442</v>
+        <v>0.411214953271028</v>
       </c>
       <c s="14" r="E159">
-        <v>25.7145</v>
+        <v>86.0100</v>
       </c>
       <c s="12" r="F159">
-        <v>1140</v>
+        <v>756</v>
       </c>
     </row>
     <row r="160" ht="18" customHeight="0">
@@ -3750,19 +3750,19 @@
         </is>
       </c>
       <c s="16" r="B163">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c s="16" r="C163">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c s="17" r="D163">
-        <v>0.0799086757990868</v>
+        <v>0.305555555555556</v>
       </c>
       <c s="18" r="E163">
-        <v>12.6525</v>
+        <v>48.0900</v>
       </c>
       <c s="16" r="F163">
-        <v>403</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" ht="18" customHeight="0">
@@ -3775,16 +3775,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="17" r="D164">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c s="18" r="E164">
-        <v>3.9600</v>
+        <v>5.9400</v>
       </c>
       <c s="16" r="F164">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" ht="18" customHeight="0">
@@ -3797,36 +3797,36 @@
         <v>840</v>
       </c>
       <c s="16" r="C165">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c s="17" r="D165">
-        <v>0.132142857142857</v>
+        <v>0.464285714285714</v>
       </c>
       <c s="18" r="E165">
-        <v>9.1020</v>
+        <v>31.9800</v>
       </c>
       <c s="16" r="F165">
-        <v>729</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166" ht="18" customHeight="0">
       <c s="11" r="A166">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B166">
-        <v>1302</v>
+        <v>1368</v>
       </c>
       <c s="12" r="C166">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c s="13" r="D166">
-        <v>0.0576036866359447</v>
+        <v>0</v>
       </c>
       <c s="14" r="E166">
-        <v>30.1525</v>
+        <v>0.0000</v>
       </c>
       <c s="12" r="F166">
-        <v>1227</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="167" ht="18" customHeight="0">
@@ -3902,19 +3902,19 @@
         </is>
       </c>
       <c s="16" r="B170">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c s="16" r="C170">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c s="17" r="D170">
-        <v>0.15990990990991</v>
+        <v>0</v>
       </c>
       <c s="18" r="E170">
-        <v>26.1925</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F170">
-        <v>373</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" ht="18" customHeight="0">
@@ -3927,16 +3927,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c s="17" r="D171">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c s="18" r="E171">
-        <v>3.9600</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F171">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" ht="18" customHeight="0">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c s="16" r="B172">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c s="16" r="C172">
         <v>0</v>
@@ -3958,27 +3958,27 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F172">
-        <v>840</v>
+        <v>900</v>
       </c>
     </row>
     <row r="173" ht="18" customHeight="0">
       <c s="11" r="A173">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B173">
-        <v>1530</v>
+        <v>1602</v>
       </c>
       <c s="12" r="C173">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c s="13" r="D173">
-        <v>0.130718954248366</v>
+        <v>0.100499375780275</v>
       </c>
       <c s="14" r="E173">
-        <v>34.1025</v>
+        <v>47.8530</v>
       </c>
       <c s="12" r="F173">
-        <v>1330</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="174" ht="18" customHeight="0">
@@ -4054,19 +4054,19 @@
         </is>
       </c>
       <c s="16" r="B177">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c s="16" r="C177">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c s="17" r="D177">
-        <v>0.106884057971014</v>
+        <v>0.187943262411348</v>
       </c>
       <c s="18" r="E177">
-        <v>21.6325</v>
+        <v>37.8950</v>
       </c>
       <c s="16" r="F177">
-        <v>493</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178" ht="18" customHeight="0">
@@ -4079,16 +4079,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="17" r="D178">
-        <v>0.0555555555555556</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E178">
-        <v>0.9900</v>
+        <v>5.9400</v>
       </c>
       <c s="16" r="F178">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" ht="18" customHeight="0">
@@ -4098,39 +4098,39 @@
         </is>
       </c>
       <c s="16" r="B179">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c s="16" r="C179">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c s="17" r="D179">
-        <v>0.145833333333333</v>
+        <v>0.0480392156862745</v>
       </c>
       <c s="18" r="E179">
-        <v>11.4800</v>
+        <v>4.0180</v>
       </c>
       <c s="16" r="F179">
-        <v>820</v>
+        <v>971</v>
       </c>
     </row>
     <row r="180" ht="18" customHeight="0">
       <c s="11" r="A180">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B180">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c s="12" r="C180">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="13" r="D180">
-        <v>0.0324074074074074</v>
+        <v>0.0335345405767941</v>
       </c>
       <c s="14" r="E180">
-        <v>18.0575</v>
+        <v>11.8030</v>
       </c>
       <c s="12" r="F180">
-        <v>1463</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="181" ht="18" customHeight="0">
@@ -4206,19 +4206,19 @@
         </is>
       </c>
       <c s="16" r="B184">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c s="16" r="C184">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c s="17" r="D184">
-        <v>0.0897435897435897</v>
+        <v>0.0509803921568627</v>
       </c>
       <c s="18" r="E184">
-        <v>18.0575</v>
+        <v>9.8350</v>
       </c>
       <c s="16" r="F184">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" ht="18" customHeight="0">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c s="16" r="B185">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c s="16" r="C185">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F185">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" ht="18" customHeight="0">
@@ -4253,16 +4253,16 @@
         <v>960</v>
       </c>
       <c s="16" r="C186">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c s="17" r="D186">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c s="18" r="E186">
-        <v>0.0000</v>
+        <v>1.9680</v>
       </c>
       <c s="16" r="F186">
-        <v>960</v>
+        <v>936</v>
       </c>
     </row>
     <row r="187" ht="18" customHeight="0">
@@ -4272,39 +4272,39 @@
         </is>
       </c>
       <c s="8" r="B187">
-        <v>8802</v>
+        <v>8985</v>
       </c>
       <c s="8" r="C187">
-        <v>1062</v>
+        <v>1263</v>
       </c>
       <c s="9" r="D187">
-        <v>0.120654396728016</v>
+        <v>0.140567612687813</v>
       </c>
       <c s="10" r="E187">
-        <v>280.6800</v>
+        <v>320.2880</v>
       </c>
       <c s="8" r="F187">
-        <v>7740</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="188" ht="18" customHeight="0">
       <c s="11" r="A188">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B188">
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c s="12" r="C188">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c s="13" r="D188">
-        <v>0.0624113475177305</v>
+        <v>0.0711206896551724</v>
       </c>
       <c s="14" r="E188">
-        <v>28.4800</v>
+        <v>27.8670</v>
       </c>
       <c s="12" r="F188">
-        <v>1322</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="189" ht="18" customHeight="0">
@@ -4380,16 +4380,16 @@
         </is>
       </c>
       <c s="16" r="B192">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c s="16" r="C192">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c s="17" r="D192">
-        <v>0.1285140562249</v>
+        <v>0.0958333333333333</v>
       </c>
       <c s="18" r="E192">
-        <v>22.8800</v>
+        <v>17.1650</v>
       </c>
       <c s="16" r="F192">
         <v>434</v>
@@ -4405,16 +4405,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="17" r="D193">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c s="18" r="E193">
-        <v>3.9600</v>
+        <v>6.9300</v>
       </c>
       <c s="16" r="F193">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" ht="18" customHeight="0">
@@ -4427,36 +4427,36 @@
         <v>900</v>
       </c>
       <c s="16" r="C194">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c s="17" r="D194">
-        <v>0.0222222222222222</v>
+        <v>0.0511111111111111</v>
       </c>
       <c s="18" r="E194">
-        <v>1.6400</v>
+        <v>3.7720</v>
       </c>
       <c s="16" r="F194">
-        <v>880</v>
+        <v>854</v>
       </c>
     </row>
     <row r="195" ht="18" customHeight="0">
       <c s="11" r="A195">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B195">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c s="12" r="C195">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c s="13" r="D195">
-        <v>0.193467336683417</v>
+        <v>0.325311942959002</v>
       </c>
       <c s="14" r="E195">
-        <v>53.2425</v>
+        <v>76.8685</v>
       </c>
       <c s="12" r="F195">
-        <v>963</v>
+        <v>757</v>
       </c>
     </row>
     <row r="196" ht="18" customHeight="0">
@@ -4532,19 +4532,19 @@
         </is>
       </c>
       <c s="16" r="B199">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c s="16" r="C199">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c s="17" r="D199">
-        <v>0.22636815920398</v>
+        <v>0.376923076923077</v>
       </c>
       <c s="18" r="E199">
-        <v>32.6825</v>
+        <v>54.4525</v>
       </c>
       <c s="16" r="F199">
-        <v>311</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" ht="18" customHeight="0">
@@ -4557,16 +4557,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C200">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c s="17" r="D200">
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c s="18" r="E200">
-        <v>9.9000</v>
+        <v>4.9500</v>
       </c>
       <c s="16" r="F200">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" ht="18" customHeight="0">
@@ -4576,39 +4576,39 @@
         </is>
       </c>
       <c s="16" r="B201">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c s="16" r="C201">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c s="17" r="D201">
-        <v>0.166666666666667</v>
+        <v>0.295833333333333</v>
       </c>
       <c s="18" r="E201">
-        <v>10.6600</v>
+        <v>17.4660</v>
       </c>
       <c s="16" r="F201">
-        <v>650</v>
+        <v>507</v>
       </c>
     </row>
     <row r="202" ht="18" customHeight="0">
       <c s="11" r="A202">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B202">
-        <v>1272</v>
+        <v>1194</v>
       </c>
       <c s="12" r="C202">
-        <v>333</v>
+        <v>124</v>
       </c>
       <c s="13" r="D202">
-        <v>0.261792452830189</v>
+        <v>0.103852596314908</v>
       </c>
       <c s="14" r="E202">
-        <v>56.7225</v>
+        <v>27.5750</v>
       </c>
       <c s="12" r="F202">
-        <v>939</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="203" ht="18" customHeight="0">
@@ -4684,19 +4684,19 @@
         </is>
       </c>
       <c s="16" r="B206">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c s="16" r="C206">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c s="17" r="D206">
-        <v>0.207142857142857</v>
+        <v>0.124378109452736</v>
       </c>
       <c s="18" r="E206">
-        <v>31.1025</v>
+        <v>17.8750</v>
       </c>
       <c s="16" r="F206">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" ht="18" customHeight="0">
@@ -4709,16 +4709,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C207">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="17" r="D207">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E207">
-        <v>5.9400</v>
+        <v>3.9600</v>
       </c>
       <c s="16" r="F207">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" ht="18" customHeight="0">
@@ -4728,39 +4728,39 @@
         </is>
       </c>
       <c s="16" r="B208">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c s="16" r="C208">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c s="17" r="D208">
-        <v>0.285714285714286</v>
+        <v>0.0897435897435897</v>
       </c>
       <c s="18" r="E208">
-        <v>19.6800</v>
+        <v>5.7400</v>
       </c>
       <c s="16" r="F208">
-        <v>600</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" ht="18" customHeight="0">
       <c s="11" r="A209">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B209">
-        <v>1026</v>
+        <v>1095</v>
       </c>
       <c s="12" r="C209">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c s="13" r="D209">
-        <v>0.218323586744639</v>
+        <v>0.105936073059361</v>
       </c>
       <c s="14" r="E209">
-        <v>78.1575</v>
+        <v>56.2850</v>
       </c>
       <c s="12" r="F209">
-        <v>802</v>
+        <v>979</v>
       </c>
     </row>
     <row r="210" ht="18" customHeight="0">
@@ -4836,19 +4836,19 @@
         </is>
       </c>
       <c s="16" r="B213">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c s="16" r="C213">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c s="17" r="D213">
-        <v>0.446859903381642</v>
+        <v>0.223809523809524</v>
       </c>
       <c s="18" r="E213">
-        <v>66.7875</v>
+        <v>34.5050</v>
       </c>
       <c s="16" r="F213">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" ht="18" customHeight="0">
@@ -4858,19 +4858,19 @@
         </is>
       </c>
       <c s="16" r="B214">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c s="16" r="C214">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c s="17" r="D214">
-        <v>0.75</v>
+        <v>1.46666666666667</v>
       </c>
       <c s="18" r="E214">
-        <v>8.9100</v>
+        <v>21.7800</v>
       </c>
       <c s="16" r="F214">
-        <v>3</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="215" ht="18" customHeight="0">
@@ -4880,39 +4880,39 @@
         </is>
       </c>
       <c s="16" r="B215">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c s="16" r="C215">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c s="17" r="D215">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c s="18" r="E215">
-        <v>2.4600</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F215">
-        <v>570</v>
+        <v>660</v>
       </c>
     </row>
     <row r="216" ht="18" customHeight="0">
       <c s="11" r="A216">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B216">
-        <v>1224</v>
+        <v>1248</v>
       </c>
       <c s="12" r="C216">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c s="13" r="D216">
-        <v>0.0833333333333333</v>
+        <v>0.0761217948717949</v>
       </c>
       <c s="14" r="E216">
-        <v>29.8475</v>
+        <v>39.1100</v>
       </c>
       <c s="12" r="F216">
-        <v>1122</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="217" ht="18" customHeight="0">
@@ -4988,19 +4988,19 @@
         </is>
       </c>
       <c s="16" r="B220">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c s="16" r="C220">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c s="17" r="D220">
-        <v>0.131720430107527</v>
+        <v>0.222222222222222</v>
       </c>
       <c s="18" r="E220">
-        <v>18.2375</v>
+        <v>32.1800</v>
       </c>
       <c s="16" r="F220">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" ht="18" customHeight="0">
@@ -5013,16 +5013,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c s="17" r="D221">
-        <v>0.666666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c s="18" r="E221">
-        <v>7.9200</v>
+        <v>6.9300</v>
       </c>
       <c s="16" r="F221">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" ht="18" customHeight="0">
@@ -5035,36 +5035,36 @@
         <v>840</v>
       </c>
       <c s="16" r="C222">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c s="17" r="D222">
-        <v>0.0535714285714286</v>
+        <v>0</v>
       </c>
       <c s="18" r="E222">
-        <v>3.6900</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F222">
-        <v>795</v>
+        <v>840</v>
       </c>
     </row>
     <row r="223" ht="18" customHeight="0">
       <c s="11" r="A223">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B223">
-        <v>1290</v>
+        <v>1452</v>
       </c>
       <c s="12" r="C223">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c s="13" r="D223">
-        <v>0.0612403100775194</v>
+        <v>0.139807162534435</v>
       </c>
       <c s="14" r="E223">
-        <v>29.2800</v>
+        <v>52.1825</v>
       </c>
       <c s="12" r="F223">
-        <v>1211</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="224" ht="18" customHeight="0">
@@ -5140,19 +5140,19 @@
         </is>
       </c>
       <c s="16" r="B227">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c s="16" r="C227">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c s="17" r="D227">
-        <v>0.146118721461187</v>
+        <v>0.208860759493671</v>
       </c>
       <c s="18" r="E227">
-        <v>23.5100</v>
+        <v>35.4825</v>
       </c>
       <c s="16" r="F227">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="228" ht="18" customHeight="0">
@@ -5162,19 +5162,19 @@
         </is>
       </c>
       <c s="16" r="B228">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c s="16" r="C228">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c s="17" r="D228">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c s="18" r="E228">
-        <v>4.9500</v>
+        <v>8.9100</v>
       </c>
       <c s="16" r="F228">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" ht="18" customHeight="0">
@@ -5184,39 +5184,39 @@
         </is>
       </c>
       <c s="16" r="B229">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c s="16" r="C229">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c s="17" r="D229">
-        <v>0.0119047619047619</v>
+        <v>0.0989583333333333</v>
       </c>
       <c s="18" r="E229">
-        <v>0.8200</v>
+        <v>7.7900</v>
       </c>
       <c s="16" r="F229">
-        <v>830</v>
+        <v>865</v>
       </c>
     </row>
     <row r="230" ht="18" customHeight="0">
       <c s="11" r="A230">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B230">
-        <v>1386</v>
+        <v>1482</v>
       </c>
       <c s="12" r="C230">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c s="13" r="D230">
-        <v>0.00360750360750361</v>
+        <v>0.176113360323887</v>
       </c>
       <c s="14" r="E230">
-        <v>4.9500</v>
+        <v>40.4000</v>
       </c>
       <c s="12" r="F230">
-        <v>1381</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="231" ht="18" customHeight="0">
@@ -5292,19 +5292,19 @@
         </is>
       </c>
       <c s="16" r="B234">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c s="16" r="C234">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c s="17" r="D234">
-        <v>0</v>
+        <v>0.0810810810810811</v>
       </c>
       <c s="18" r="E234">
-        <v>0.0000</v>
+        <v>12.8700</v>
       </c>
       <c s="16" r="F234">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" ht="18" customHeight="0">
@@ -5314,19 +5314,19 @@
         </is>
       </c>
       <c s="16" r="B235">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c s="16" r="C235">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c s="17" r="D235">
-        <v>0.416666666666667</v>
+        <v>0.555555555555556</v>
       </c>
       <c s="18" r="E235">
-        <v>4.9500</v>
+        <v>9.9000</v>
       </c>
       <c s="16" r="F235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" ht="18" customHeight="0">
@@ -5336,19 +5336,19 @@
         </is>
       </c>
       <c s="16" r="B236">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c s="16" r="C236">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c s="17" r="D236">
-        <v>0</v>
+        <v>0.21078431372549</v>
       </c>
       <c s="18" r="E236">
-        <v>0.0000</v>
+        <v>17.6300</v>
       </c>
       <c s="16" r="F236">
-        <v>960</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" ht="18" customHeight="0">
@@ -5358,39 +5358,39 @@
         </is>
       </c>
       <c s="8" r="B237">
-        <v>8100</v>
+        <v>8217</v>
       </c>
       <c s="8" r="C237">
-        <v>1330</v>
+        <v>1844</v>
       </c>
       <c s="9" r="D237">
-        <v>0.164197530864198</v>
+        <v>0.224412802726056</v>
       </c>
       <c s="10" r="E237">
-        <v>350.6135</v>
+        <v>379.4800</v>
       </c>
       <c s="8" r="F237">
-        <v>6770</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="238" ht="18" customHeight="0">
       <c s="11" r="A238">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B238">
-        <v>1320</v>
+        <v>1458</v>
       </c>
       <c s="12" r="C238">
-        <v>129</v>
+        <v>564</v>
       </c>
       <c s="13" r="D238">
-        <v>0.0977272727272727</v>
+        <v>0.386831275720165</v>
       </c>
       <c s="14" r="E238">
-        <v>42.8115</v>
+        <v>92.5255</v>
       </c>
       <c s="12" r="F238">
-        <v>1191</v>
+        <v>894</v>
       </c>
     </row>
     <row r="239" ht="18" customHeight="0">
@@ -5400,19 +5400,19 @@
         </is>
       </c>
       <c s="16" r="B239">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c s="16" r="C239">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c s="17" r="D239">
-        <v>0.286764705882353</v>
+        <v>0.42896174863388</v>
       </c>
       <c s="18" r="E239">
-        <v>41.8275</v>
+        <v>56.4275</v>
       </c>
       <c s="16" r="F239">
-        <v>291</v>
+        <v>209</v>
       </c>
     </row>
     <row r="240" ht="18" customHeight="0">
@@ -5425,16 +5425,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="17" r="D240">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c s="18" r="E240">
-        <v>0.0000</v>
+        <v>2.9700</v>
       </c>
       <c s="16" r="F240">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" ht="18" customHeight="0">
@@ -5444,39 +5444,39 @@
         </is>
       </c>
       <c s="16" r="B241">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c s="16" r="C241">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c s="17" r="D241">
-        <v>0.0133333333333333</v>
+        <v>0.374074074074074</v>
       </c>
       <c s="18" r="E241">
-        <v>0.9840</v>
+        <v>33.1280</v>
       </c>
       <c s="16" r="F241">
-        <v>888</v>
+        <v>676</v>
       </c>
     </row>
     <row r="242" ht="18" customHeight="0">
       <c s="11" r="A242">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B242">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c s="12" r="C242">
-        <v>333</v>
+        <v>221</v>
       </c>
       <c s="13" r="D242">
-        <v>0.30327868852459</v>
+        <v>0.199099099099099</v>
       </c>
       <c s="14" r="E242">
-        <v>80.6155</v>
+        <v>53.1040</v>
       </c>
       <c s="12" r="F242">
-        <v>765</v>
+        <v>889</v>
       </c>
     </row>
     <row r="243" ht="18" customHeight="0">
@@ -5486,19 +5486,19 @@
         </is>
       </c>
       <c s="16" r="B243">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c s="16" r="C243">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c s="17" r="D243">
-        <v>0.472677595628415</v>
+        <v>0.364779874213836</v>
       </c>
       <c s="18" r="E243">
-        <v>62.0475</v>
+        <v>41.7700</v>
       </c>
       <c s="16" r="F243">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="244" ht="18" customHeight="0">
@@ -5511,16 +5511,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C244">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="17" r="D244">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c s="18" r="E244">
-        <v>5.9400</v>
+        <v>2.9700</v>
       </c>
       <c s="16" r="F244">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" ht="18" customHeight="0">
@@ -5530,39 +5530,39 @@
         </is>
       </c>
       <c s="16" r="B245">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c s="16" r="C245">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c s="17" r="D245">
-        <v>0.213888888888889</v>
+        <v>0.130769230769231</v>
       </c>
       <c s="18" r="E245">
-        <v>12.6280</v>
+        <v>8.3640</v>
       </c>
       <c s="16" r="F245">
-        <v>566</v>
+        <v>678</v>
       </c>
     </row>
     <row r="246" ht="18" customHeight="0">
       <c s="11" r="A246">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B246">
-        <v>1092</v>
+        <v>1032</v>
       </c>
       <c s="12" r="C246">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c s="13" r="D246">
-        <v>0.106227106227106</v>
+        <v>0.308139534883721</v>
       </c>
       <c s="14" r="E246">
-        <v>45.8975</v>
+        <v>49.0435</v>
       </c>
       <c s="12" r="F246">
-        <v>976</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" ht="18" customHeight="0">
@@ -5572,19 +5572,19 @@
         </is>
       </c>
       <c s="16" r="B247">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c s="16" r="C247">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c s="17" r="D247">
-        <v>0.302777777777778</v>
+        <v>0.19</v>
       </c>
       <c s="18" r="E247">
-        <v>38.9675</v>
+        <v>20.3775</v>
       </c>
       <c s="16" r="F247">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" ht="18" customHeight="0">
@@ -5597,16 +5597,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C248">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="17" r="D248">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c s="18" r="E248">
-        <v>6.9300</v>
+        <v>7.9200</v>
       </c>
       <c s="16" r="F248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" ht="18" customHeight="0">
@@ -5619,36 +5619,36 @@
         <v>720</v>
       </c>
       <c s="16" r="C249">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c s="17" r="D249">
-        <v>0</v>
+        <v>0.351388888888889</v>
       </c>
       <c s="18" r="E249">
-        <v>0.0000</v>
+        <v>20.7460</v>
       </c>
       <c s="16" r="F249">
-        <v>720</v>
+        <v>467</v>
       </c>
     </row>
     <row r="250" ht="18" customHeight="0">
       <c s="11" r="A250">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B250">
         <v>1044</v>
       </c>
       <c s="12" r="C250">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c s="13" r="D250">
-        <v>0.352490421455939</v>
+        <v>0.0593869731800766</v>
       </c>
       <c s="14" r="E250">
-        <v>69.0095</v>
+        <v>12.2160</v>
       </c>
       <c s="12" r="F250">
-        <v>676</v>
+        <v>982</v>
       </c>
     </row>
     <row r="251" ht="18" customHeight="0">
@@ -5661,16 +5661,16 @@
         <v>312</v>
       </c>
       <c s="16" r="C251">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c s="17" r="D251">
-        <v>0.387820512820513</v>
+        <v>0.0512820512820513</v>
       </c>
       <c s="18" r="E251">
-        <v>43.3075</v>
+        <v>5.7200</v>
       </c>
       <c s="16" r="F251">
-        <v>191</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" ht="18" customHeight="0">
@@ -5683,16 +5683,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C252">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="17" r="D252">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c s="18" r="E252">
-        <v>5.9400</v>
+        <v>2.9700</v>
       </c>
       <c s="16" r="F252">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" ht="18" customHeight="0">
@@ -5705,36 +5705,36 @@
         <v>720</v>
       </c>
       <c s="16" r="C253">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c s="17" r="D253">
-        <v>0.334722222222222</v>
+        <v>0.0597222222222222</v>
       </c>
       <c s="18" r="E253">
-        <v>19.7620</v>
+        <v>3.5260</v>
       </c>
       <c s="16" r="F253">
-        <v>479</v>
+        <v>677</v>
       </c>
     </row>
     <row r="254" ht="18" customHeight="0">
       <c s="11" r="A254">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B254">
-        <v>1044</v>
+        <v>1140</v>
       </c>
       <c s="12" r="C254">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c s="13" r="D254">
-        <v>0.0488505747126437</v>
+        <v>0.157017543859649</v>
       </c>
       <c s="14" r="E254">
-        <v>20.7625</v>
+        <v>53.5740</v>
       </c>
       <c s="12" r="F254">
-        <v>993</v>
+        <v>961</v>
       </c>
     </row>
     <row r="255" ht="18" customHeight="0">
@@ -5744,19 +5744,19 @@
         </is>
       </c>
       <c s="16" r="B255">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c s="16" r="C255">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c s="17" r="D255">
-        <v>0.150641025641026</v>
+        <v>0.367816091954023</v>
       </c>
       <c s="18" r="E255">
-        <v>16.8025</v>
+        <v>45.7600</v>
       </c>
       <c s="16" r="F255">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="256" ht="18" customHeight="0">
@@ -5788,39 +5788,39 @@
         </is>
       </c>
       <c s="16" r="B257">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c s="16" r="C257">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c s="17" r="D257">
-        <v>0</v>
+        <v>0.0602564102564103</v>
       </c>
       <c s="18" r="E257">
-        <v>0.0000</v>
+        <v>3.8540</v>
       </c>
       <c s="16" r="F257">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="258" ht="18" customHeight="0">
       <c s="11" r="A258">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B258">
-        <v>1206</v>
+        <v>1140</v>
       </c>
       <c s="12" r="C258">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c s="13" r="D258">
-        <v>0.177446102819237</v>
+        <v>0.173684210526316</v>
       </c>
       <c s="14" r="E258">
-        <v>50.4140</v>
+        <v>52.6835</v>
       </c>
       <c s="12" r="F258">
-        <v>992</v>
+        <v>942</v>
       </c>
     </row>
     <row r="259" ht="18" customHeight="0">
@@ -5830,19 +5830,19 @@
         </is>
       </c>
       <c s="16" r="B259">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c s="16" r="C259">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c s="17" r="D259">
-        <v>0.280193236714976</v>
+        <v>0.370689655172414</v>
       </c>
       <c s="18" r="E259">
-        <v>41.4700</v>
+        <v>46.1175</v>
       </c>
       <c s="16" r="F259">
-        <v>298</v>
+        <v>219</v>
       </c>
     </row>
     <row r="260" ht="18" customHeight="0">
@@ -5877,36 +5877,36 @@
         <v>780</v>
       </c>
       <c s="16" r="C261">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c s="17" r="D261">
-        <v>0.124358974358974</v>
+        <v>0.0871794871794872</v>
       </c>
       <c s="18" r="E261">
-        <v>7.9540</v>
+        <v>5.5760</v>
       </c>
       <c s="16" r="F261">
-        <v>683</v>
+        <v>712</v>
       </c>
     </row>
     <row r="262" ht="18" customHeight="0">
       <c s="11" r="A262">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B262">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c s="12" r="C262">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c s="13" r="D262">
-        <v>0.091820987654321</v>
+        <v>0.233565351894818</v>
       </c>
       <c s="14" r="E262">
-        <v>41.1030</v>
+        <v>66.3335</v>
       </c>
       <c s="12" r="F262">
-        <v>1177</v>
+        <v>991</v>
       </c>
     </row>
     <row r="263" ht="18" customHeight="0">
@@ -5916,19 +5916,19 @@
         </is>
       </c>
       <c s="16" r="B263">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c s="16" r="C263">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c s="17" r="D263">
-        <v>0.244791666666667</v>
+        <v>0.379032258064516</v>
       </c>
       <c s="18" r="E263">
-        <v>33.6050</v>
+        <v>50.4075</v>
       </c>
       <c s="16" r="F263">
-        <v>290</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" ht="18" customHeight="0">
@@ -5938,19 +5938,19 @@
         </is>
       </c>
       <c s="16" r="B264">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c s="16" r="C264">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="17" r="D264">
-        <v>0.5</v>
+        <v>0.142857142857143</v>
       </c>
       <c s="18" r="E264">
-        <v>5.9400</v>
+        <v>2.9700</v>
       </c>
       <c s="16" r="F264">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" ht="18" customHeight="0">
@@ -5963,16 +5963,16 @@
         <v>900</v>
       </c>
       <c s="16" r="C265">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c s="17" r="D265">
-        <v>0.0211111111111111</v>
+        <v>0.175555555555556</v>
       </c>
       <c s="18" r="E265">
-        <v>1.5580</v>
+        <v>12.9560</v>
       </c>
       <c s="16" r="F265">
-        <v>881</v>
+        <v>742</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="0">
@@ -5982,39 +5982,39 @@
         </is>
       </c>
       <c s="8" r="B266">
-        <v>6896</v>
+        <v>7188</v>
       </c>
       <c s="8" r="C266">
-        <v>979</v>
+        <v>1413</v>
       </c>
       <c s="9" r="D266">
-        <v>0.141966357308585</v>
+        <v>0.196577629382304</v>
       </c>
       <c s="10" r="E266">
-        <v>256.0205</v>
+        <v>279.7865</v>
       </c>
       <c s="8" r="F266">
-        <v>5917</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="267" ht="18" customHeight="0">
       <c s="11" r="A267">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c s="12" r="B267">
-        <v>1191</v>
+        <v>1161</v>
       </c>
       <c s="12" r="C267">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c s="13" r="D267">
-        <v>0.0688497061293031</v>
+        <v>0.255813953488372</v>
       </c>
       <c s="14" r="E267">
-        <v>29.3150</v>
+        <v>58.9045</v>
       </c>
       <c s="12" r="F267">
-        <v>1109</v>
+        <v>864</v>
       </c>
     </row>
     <row r="268" ht="18" customHeight="0">
@@ -6024,19 +6024,19 @@
         </is>
       </c>
       <c s="16" r="B268">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c s="16" r="C268">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c s="17" r="D268">
-        <v>0.142361111111111</v>
+        <v>0.210622710622711</v>
       </c>
       <c s="18" r="E268">
-        <v>29.3150</v>
+        <v>43.0725</v>
       </c>
       <c s="16" r="F268">
-        <v>494</v>
+        <v>431</v>
       </c>
     </row>
     <row r="269" ht="18" customHeight="0">
@@ -6049,16 +6049,16 @@
         <v>15</v>
       </c>
       <c s="16" r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="17" r="D269">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c s="18" r="E269">
-        <v>0.0000</v>
+        <v>0.9900</v>
       </c>
       <c s="16" r="F269">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" ht="18" customHeight="0">
@@ -6071,36 +6071,36 @@
         <v>600</v>
       </c>
       <c s="16" r="C270">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c s="17" r="D270">
-        <v>0</v>
+        <v>0.301666666666667</v>
       </c>
       <c s="18" r="E270">
-        <v>0.0000</v>
+        <v>14.8420</v>
       </c>
       <c s="16" r="F270">
-        <v>600</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" ht="18" customHeight="0">
       <c s="11" r="A271">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c s="12" r="B271">
-        <v>893</v>
+        <v>864</v>
       </c>
       <c s="12" r="C271">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c s="13" r="D271">
-        <v>0.278835386338186</v>
+        <v>0.369212962962963</v>
       </c>
       <c s="14" r="E271">
-        <v>67.1100</v>
+        <v>48.2825</v>
       </c>
       <c s="12" r="F271">
-        <v>644</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" ht="18" customHeight="0">
@@ -6110,19 +6110,19 @@
         </is>
       </c>
       <c s="16" r="B272">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c s="16" r="C272">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c s="17" r="D272">
-        <v>0.342105263157895</v>
+        <v>0.185446009389671</v>
       </c>
       <c s="18" r="E272">
-        <v>56.7600</v>
+        <v>28.6025</v>
       </c>
       <c s="16" r="F272">
-        <v>300</v>
+        <v>347</v>
       </c>
     </row>
     <row r="273" ht="18" customHeight="0">
@@ -6132,19 +6132,19 @@
         </is>
       </c>
       <c s="16" r="B273">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="16" r="C273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="17" r="D273">
-        <v>0.176470588235294</v>
+        <v>0</v>
       </c>
       <c s="18" r="E273">
-        <v>2.9700</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F273">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" ht="18" customHeight="0">
@@ -6157,36 +6157,36 @@
         <v>420</v>
       </c>
       <c s="16" r="C274">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c s="17" r="D274">
-        <v>0.214285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c s="18" r="E274">
-        <v>7.3800</v>
+        <v>19.6800</v>
       </c>
       <c s="16" r="F274">
-        <v>330</v>
+        <v>180</v>
       </c>
     </row>
     <row r="275" ht="18" customHeight="0">
       <c s="11" r="A275">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c s="12" r="B275">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c s="12" r="C275">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c s="13" r="D275">
-        <v>0.278494623655914</v>
+        <v>0.14873417721519</v>
       </c>
       <c s="14" r="E275">
-        <v>39.8640</v>
+        <v>31.6115</v>
       </c>
       <c s="12" r="F275">
-        <v>671</v>
+        <v>807</v>
       </c>
     </row>
     <row r="276" ht="18" customHeight="0">
@@ -6196,19 +6196,19 @@
         </is>
       </c>
       <c s="16" r="B276">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c s="16" r="C276">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c s="17" r="D276">
-        <v>0.138888888888889</v>
+        <v>0.117777777777778</v>
       </c>
       <c s="18" r="E276">
-        <v>21.7300</v>
+        <v>18.9475</v>
       </c>
       <c s="16" r="F276">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" ht="18" customHeight="0">
@@ -6221,16 +6221,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C277">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="17" r="D277">
-        <v>0.111111111111111</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E277">
-        <v>1.9800</v>
+        <v>5.9400</v>
       </c>
       <c s="16" r="F277">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" ht="18" customHeight="0">
@@ -6243,36 +6243,36 @@
         <v>480</v>
       </c>
       <c s="16" r="C278">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c s="17" r="D278">
-        <v>0.410416666666667</v>
+        <v>0.170833333333333</v>
       </c>
       <c s="18" r="E278">
-        <v>16.1540</v>
+        <v>6.7240</v>
       </c>
       <c s="16" r="F278">
-        <v>283</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" ht="18" customHeight="0">
       <c s="11" r="A279">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c s="12" r="B279">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c s="12" r="C279">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c s="13" r="D279">
-        <v>0.153508771929825</v>
+        <v>0.0419426048565121</v>
       </c>
       <c s="14" r="E279">
-        <v>52.4825</v>
+        <v>3.9425</v>
       </c>
       <c s="12" r="F279">
-        <v>772</v>
+        <v>868</v>
       </c>
     </row>
     <row r="280" ht="18" customHeight="0">
@@ -6282,19 +6282,19 @@
         </is>
       </c>
       <c s="16" r="B280">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c s="16" r="C280">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c s="17" r="D280">
-        <v>0.293248945147679</v>
+        <v>0.00641025641025641</v>
       </c>
       <c s="18" r="E280">
-        <v>51.4925</v>
+        <v>1.0725</v>
       </c>
       <c s="16" r="F280">
-        <v>335</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" ht="18" customHeight="0">
@@ -6307,16 +6307,16 @@
         <v>18</v>
       </c>
       <c s="16" r="C281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="17" r="D281">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c s="18" r="E281">
-        <v>0.9900</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F281">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" ht="18" customHeight="0">
@@ -6329,36 +6329,36 @@
         <v>420</v>
       </c>
       <c s="16" r="C282">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c s="17" r="D282">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c s="18" r="E282">
-        <v>0.0000</v>
+        <v>2.8700</v>
       </c>
       <c s="16" r="F282">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="283" ht="18" customHeight="0">
       <c s="11" r="A283">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c s="12" r="B283">
-        <v>903</v>
+        <v>1002</v>
       </c>
       <c s="12" r="C283">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c s="13" r="D283">
-        <v>0.133997785160576</v>
+        <v>0.146706586826347</v>
       </c>
       <c s="14" r="E283">
-        <v>24.5450</v>
+        <v>24.4515</v>
       </c>
       <c s="12" r="F283">
-        <v>782</v>
+        <v>855</v>
       </c>
     </row>
     <row r="284" ht="18" customHeight="0">
@@ -6368,19 +6368,19 @@
         </is>
       </c>
       <c s="16" r="B284">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c s="16" r="C284">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c s="17" r="D284">
-        <v>0.0982905982905983</v>
+        <v>0.101351351351351</v>
       </c>
       <c s="18" r="E284">
-        <v>18.3950</v>
+        <v>16.0875</v>
       </c>
       <c s="16" r="F284">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="285" ht="18" customHeight="0">
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c s="16" r="B285">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c s="16" r="C285">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F285">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" ht="18" customHeight="0">
@@ -6412,39 +6412,39 @@
         </is>
       </c>
       <c s="16" r="B286">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c s="16" r="C286">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c s="17" r="D286">
-        <v>0.178571428571429</v>
+        <v>0.188888888888889</v>
       </c>
       <c s="18" r="E286">
-        <v>6.1500</v>
+        <v>8.3640</v>
       </c>
       <c s="16" r="F286">
-        <v>345</v>
+        <v>438</v>
       </c>
     </row>
     <row r="287" ht="18" customHeight="0">
       <c s="11" r="A287">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c s="12" r="B287">
-        <v>819</v>
+        <v>1119</v>
       </c>
       <c s="12" r="C287">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c s="13" r="D287">
-        <v>0</v>
+        <v>0.220732797140304</v>
       </c>
       <c s="14" r="E287">
-        <v>0.0000</v>
+        <v>58.6300</v>
       </c>
       <c s="12" r="F287">
-        <v>819</v>
+        <v>872</v>
       </c>
     </row>
     <row r="288" ht="18" customHeight="0">
@@ -6454,19 +6454,19 @@
         </is>
       </c>
       <c s="16" r="B288">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c s="16" r="C288">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c s="17" r="D288">
-        <v>0</v>
+        <v>0.24113475177305</v>
       </c>
       <c s="18" r="E288">
-        <v>0.0000</v>
+        <v>48.6200</v>
       </c>
       <c s="16" r="F288">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="289" ht="18" customHeight="0">
@@ -6479,16 +6479,16 @@
         <v>15</v>
       </c>
       <c s="16" r="C289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="17" r="D289">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c s="18" r="E289">
-        <v>0.0000</v>
+        <v>0.9900</v>
       </c>
       <c s="16" r="F289">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" ht="18" customHeight="0">
@@ -6498,39 +6498,39 @@
         </is>
       </c>
       <c s="16" r="B290">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c s="16" r="C290">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c s="17" r="D290">
-        <v>0</v>
+        <v>0.203703703703704</v>
       </c>
       <c s="18" r="E290">
-        <v>0.0000</v>
+        <v>9.0200</v>
       </c>
       <c s="16" r="F290">
-        <v>360</v>
+        <v>430</v>
       </c>
     </row>
     <row r="291" ht="18" customHeight="0">
       <c s="11" r="A291">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c s="12" r="B291">
-        <v>1248</v>
+        <v>1188</v>
       </c>
       <c s="12" r="C291">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c s="13" r="D291">
-        <v>0.102564102564103</v>
+        <v>0.188552188552189</v>
       </c>
       <c s="14" r="E291">
-        <v>42.7040</v>
+        <v>53.9640</v>
       </c>
       <c s="12" r="F291">
-        <v>1120</v>
+        <v>964</v>
       </c>
     </row>
     <row r="292" ht="18" customHeight="0">
@@ -6540,19 +6540,19 @@
         </is>
       </c>
       <c s="16" r="B292">
-        <v>684</v>
+        <v>564</v>
       </c>
       <c s="16" r="C292">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c s="17" r="D292">
-        <v>0.169590643274854</v>
+        <v>0.163120567375887</v>
       </c>
       <c s="18" r="E292">
-        <v>41.7200</v>
+        <v>34.0600</v>
       </c>
       <c s="16" r="F292">
-        <v>568</v>
+        <v>472</v>
       </c>
     </row>
     <row r="293" ht="18" customHeight="0">
@@ -6565,16 +6565,16 @@
         <v>24</v>
       </c>
       <c s="16" r="C293">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c s="17" r="D293">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c s="18" r="E293">
-        <v>0.0000</v>
+        <v>9.9000</v>
       </c>
       <c s="16" r="F293">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" ht="18" customHeight="0">
@@ -6584,19 +6584,19 @@
         </is>
       </c>
       <c s="16" r="B294">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c s="16" r="C294">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c s="17" r="D294">
-        <v>0.0222222222222222</v>
+        <v>0.203333333333333</v>
       </c>
       <c s="18" r="E294">
-        <v>0.9840</v>
+        <v>10.0040</v>
       </c>
       <c s="16" r="F294">
-        <v>528</v>
+        <v>478</v>
       </c>
     </row>
     <row r="295" ht="18" customHeight="0">
@@ -6606,19 +6606,19 @@
         </is>
       </c>
       <c s="21" r="B295">
-        <v>66980</v>
+        <v>66984</v>
       </c>
       <c s="21" r="C295">
-        <v>6789</v>
+        <v>8349</v>
       </c>
       <c s="22" r="D295">
-        <v>0.101358614511795</v>
+        <v>0.124641705481906</v>
       </c>
       <c s="23" r="E295">
-        <v>1671.2850</v>
+        <v>1839.7345</v>
       </c>
       <c s="21" r="F295">
-        <v>60191</v>
+        <v>58635</v>
       </c>
     </row>
   </sheetData>
@@ -6631,7 +6631,7 @@
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.888889763779528" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8 Delvadia, Eddie - 7/21/2025 4:21 PM &amp;R&amp;"Arial,Regular"&amp;8Page &amp;P of &amp;N </oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8 Delvadia, Eddie - 7/28/2025 9:01 AM &amp;R&amp;"Arial,Regular"&amp;8Page &amp;P of &amp;N </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/data/raw/supplyit/UsageOverview.xlsx
+++ b/data/raw/supplyit/UsageOverview.xlsx
@@ -315,7 +315,7 @@
         <is>
           <t xml:space="preserve">
 Location(s): 7
-Date Range:: 8/24/2025 - 8/30/2025
+Date Range:: 8/31/2025 - 9/6/2025
 Days: All
 Products: All
 Shifts: All
@@ -390,39 +390,39 @@
         </is>
       </c>
       <c s="8" r="B8">
-        <v>10863</v>
+        <v>10698</v>
       </c>
       <c s="8" r="C8">
-        <v>983</v>
+        <v>1412</v>
       </c>
       <c s="9" r="D8">
-        <v>0.0904906563564393</v>
+        <v>0.131987287343429</v>
       </c>
       <c s="10" r="E8">
-        <v>229.7489</v>
+        <v>301.5586</v>
       </c>
       <c s="8" r="F8">
-        <v>9880</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="11" r="A9">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c s="12" r="B9">
-        <v>1662</v>
+        <v>1635</v>
       </c>
       <c s="12" r="C9">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c s="13" r="D9">
-        <v>0.101684717208183</v>
+        <v>0</v>
       </c>
       <c s="14" r="E9">
-        <v>52.8173</v>
+        <v>0.0000</v>
       </c>
       <c s="12" r="F9">
-        <v>1493</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="0">
@@ -432,19 +432,19 @@
         </is>
       </c>
       <c s="16" r="B10">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c s="16" r="C10">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c s="17" r="D10">
-        <v>0.22280701754386</v>
+        <v>0</v>
       </c>
       <c s="18" r="E10">
-        <v>47.4733</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F10">
-        <v>443</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="0">
@@ -454,19 +454,19 @@
         </is>
       </c>
       <c s="16" r="B11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c s="16" r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="17" r="D11">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c s="18" r="E11">
-        <v>1.9800</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="0">
@@ -479,36 +479,36 @@
         <v>1080</v>
       </c>
       <c s="16" r="C12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c s="17" r="D12">
-        <v>0.037037037037037</v>
+        <v>0</v>
       </c>
       <c s="18" r="E12">
-        <v>3.3640</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F12">
-        <v>1040</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="0">
       <c s="11" r="A13">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c s="12" r="B13">
-        <v>1098</v>
+        <v>1161</v>
       </c>
       <c s="12" r="C13">
-        <v>432</v>
+        <v>33</v>
       </c>
       <c s="13" r="D13">
-        <v>0.39344262295082</v>
+        <v>0.0284237726098191</v>
       </c>
       <c s="14" r="E13">
-        <v>58.2331</v>
+        <v>10.0225</v>
       </c>
       <c s="12" r="F13">
-        <v>666</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="0">
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c s="16" r="B14">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c s="16" r="C14">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c s="17" r="D14">
-        <v>0.136111111111111</v>
+        <v>0</v>
       </c>
       <c s="18" r="E14">
-        <v>18.7756</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F14">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
@@ -540,19 +540,19 @@
         </is>
       </c>
       <c s="16" r="B15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c s="16" r="C15">
         <v>8</v>
       </c>
       <c s="17" r="D15">
-        <v>0.444444444444444</v>
+        <v>0.533333333333333</v>
       </c>
       <c s="18" r="E15">
         <v>7.9200</v>
       </c>
       <c s="16" r="F15">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -562,39 +562,39 @@
         </is>
       </c>
       <c s="16" r="B16">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c s="16" r="C16">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c s="17" r="D16">
-        <v>0.520833333333333</v>
+        <v>0.032051282051282</v>
       </c>
       <c s="18" r="E16">
-        <v>31.5375</v>
+        <v>2.1025</v>
       </c>
       <c s="16" r="F16">
-        <v>345</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
       <c s="11" r="A17">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c s="12" r="B17">
-        <v>1239</v>
+        <v>1614</v>
       </c>
       <c s="12" r="C17">
-        <v>33</v>
+        <v>501</v>
       </c>
       <c s="13" r="D17">
-        <v>0.026634382566586</v>
+        <v>0.310408921933086</v>
       </c>
       <c s="14" r="E17">
-        <v>14.8118</v>
+        <v>126.1007</v>
       </c>
       <c s="12" r="F17">
-        <v>1206</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c s="16" r="B18">
-        <v>384</v>
+        <v>522</v>
       </c>
       <c s="16" r="C18">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c s="17" r="D18">
-        <v>0.0755208333333333</v>
+        <v>0.507662835249042</v>
       </c>
       <c s="18" r="E18">
-        <v>10.8518</v>
+        <v>99.9118</v>
       </c>
       <c s="16" r="F18">
-        <v>355</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c s="16" r="B19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c s="16" r="C19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="17" r="D19">
-        <v>0.266666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c s="18" r="E19">
-        <v>3.9600</v>
+        <v>6.9300</v>
       </c>
       <c s="16" r="F19">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -648,39 +648,39 @@
         </is>
       </c>
       <c s="16" r="B20">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c s="16" r="C20">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c s="17" r="D20">
-        <v>0</v>
+        <v>0.212037037037037</v>
       </c>
       <c s="18" r="E20">
-        <v>0.0000</v>
+        <v>19.2589</v>
       </c>
       <c s="16" r="F20">
-        <v>840</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
       <c s="11" r="A21">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c s="12" r="B21">
-        <v>1644</v>
+        <v>1572</v>
       </c>
       <c s="12" r="C21">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c s="13" r="D21">
-        <v>0.152068126520681</v>
+        <v>0.269083969465649</v>
       </c>
       <c s="14" r="E21">
-        <v>65.5223</v>
+        <v>68.7251</v>
       </c>
       <c s="12" r="F21">
-        <v>1394</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -690,19 +690,19 @@
         </is>
       </c>
       <c s="16" r="B22">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c s="16" r="C22">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c s="17" r="D22">
-        <v>0.302845528455285</v>
+        <v>0.191666666666667</v>
       </c>
       <c s="18" r="E22">
-        <v>56.1223</v>
+        <v>35.4526</v>
       </c>
       <c s="16" r="F22">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -715,16 +715,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="17" r="D23">
-        <v>0.0833333333333333</v>
+        <v>0.5</v>
       </c>
       <c s="18" r="E23">
-        <v>0.9900</v>
+        <v>5.9400</v>
       </c>
       <c s="16" r="F23">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -734,27 +734,27 @@
         </is>
       </c>
       <c s="16" r="B24">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c s="16" r="C24">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c s="17" r="D24">
-        <v>0.087719298245614</v>
+        <v>0.300925925925926</v>
       </c>
       <c s="18" r="E24">
-        <v>8.4100</v>
+        <v>27.3325</v>
       </c>
       <c s="16" r="F24">
-        <v>1040</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
       <c s="11" r="A25">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c s="12" r="B25">
-        <v>1596</v>
+        <v>1272</v>
       </c>
       <c s="12" r="C25">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0.0000</v>
       </c>
       <c s="12" r="F25">
-        <v>1596</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c s="16" r="B26">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c s="16" r="C26">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F26">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c s="16" r="B28">
-        <v>1080</v>
+        <v>780</v>
       </c>
       <c s="16" r="C28">
         <v>0</v>
@@ -832,27 +832,27 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F28">
-        <v>1080</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
       <c s="11" r="A29">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c s="12" r="B29">
-        <v>1716</v>
+        <v>1770</v>
       </c>
       <c s="12" r="C29">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c s="13" r="D29">
-        <v>0.053030303030303</v>
+        <v>0.211299435028249</v>
       </c>
       <c s="14" r="E29">
-        <v>30.4444</v>
+        <v>88.1576</v>
       </c>
       <c s="12" r="F29">
-        <v>1625</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c s="16" r="B30">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c s="16" r="C30">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c s="17" r="D30">
-        <v>0.0961538461538462</v>
+        <v>0.292880258899676</v>
       </c>
       <c s="18" r="E30">
-        <v>22.4019</v>
+        <v>68.3027</v>
       </c>
       <c s="16" r="F30">
-        <v>564</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -887,16 +887,16 @@
         <v>12</v>
       </c>
       <c s="16" r="C31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="17" r="D31">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c s="18" r="E31">
-        <v>5.9400</v>
+        <v>3.9600</v>
       </c>
       <c s="16" r="F31">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -906,39 +906,39 @@
         </is>
       </c>
       <c s="16" r="B32">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c s="16" r="C32">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c s="17" r="D32">
-        <v>0.0231481481481481</v>
+        <v>0.165789473684211</v>
       </c>
       <c s="18" r="E32">
-        <v>2.1025</v>
+        <v>15.8949</v>
       </c>
       <c s="16" r="F32">
-        <v>1055</v>
+        <v>951</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
       <c s="11" r="A33">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c s="12" r="B33">
-        <v>1908</v>
+        <v>1674</v>
       </c>
       <c s="12" r="C33">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c s="13" r="D33">
-        <v>0.00419287211740042</v>
+        <v>0.0483870967741935</v>
       </c>
       <c s="14" r="E33">
-        <v>7.9200</v>
+        <v>8.5527</v>
       </c>
       <c s="12" r="F33">
-        <v>1900</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c s="16" r="B34">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c s="16" r="C34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c s="17" r="D34">
-        <v>0</v>
+        <v>0.0103092783505155</v>
       </c>
       <c s="18" r="E34">
-        <v>0.0000</v>
+        <v>2.2452</v>
       </c>
       <c s="16" r="F34">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -970,19 +970,19 @@
         </is>
       </c>
       <c s="16" r="B35">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c s="16" r="C35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c s="17" r="D35">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c s="18" r="E35">
-        <v>7.9200</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F35">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c s="16" r="B36">
-        <v>1320</v>
+        <v>1080</v>
       </c>
       <c s="16" r="C36">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c s="17" r="D36">
-        <v>0</v>
+        <v>0.0694444444444444</v>
       </c>
       <c s="18" r="E36">
-        <v>0.0000</v>
+        <v>6.3075</v>
       </c>
       <c s="16" r="F36">
-        <v>1320</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -1014,39 +1014,39 @@
         </is>
       </c>
       <c s="8" r="B37">
-        <v>12426</v>
+        <v>12822</v>
       </c>
       <c s="8" r="C37">
-        <v>1090</v>
+        <v>1335</v>
       </c>
       <c s="9" r="D37">
-        <v>0.087719298245614</v>
+        <v>0.104117922321011</v>
       </c>
       <c s="10" r="E37">
-        <v>203.2978</v>
+        <v>269.8570</v>
       </c>
       <c s="8" r="F37">
-        <v>11336</v>
+        <v>11487</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
       <c s="11" r="A38">
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c s="12" r="B38">
-        <v>1842</v>
+        <v>1998</v>
       </c>
       <c s="12" r="C38">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c s="13" r="D38">
-        <v>0.149294245385451</v>
+        <v>0</v>
       </c>
       <c s="14" r="E38">
-        <v>44.6679</v>
+        <v>0.0000</v>
       </c>
       <c s="12" r="F38">
-        <v>1567</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -1122,89 +1122,89 @@
         </is>
       </c>
       <c s="16" r="B42">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c s="16" r="C42">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c s="17" r="D42">
-        <v>0.14367816091954</v>
+        <v>0</v>
       </c>
       <c s="18" r="E42">
-        <v>27.8479</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F42">
-        <v>447</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A43">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B43">
+        <v>18</v>
+      </c>
+      <c s="16" r="C43">
+        <v>0</v>
+      </c>
+      <c s="17" r="D43">
+        <v>0</v>
+      </c>
+      <c s="18" r="E43">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A44">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B43">
-        <v>1320</v>
-      </c>
-      <c s="16" r="C43">
-        <v>200</v>
-      </c>
-      <c s="17" r="D43">
-        <v>0.151515151515152</v>
-      </c>
-      <c s="18" r="E43">
-        <v>16.8200</v>
-      </c>
-      <c s="16" r="F43">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="44" ht="18" customHeight="0">
-      <c s="11" r="A44">
-        <v>45894</v>
-      </c>
-      <c s="12" r="B44">
-        <v>1578</v>
-      </c>
-      <c s="12" r="C44">
-        <v>194</v>
-      </c>
-      <c s="13" r="D44">
-        <v>0.122940430925222</v>
-      </c>
-      <c s="14" r="E44">
-        <v>43.6459</v>
-      </c>
-      <c s="12" r="F44">
-        <v>1384</v>
+      <c s="16" r="B44">
+        <v>1380</v>
+      </c>
+      <c s="16" r="C44">
+        <v>0</v>
+      </c>
+      <c s="17" r="D44">
+        <v>0</v>
+      </c>
+      <c s="18" r="E44">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F44">
+        <v>1380</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A45">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B45">
-        <v>0</v>
-      </c>
-      <c s="16" r="C45">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D45">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E45">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F45">
-        <v>0</v>
+      <c s="11" r="A45">
+        <v>45901</v>
+      </c>
+      <c s="12" r="B45">
+        <v>1620</v>
+      </c>
+      <c s="12" r="C45">
+        <v>48</v>
+      </c>
+      <c s="13" r="D45">
+        <v>0.0296296296296296</v>
+      </c>
+      <c s="14" r="E45">
+        <v>20.3221</v>
+      </c>
+      <c s="12" r="F45">
+        <v>1572</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B46">
@@ -1226,7 +1226,7 @@
     <row r="47" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B47">
@@ -1248,115 +1248,115 @@
     <row r="48" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B48">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c s="16" r="C48">
-        <v>79</v>
-      </c>
-      <c s="17" r="D48">
-        <v>0.18287037037037</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D48">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E48">
-        <v>29.4449</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F48">
-        <v>353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B49">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c s="16" r="C49">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c s="17" r="D49">
-        <v>0.833333333333333</v>
+        <v>0.0961538461538462</v>
       </c>
       <c s="18" r="E49">
-        <v>4.9500</v>
+        <v>17.3521</v>
       </c>
       <c s="16" r="F49">
-        <v>1</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A50">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B50">
+        <v>12</v>
+      </c>
+      <c s="16" r="C50">
+        <v>3</v>
+      </c>
+      <c s="17" r="D50">
+        <v>0.25</v>
+      </c>
+      <c s="18" r="E50">
+        <v>2.9700</v>
+      </c>
+      <c s="16" r="F50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A51">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B50">
+      <c s="16" r="B51">
         <v>1140</v>
       </c>
-      <c s="16" r="C50">
-        <v>110</v>
-      </c>
-      <c s="17" r="D50">
-        <v>0.0964912280701754</v>
-      </c>
-      <c s="18" r="E50">
-        <v>9.2510</v>
-      </c>
-      <c s="16" r="F50">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="51" ht="18" customHeight="0">
-      <c s="11" r="A51">
-        <v>45895</v>
-      </c>
-      <c s="12" r="B51">
-        <v>1392</v>
-      </c>
-      <c s="12" r="C51">
-        <v>150</v>
-      </c>
-      <c s="13" r="D51">
-        <v>0.107758620689655</v>
-      </c>
-      <c s="14" r="E51">
-        <v>38.6572</v>
-      </c>
-      <c s="12" r="F51">
-        <v>1242</v>
+      <c s="16" r="C51">
+        <v>0</v>
+      </c>
+      <c s="17" r="D51">
+        <v>0</v>
+      </c>
+      <c s="18" r="E51">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F51">
+        <v>1140</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A52">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B52">
-        <v>0</v>
-      </c>
-      <c s="16" r="C52">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D52">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E52">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F52">
-        <v>0</v>
+      <c s="11" r="A52">
+        <v>45902</v>
+      </c>
+      <c s="12" r="B52">
+        <v>1374</v>
+      </c>
+      <c s="12" r="C52">
+        <v>362</v>
+      </c>
+      <c s="13" r="D52">
+        <v>0.263464337700146</v>
+      </c>
+      <c s="14" r="E52">
+        <v>63.1820</v>
+      </c>
+      <c s="12" r="F52">
+        <v>1012</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B53">
@@ -1378,7 +1378,7 @@
     <row r="54" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B54">
@@ -1400,115 +1400,115 @@
     <row r="55" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B55">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c s="16" r="C55">
-        <v>90</v>
-      </c>
-      <c s="17" r="D55">
-        <v>0.211267605633803</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D55">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E55">
-        <v>33.6112</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F55">
-        <v>336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B56">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c s="16" r="C56">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c s="17" r="D56">
-        <v>0</v>
+        <v>0.298850574712644</v>
       </c>
       <c s="18" r="E56">
-        <v>0.0000</v>
+        <v>38.7665</v>
       </c>
       <c s="16" r="F56">
-        <v>6</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A57">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B57">
+        <v>6</v>
+      </c>
+      <c s="16" r="C57">
+        <v>3</v>
+      </c>
+      <c s="17" r="D57">
+        <v>0.5</v>
+      </c>
+      <c s="18" r="E57">
+        <v>2.9700</v>
+      </c>
+      <c s="16" r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A58">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B57">
-        <v>960</v>
-      </c>
-      <c s="16" r="C57">
-        <v>60</v>
-      </c>
-      <c s="17" r="D57">
-        <v>0.0625</v>
-      </c>
-      <c s="18" r="E57">
-        <v>5.0460</v>
-      </c>
-      <c s="16" r="F57">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="58" ht="18" customHeight="0">
-      <c s="11" r="A58">
-        <v>45896</v>
-      </c>
-      <c s="12" r="B58">
-        <v>1536</v>
-      </c>
-      <c s="12" r="C58">
-        <v>0</v>
-      </c>
-      <c s="13" r="D58">
-        <v>0</v>
-      </c>
-      <c s="14" r="E58">
-        <v>0.0000</v>
-      </c>
-      <c s="12" r="F58">
-        <v>1536</v>
+      <c s="16" r="B58">
+        <v>1020</v>
+      </c>
+      <c s="16" r="C58">
+        <v>255</v>
+      </c>
+      <c s="17" r="D58">
+        <v>0.25</v>
+      </c>
+      <c s="18" r="E58">
+        <v>21.4455</v>
+      </c>
+      <c s="16" r="F58">
+        <v>765</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A59">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B59">
-        <v>0</v>
-      </c>
-      <c s="16" r="C59">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D59">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E59">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F59">
-        <v>0</v>
+      <c s="11" r="A59">
+        <v>45903</v>
+      </c>
+      <c s="12" r="B59">
+        <v>1782</v>
+      </c>
+      <c s="12" r="C59">
+        <v>375</v>
+      </c>
+      <c s="13" r="D59">
+        <v>0.21043771043771</v>
+      </c>
+      <c s="14" r="E59">
+        <v>98.1731</v>
+      </c>
+      <c s="12" r="F59">
+        <v>1407</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B60">
@@ -1530,7 +1530,7 @@
     <row r="61" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B61">
@@ -1552,115 +1552,115 @@
     <row r="62" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B62">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c s="16" r="C62">
         <v>0</v>
       </c>
-      <c s="17" r="D62">
-        <v>0</v>
+      <c s="19" t="e" r="D62">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E62">
         <v>0.0000</v>
       </c>
       <c s="16" r="F62">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B63">
-        <v>6</v>
+        <v>516</v>
       </c>
       <c s="16" r="C63">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c s="17" r="D63">
-        <v>0</v>
+        <v>0.430232558139535</v>
       </c>
       <c s="18" r="E63">
-        <v>0.0000</v>
+        <v>82.5881</v>
       </c>
       <c s="16" r="F63">
-        <v>6</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A64">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B64">
+        <v>6</v>
+      </c>
+      <c s="16" r="C64">
+        <v>3</v>
+      </c>
+      <c s="17" r="D64">
+        <v>0.5</v>
+      </c>
+      <c s="18" r="E64">
+        <v>2.9700</v>
+      </c>
+      <c s="16" r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A65">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B64">
-        <v>1140</v>
-      </c>
-      <c s="16" r="C64">
-        <v>0</v>
-      </c>
-      <c s="17" r="D64">
-        <v>0</v>
-      </c>
-      <c s="18" r="E64">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F64">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="65" ht="18" customHeight="0">
-      <c s="11" r="A65">
-        <v>45897</v>
-      </c>
-      <c s="12" r="B65">
-        <v>1710</v>
-      </c>
-      <c s="12" r="C65">
-        <v>189</v>
-      </c>
-      <c s="13" r="D65">
-        <v>0.110526315789474</v>
-      </c>
-      <c s="14" r="E65">
-        <v>43.4276</v>
-      </c>
-      <c s="12" r="F65">
-        <v>1521</v>
+      <c s="16" r="B65">
+        <v>1260</v>
+      </c>
+      <c s="16" r="C65">
+        <v>150</v>
+      </c>
+      <c s="17" r="D65">
+        <v>0.119047619047619</v>
+      </c>
+      <c s="18" r="E65">
+        <v>12.6150</v>
+      </c>
+      <c s="16" r="F65">
+        <v>1110</v>
       </c>
     </row>
     <row r="66" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A66">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B66">
-        <v>0</v>
-      </c>
-      <c s="16" r="C66">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D66">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E66">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F66">
-        <v>0</v>
+      <c s="11" r="A66">
+        <v>45904</v>
+      </c>
+      <c s="12" r="B66">
+        <v>1770</v>
+      </c>
+      <c s="12" r="C66">
+        <v>0</v>
+      </c>
+      <c s="13" r="D66">
+        <v>0</v>
+      </c>
+      <c s="14" r="E66">
+        <v>0.0000</v>
+      </c>
+      <c s="12" r="F66">
+        <v>1770</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B67">
@@ -1682,7 +1682,7 @@
     <row r="68" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B68">
@@ -1704,115 +1704,115 @@
     <row r="69" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B69">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c s="16" r="C69">
-        <v>86</v>
-      </c>
-      <c s="17" r="D69">
-        <v>0.193693693693694</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D69">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E69">
-        <v>32.0476</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F69">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B70">
-        <v>6</v>
+        <v>444</v>
       </c>
       <c s="16" r="C70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="17" r="D70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c s="18" r="E70">
-        <v>2.9700</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F70">
-        <v>3</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A71">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B71">
+        <v>6</v>
+      </c>
+      <c s="16" r="C71">
+        <v>0</v>
+      </c>
+      <c s="17" r="D71">
+        <v>0</v>
+      </c>
+      <c s="18" r="E71">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A72">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B71">
-        <v>1260</v>
-      </c>
-      <c s="16" r="C71">
-        <v>100</v>
-      </c>
-      <c s="17" r="D71">
-        <v>0.0793650793650794</v>
-      </c>
-      <c s="18" r="E71">
-        <v>8.4100</v>
-      </c>
-      <c s="16" r="F71">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="72" ht="18" customHeight="0">
-      <c s="11" r="A72">
-        <v>45898</v>
-      </c>
-      <c s="12" r="B72">
-        <v>2070</v>
-      </c>
-      <c s="12" r="C72">
-        <v>12</v>
-      </c>
-      <c s="13" r="D72">
-        <v>0.00579710144927536</v>
-      </c>
-      <c s="14" r="E72">
-        <v>4.3902</v>
-      </c>
-      <c s="12" r="F72">
-        <v>2058</v>
+      <c s="16" r="B72">
+        <v>1320</v>
+      </c>
+      <c s="16" r="C72">
+        <v>0</v>
+      </c>
+      <c s="17" r="D72">
+        <v>0</v>
+      </c>
+      <c s="18" r="E72">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F72">
+        <v>1320</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A73">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B73">
-        <v>0</v>
-      </c>
-      <c s="16" r="C73">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D73">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E73">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F73">
-        <v>0</v>
+      <c s="11" r="A73">
+        <v>45905</v>
+      </c>
+      <c s="12" r="B73">
+        <v>1992</v>
+      </c>
+      <c s="12" r="C73">
+        <v>220</v>
+      </c>
+      <c s="13" r="D73">
+        <v>0.110441767068273</v>
+      </c>
+      <c s="14" r="E73">
+        <v>44.2102</v>
+      </c>
+      <c s="12" r="F73">
+        <v>1772</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B74">
@@ -1834,7 +1834,7 @@
     <row r="75" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B75">
@@ -1856,115 +1856,115 @@
     <row r="76" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B76">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c s="16" r="C76">
-        <v>12</v>
-      </c>
-      <c s="17" r="D76">
-        <v>0.0238095238095238</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D76">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E76">
-        <v>4.3902</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F76">
-        <v>492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B77">
-        <v>6</v>
+        <v>546</v>
       </c>
       <c s="16" r="C77">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c s="17" r="D77">
-        <v>0</v>
+        <v>0.164835164835165</v>
       </c>
       <c s="18" r="E77">
-        <v>0.0000</v>
+        <v>33.2772</v>
       </c>
       <c s="16" r="F77">
-        <v>6</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A78">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B78">
+        <v>6</v>
+      </c>
+      <c s="16" r="C78">
+        <v>0</v>
+      </c>
+      <c s="17" r="D78">
+        <v>0</v>
+      </c>
+      <c s="18" r="E78">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A79">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B78">
-        <v>1560</v>
-      </c>
-      <c s="16" r="C78">
-        <v>0</v>
-      </c>
-      <c s="17" r="D78">
-        <v>0</v>
-      </c>
-      <c s="18" r="E78">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F78">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="79" ht="18" customHeight="0">
-      <c s="11" r="A79">
-        <v>45899</v>
-      </c>
-      <c s="12" r="B79">
-        <v>2298</v>
-      </c>
-      <c s="12" r="C79">
-        <v>270</v>
-      </c>
-      <c s="13" r="D79">
-        <v>0.117493472584856</v>
-      </c>
-      <c s="14" r="E79">
-        <v>28.5090</v>
-      </c>
-      <c s="12" r="F79">
-        <v>2028</v>
+      <c s="16" r="B79">
+        <v>1440</v>
+      </c>
+      <c s="16" r="C79">
+        <v>130</v>
+      </c>
+      <c s="17" r="D79">
+        <v>0.0902777777777778</v>
+      </c>
+      <c s="18" r="E79">
+        <v>10.9330</v>
+      </c>
+      <c s="16" r="F79">
+        <v>1310</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A80">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B80">
-        <v>0</v>
-      </c>
-      <c s="16" r="C80">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D80">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E80">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F80">
-        <v>0</v>
+      <c s="11" r="A80">
+        <v>45906</v>
+      </c>
+      <c s="12" r="B80">
+        <v>2286</v>
+      </c>
+      <c s="12" r="C80">
+        <v>330</v>
+      </c>
+      <c s="13" r="D80">
+        <v>0.144356955380577</v>
+      </c>
+      <c s="14" r="E80">
+        <v>43.9696</v>
+      </c>
+      <c s="12" r="F80">
+        <v>1956</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B81">
@@ -1986,7 +1986,7 @@
     <row r="82" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B82">
@@ -2008,137 +2008,137 @@
     <row r="83" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B83">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c s="16" r="C83">
-        <v>20</v>
-      </c>
-      <c s="17" r="D83">
-        <v>0.0333333333333333</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D83">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E83">
-        <v>7.4840</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F83">
-        <v>580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B84">
-        <v>18</v>
+        <v>642</v>
       </c>
       <c s="16" r="C84">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c s="17" r="D84">
-        <v>0</v>
+        <v>0.0778816199376947</v>
       </c>
       <c s="18" r="E84">
-        <v>0.0000</v>
+        <v>18.6098</v>
       </c>
       <c s="16" r="F84">
-        <v>18</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A85">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B85">
+        <v>24</v>
+      </c>
+      <c s="16" r="C85">
+        <v>2</v>
+      </c>
+      <c s="17" r="D85">
+        <v>0.0833333333333333</v>
+      </c>
+      <c s="18" r="E85">
+        <v>1.9800</v>
+      </c>
+      <c s="16" r="F85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A86">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B85">
-        <v>1680</v>
-      </c>
-      <c s="16" r="C85">
-        <v>250</v>
-      </c>
-      <c s="17" r="D85">
-        <v>0.148809523809524</v>
-      </c>
-      <c s="18" r="E85">
-        <v>21.0250</v>
-      </c>
-      <c s="16" r="F85">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="86" ht="18" customHeight="0">
-      <c s="7" t="inlineStr" r="A86">
+      <c s="16" r="B86">
+        <v>1620</v>
+      </c>
+      <c s="16" r="C86">
+        <v>278</v>
+      </c>
+      <c s="17" r="D86">
+        <v>0.171604938271605</v>
+      </c>
+      <c s="18" r="E86">
+        <v>23.3798</v>
+      </c>
+      <c s="16" r="F86">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="87" ht="18" customHeight="0">
+      <c s="7" t="inlineStr" r="A87">
         <is>
           <t xml:space="preserve">Enola (EA)</t>
         </is>
       </c>
-      <c s="8" r="B86">
-        <v>12684</v>
-      </c>
-      <c s="8" r="C86">
-        <v>890</v>
-      </c>
-      <c s="9" r="D86">
-        <v>0.0701671397035635</v>
-      </c>
-      <c s="10" r="E86">
-        <v>245.7225</v>
-      </c>
-      <c s="8" r="F86">
-        <v>11794</v>
-      </c>
-    </row>
-    <row r="87" ht="18" customHeight="0">
-      <c s="11" r="A87">
-        <v>45893</v>
-      </c>
-      <c s="12" r="B87">
-        <v>1884</v>
-      </c>
-      <c s="12" r="C87">
-        <v>113</v>
-      </c>
-      <c s="13" r="D87">
-        <v>0.0599787685774947</v>
-      </c>
-      <c s="14" r="E87">
-        <v>42.7668</v>
-      </c>
-      <c s="12" r="F87">
-        <v>1771</v>
+      <c s="8" r="B87">
+        <v>12504</v>
+      </c>
+      <c s="8" r="C87">
+        <v>1259</v>
+      </c>
+      <c s="9" r="D87">
+        <v>0.100687779910429</v>
+      </c>
+      <c s="10" r="E87">
+        <v>250.3537</v>
+      </c>
+      <c s="8" r="F87">
+        <v>11245</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A88">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B88">
-        <v>0</v>
-      </c>
-      <c s="16" r="C88">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D88">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E88">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F88">
-        <v>0</v>
+      <c s="11" r="A88">
+        <v>45900</v>
+      </c>
+      <c s="12" r="B88">
+        <v>1842</v>
+      </c>
+      <c s="12" r="C88">
+        <v>76</v>
+      </c>
+      <c s="13" r="D88">
+        <v>0.0412595005428882</v>
+      </c>
+      <c s="14" r="E88">
+        <v>29.2016</v>
+      </c>
+      <c s="12" r="F88">
+        <v>1766</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B89">
@@ -2160,7 +2160,7 @@
     <row r="90" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B90">
@@ -2182,115 +2182,115 @@
     <row r="91" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B91">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c s="16" r="C91">
-        <v>112</v>
-      </c>
-      <c s="17" r="D91">
-        <v>0.166666666666667</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D91">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E91">
-        <v>41.7768</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F91">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B92">
-        <v>12</v>
+        <v>630</v>
       </c>
       <c s="16" r="C92">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c s="17" r="D92">
-        <v>0.0833333333333333</v>
+        <v>0.119047619047619</v>
       </c>
       <c s="18" r="E92">
-        <v>0.9900</v>
+        <v>28.2116</v>
       </c>
       <c s="16" r="F92">
-        <v>11</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A93">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B93">
+        <v>12</v>
+      </c>
+      <c s="16" r="C93">
+        <v>1</v>
+      </c>
+      <c s="17" r="D93">
+        <v>0.0833333333333333</v>
+      </c>
+      <c s="18" r="E93">
+        <v>0.9900</v>
+      </c>
+      <c s="16" r="F93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A94">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B93">
+      <c s="16" r="B94">
         <v>1200</v>
       </c>
-      <c s="16" r="C93">
-        <v>0</v>
-      </c>
-      <c s="17" r="D93">
-        <v>0</v>
-      </c>
-      <c s="18" r="E93">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F93">
+      <c s="16" r="C94">
+        <v>0</v>
+      </c>
+      <c s="17" r="D94">
+        <v>0</v>
+      </c>
+      <c s="18" r="E94">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F94">
         <v>1200</v>
       </c>
     </row>
-    <row r="94" ht="18" customHeight="0">
-      <c s="11" r="A94">
-        <v>45894</v>
-      </c>
-      <c s="12" r="B94">
-        <v>1566</v>
-      </c>
-      <c s="12" r="C94">
-        <v>205</v>
-      </c>
-      <c s="13" r="D94">
-        <v>0.130906768837803</v>
-      </c>
-      <c s="14" r="E94">
-        <v>40.4891</v>
-      </c>
-      <c s="12" r="F94">
-        <v>1361</v>
-      </c>
-    </row>
     <row r="95" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A95">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B95">
-        <v>0</v>
-      </c>
-      <c s="16" r="C95">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D95">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E95">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F95">
-        <v>0</v>
+      <c s="11" r="A95">
+        <v>45901</v>
+      </c>
+      <c s="12" r="B95">
+        <v>1560</v>
+      </c>
+      <c s="12" r="C95">
+        <v>110</v>
+      </c>
+      <c s="13" r="D95">
+        <v>0.0705128205128205</v>
+      </c>
+      <c s="14" r="E95">
+        <v>36.6871</v>
+      </c>
+      <c s="12" r="F95">
+        <v>1450</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B96">
@@ -2312,7 +2312,7 @@
     <row r="97" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B97">
@@ -2334,115 +2334,115 @@
     <row r="98" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B98">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c s="16" r="C98">
-        <v>42</v>
-      </c>
-      <c s="17" r="D98">
-        <v>0.0886075949367089</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D98">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E98">
-        <v>16.8159</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F98">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B99">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c s="16" r="C99">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c s="17" r="D99">
-        <v>0.916666666666667</v>
+        <v>0.141025641025641</v>
       </c>
       <c s="18" r="E99">
-        <v>10.8900</v>
+        <v>24.8336</v>
       </c>
       <c s="16" r="F99">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A100">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B100">
+        <v>12</v>
+      </c>
+      <c s="16" r="C100">
+        <v>9</v>
+      </c>
+      <c s="17" r="D100">
+        <v>0.75</v>
+      </c>
+      <c s="18" r="E100">
+        <v>8.9100</v>
+      </c>
+      <c s="16" r="F100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A101">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B100">
+      <c s="16" r="B101">
         <v>1080</v>
       </c>
-      <c s="16" r="C100">
-        <v>152</v>
-      </c>
-      <c s="17" r="D100">
-        <v>0.140740740740741</v>
-      </c>
-      <c s="18" r="E100">
-        <v>12.7832</v>
-      </c>
-      <c s="16" r="F100">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="101" ht="18" customHeight="0">
-      <c s="11" r="A101">
-        <v>45895</v>
-      </c>
-      <c s="12" r="B101">
-        <v>1602</v>
-      </c>
-      <c s="12" r="C101">
-        <v>32</v>
-      </c>
-      <c s="13" r="D101">
-        <v>0.0199750312109863</v>
-      </c>
-      <c s="14" r="E101">
-        <v>14.7308</v>
-      </c>
-      <c s="12" r="F101">
-        <v>1570</v>
+      <c s="16" r="C101">
+        <v>35</v>
+      </c>
+      <c s="17" r="D101">
+        <v>0.0324074074074074</v>
+      </c>
+      <c s="18" r="E101">
+        <v>2.9435</v>
+      </c>
+      <c s="16" r="F101">
+        <v>1045</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A102">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B102">
-        <v>0</v>
-      </c>
-      <c s="16" r="C102">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D102">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E102">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F102">
-        <v>0</v>
+      <c s="11" r="A102">
+        <v>45902</v>
+      </c>
+      <c s="12" r="B102">
+        <v>1590</v>
+      </c>
+      <c s="12" r="C102">
+        <v>216</v>
+      </c>
+      <c s="13" r="D102">
+        <v>0.135849056603774</v>
+      </c>
+      <c s="14" r="E102">
+        <v>33.2270</v>
+      </c>
+      <c s="12" r="F102">
+        <v>1374</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B103">
@@ -2464,7 +2464,7 @@
     <row r="104" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B104">
@@ -2486,115 +2486,115 @@
     <row r="105" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B105">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c s="16" r="C105">
-        <v>28</v>
-      </c>
-      <c s="17" r="D105">
-        <v>0.0549019607843137</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D105">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E105">
-        <v>10.7708</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F105">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B106">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c s="16" r="C106">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c s="17" r="D106">
-        <v>0.333333333333333</v>
+        <v>0.102409638554217</v>
       </c>
       <c s="18" r="E106">
-        <v>3.9600</v>
+        <v>19.3505</v>
       </c>
       <c s="16" r="F106">
-        <v>8</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A107">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B107">
+        <v>12</v>
+      </c>
+      <c s="16" r="C107">
+        <v>0</v>
+      </c>
+      <c s="17" r="D107">
+        <v>0</v>
+      </c>
+      <c s="18" r="E107">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A108">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B107">
+      <c s="16" r="B108">
         <v>1080</v>
       </c>
-      <c s="16" r="C107">
-        <v>0</v>
-      </c>
-      <c s="17" r="D107">
-        <v>0</v>
-      </c>
-      <c s="18" r="E107">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F107">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="108" ht="18" customHeight="0">
-      <c s="11" r="A108">
-        <v>45896</v>
-      </c>
-      <c s="12" r="B108">
-        <v>1644</v>
-      </c>
-      <c s="12" r="C108">
-        <v>128</v>
-      </c>
-      <c s="13" r="D108">
-        <v>0.0778588807785888</v>
-      </c>
-      <c s="14" r="E108">
-        <v>35.3530</v>
-      </c>
-      <c s="12" r="F108">
-        <v>1516</v>
+      <c s="16" r="C108">
+        <v>165</v>
+      </c>
+      <c s="17" r="D108">
+        <v>0.152777777777778</v>
+      </c>
+      <c s="18" r="E108">
+        <v>13.8765</v>
+      </c>
+      <c s="16" r="F108">
+        <v>915</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A109">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B109">
-        <v>0</v>
-      </c>
-      <c s="16" r="C109">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D109">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E109">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F109">
-        <v>0</v>
+      <c s="11" r="A109">
+        <v>45903</v>
+      </c>
+      <c s="12" r="B109">
+        <v>1614</v>
+      </c>
+      <c s="12" r="C109">
+        <v>271</v>
+      </c>
+      <c s="13" r="D109">
+        <v>0.167905824039653</v>
+      </c>
+      <c s="14" r="E109">
+        <v>36.3256</v>
+      </c>
+      <c s="12" r="F109">
+        <v>1343</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B110">
@@ -2616,7 +2616,7 @@
     <row r="111" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A111">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B111">
@@ -2638,115 +2638,115 @@
     <row r="112" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A112">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B112">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c s="16" r="C112">
-        <v>64</v>
-      </c>
-      <c s="17" r="D112">
-        <v>0.115942028985507</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D112">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E112">
-        <v>24.5352</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F112">
-        <v>488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A113">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B113">
-        <v>12</v>
+        <v>522</v>
       </c>
       <c s="16" r="C113">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c s="17" r="D113">
-        <v>0.5</v>
+        <v>0.0900383141762452</v>
       </c>
       <c s="18" r="E113">
-        <v>5.9400</v>
+        <v>17.4872</v>
       </c>
       <c s="16" r="F113">
-        <v>6</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A114">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B114">
+        <v>12</v>
+      </c>
+      <c s="16" r="C114">
+        <v>0</v>
+      </c>
+      <c s="17" r="D114">
+        <v>0</v>
+      </c>
+      <c s="18" r="E114">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A115">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B114">
+      <c s="16" r="B115">
         <v>1080</v>
       </c>
-      <c s="16" r="C114">
-        <v>58</v>
-      </c>
-      <c s="17" r="D114">
-        <v>0.0537037037037037</v>
-      </c>
-      <c s="18" r="E114">
-        <v>4.8778</v>
-      </c>
-      <c s="16" r="F114">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="115" ht="18" customHeight="0">
-      <c s="11" r="A115">
-        <v>45897</v>
-      </c>
-      <c s="12" r="B115">
-        <v>1680</v>
-      </c>
-      <c s="12" r="C115">
-        <v>85</v>
-      </c>
-      <c s="13" r="D115">
-        <v>0.0505952380952381</v>
-      </c>
-      <c s="14" r="E115">
-        <v>17.6989</v>
-      </c>
-      <c s="12" r="F115">
-        <v>1595</v>
+      <c s="16" r="C115">
+        <v>224</v>
+      </c>
+      <c s="17" r="D115">
+        <v>0.207407407407407</v>
+      </c>
+      <c s="18" r="E115">
+        <v>18.8384</v>
+      </c>
+      <c s="16" r="F115">
+        <v>856</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A116">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B116">
-        <v>0</v>
-      </c>
-      <c s="16" r="C116">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D116">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E116">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F116">
-        <v>0</v>
+      <c s="11" r="A116">
+        <v>45904</v>
+      </c>
+      <c s="12" r="B116">
+        <v>1656</v>
+      </c>
+      <c s="12" r="C116">
+        <v>212</v>
+      </c>
+      <c s="13" r="D116">
+        <v>0.128019323671498</v>
+      </c>
+      <c s="14" r="E116">
+        <v>37.2250</v>
+      </c>
+      <c s="12" r="F116">
+        <v>1444</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A117">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B117">
@@ -2768,7 +2768,7 @@
     <row r="118" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A118">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B118">
@@ -2790,115 +2790,115 @@
     <row r="119" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A119">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B119">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c s="16" r="C119">
-        <v>27</v>
-      </c>
-      <c s="17" r="D119">
-        <v>0.0459183673469388</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D119">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E119">
-        <v>10.1034</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F119">
-        <v>561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A120">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B120">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c s="16" r="C120">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c s="17" r="D120">
-        <v>0.25</v>
+        <v>0.0806451612903226</v>
       </c>
       <c s="18" r="E120">
-        <v>2.9700</v>
+        <v>16.8390</v>
       </c>
       <c s="16" r="F120">
-        <v>9</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A121">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B121">
+        <v>18</v>
+      </c>
+      <c s="16" r="C121">
+        <v>7</v>
+      </c>
+      <c s="17" r="D121">
+        <v>0.388888888888889</v>
+      </c>
+      <c s="18" r="E121">
+        <v>6.9300</v>
+      </c>
+      <c s="16" r="F121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A122">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B121">
+      <c s="16" r="B122">
         <v>1080</v>
       </c>
-      <c s="16" r="C121">
-        <v>55</v>
-      </c>
-      <c s="17" r="D121">
-        <v>0.0509259259259259</v>
-      </c>
-      <c s="18" r="E121">
-        <v>4.6255</v>
-      </c>
-      <c s="16" r="F121">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="122" ht="18" customHeight="0">
-      <c s="11" r="A122">
-        <v>45898</v>
-      </c>
-      <c s="12" r="B122">
-        <v>1914</v>
-      </c>
-      <c s="12" r="C122">
-        <v>85</v>
-      </c>
-      <c s="13" r="D122">
-        <v>0.0444096133751306</v>
-      </c>
-      <c s="14" r="E122">
-        <v>37.3492</v>
-      </c>
-      <c s="12" r="F122">
-        <v>1829</v>
+      <c s="16" r="C122">
+        <v>160</v>
+      </c>
+      <c s="17" r="D122">
+        <v>0.148148148148148</v>
+      </c>
+      <c s="18" r="E122">
+        <v>13.4560</v>
+      </c>
+      <c s="16" r="F122">
+        <v>920</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A123">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B123">
-        <v>0</v>
-      </c>
-      <c s="16" r="C123">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D123">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E123">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F123">
-        <v>0</v>
+      <c s="11" r="A123">
+        <v>45905</v>
+      </c>
+      <c s="12" r="B123">
+        <v>1938</v>
+      </c>
+      <c s="12" r="C123">
+        <v>326</v>
+      </c>
+      <c s="13" r="D123">
+        <v>0.168214654282766</v>
+      </c>
+      <c s="14" r="E123">
+        <v>63.0290</v>
+      </c>
+      <c s="12" r="F123">
+        <v>1612</v>
       </c>
     </row>
     <row r="124" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A124">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B124">
@@ -2920,7 +2920,7 @@
     <row r="125" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A125">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B125">
@@ -2942,115 +2942,115 @@
     <row r="126" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A126">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B126">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c s="16" r="C126">
-        <v>76</v>
-      </c>
-      <c s="17" r="D126">
-        <v>0.109195402298851</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D126">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E126">
-        <v>28.4392</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F126">
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A127">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B127">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c s="16" r="C127">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c s="17" r="D127">
-        <v>0.5</v>
+        <v>0.131944444444444</v>
       </c>
       <c s="18" r="E127">
-        <v>8.9100</v>
+        <v>35.4488</v>
       </c>
       <c s="16" r="F127">
-        <v>9</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A128">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B128">
+        <v>18</v>
+      </c>
+      <c s="16" r="C128">
+        <v>9</v>
+      </c>
+      <c s="17" r="D128">
+        <v>0.5</v>
+      </c>
+      <c s="18" r="E128">
+        <v>8.9100</v>
+      </c>
+      <c s="16" r="F128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A129">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B128">
+      <c s="16" r="B129">
         <v>1200</v>
       </c>
-      <c s="16" r="C128">
-        <v>0</v>
-      </c>
-      <c s="17" r="D128">
-        <v>0</v>
-      </c>
-      <c s="18" r="E128">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F128">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="129" ht="18" customHeight="0">
-      <c s="11" r="A129">
-        <v>45899</v>
-      </c>
-      <c s="12" r="B129">
-        <v>2394</v>
-      </c>
-      <c s="12" r="C129">
-        <v>242</v>
-      </c>
-      <c s="13" r="D129">
-        <v>0.10108604845447</v>
-      </c>
-      <c s="14" r="E129">
-        <v>57.3347</v>
-      </c>
-      <c s="12" r="F129">
-        <v>2152</v>
+      <c s="16" r="C129">
+        <v>222</v>
+      </c>
+      <c s="17" r="D129">
+        <v>0.185</v>
+      </c>
+      <c s="18" r="E129">
+        <v>18.6702</v>
+      </c>
+      <c s="16" r="F129">
+        <v>978</v>
       </c>
     </row>
     <row r="130" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A130">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B130">
-        <v>0</v>
-      </c>
-      <c s="16" r="C130">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D130">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E130">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F130">
-        <v>0</v>
+      <c s="11" r="A130">
+        <v>45906</v>
+      </c>
+      <c s="12" r="B130">
+        <v>2304</v>
+      </c>
+      <c s="12" r="C130">
+        <v>48</v>
+      </c>
+      <c s="13" r="D130">
+        <v>0.0208333333333333</v>
+      </c>
+      <c s="14" r="E130">
+        <v>14.6584</v>
+      </c>
+      <c s="12" r="F130">
+        <v>2256</v>
       </c>
     </row>
     <row r="131" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A131">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B131">
@@ -3072,7 +3072,7 @@
     <row r="132" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A132">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B132">
@@ -3094,137 +3094,137 @@
     <row r="133" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A133">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B133">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c s="16" r="C133">
-        <v>128</v>
-      </c>
-      <c s="17" r="D133">
-        <v>0.169312169312169</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D133">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E133">
-        <v>47.7473</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F133">
-        <v>628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A134">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B134">
-        <v>18</v>
+        <v>726</v>
       </c>
       <c s="16" r="C134">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c s="17" r="D134">
-        <v>0</v>
+        <v>0.0289256198347107</v>
       </c>
       <c s="18" r="E134">
-        <v>0.0000</v>
+        <v>7.8582</v>
       </c>
       <c s="16" r="F134">
-        <v>18</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A135">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B135">
+        <v>18</v>
+      </c>
+      <c s="16" r="C135">
+        <v>5</v>
+      </c>
+      <c s="17" r="D135">
+        <v>0.277777777777778</v>
+      </c>
+      <c s="18" r="E135">
+        <v>4.9500</v>
+      </c>
+      <c s="16" r="F135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A136">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B135">
-        <v>1620</v>
-      </c>
-      <c s="16" r="C135">
-        <v>114</v>
-      </c>
-      <c s="17" r="D135">
-        <v>0.0703703703703704</v>
-      </c>
-      <c s="18" r="E135">
-        <v>9.5874</v>
-      </c>
-      <c s="16" r="F135">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="136" ht="18" customHeight="0">
-      <c s="7" t="inlineStr" r="A136">
+      <c s="16" r="B136">
+        <v>1560</v>
+      </c>
+      <c s="16" r="C136">
+        <v>22</v>
+      </c>
+      <c s="17" r="D136">
+        <v>0.0141025641025641</v>
+      </c>
+      <c s="18" r="E136">
+        <v>1.8502</v>
+      </c>
+      <c s="16" r="F136">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="137" ht="18" customHeight="0">
+      <c s="7" t="inlineStr" r="A137">
         <is>
           <t xml:space="preserve">Lititz (LZ)</t>
         </is>
       </c>
-      <c s="8" r="B136">
-        <v>11118</v>
-      </c>
-      <c s="8" r="C136">
-        <v>1831</v>
-      </c>
-      <c s="9" r="D136">
-        <v>0.164687893506026</v>
-      </c>
-      <c s="10" r="E136">
-        <v>348.4725</v>
-      </c>
-      <c s="8" r="F136">
-        <v>9287</v>
-      </c>
-    </row>
-    <row r="137" ht="18" customHeight="0">
-      <c s="11" r="A137">
-        <v>45893</v>
-      </c>
-      <c s="12" r="B137">
-        <v>1728</v>
-      </c>
-      <c s="12" r="C137">
-        <v>150</v>
-      </c>
-      <c s="13" r="D137">
-        <v>0.0868055555555556</v>
-      </c>
-      <c s="14" r="E137">
-        <v>37.0546</v>
-      </c>
-      <c s="12" r="F137">
-        <v>1578</v>
+      <c s="8" r="B137">
+        <v>10992</v>
+      </c>
+      <c s="8" r="C137">
+        <v>1779</v>
+      </c>
+      <c s="9" r="D137">
+        <v>0.161844978165939</v>
+      </c>
+      <c s="10" r="E137">
+        <v>389.4873</v>
+      </c>
+      <c s="8" r="F137">
+        <v>9213</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A138">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B138">
-        <v>0</v>
-      </c>
-      <c s="16" r="C138">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D138">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E138">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F138">
-        <v>0</v>
+      <c s="11" r="A138">
+        <v>45900</v>
+      </c>
+      <c s="12" r="B138">
+        <v>1782</v>
+      </c>
+      <c s="12" r="C138">
+        <v>202</v>
+      </c>
+      <c s="13" r="D138">
+        <v>0.113355780022447</v>
+      </c>
+      <c s="14" r="E138">
+        <v>52.5290</v>
+      </c>
+      <c s="12" r="F138">
+        <v>1580</v>
       </c>
     </row>
     <row r="139" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A139">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B139">
@@ -3246,7 +3246,7 @@
     <row r="140" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A140">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B140">
@@ -3268,115 +3268,115 @@
     <row r="141" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A141">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B141">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c s="16" r="C141">
-        <v>78</v>
-      </c>
-      <c s="17" r="D141">
-        <v>0.151162790697674</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D141">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E141">
-        <v>29.1876</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F141">
-        <v>438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A142">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B142">
-        <v>12</v>
+        <v>570</v>
       </c>
       <c s="16" r="C142">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c s="17" r="D142">
-        <v>0.166666666666667</v>
+        <v>0.189473684210526</v>
       </c>
       <c s="18" r="E142">
-        <v>1.9800</v>
+        <v>41.0000</v>
       </c>
       <c s="16" r="F142">
-        <v>10</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A143">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B143">
+        <v>12</v>
+      </c>
+      <c s="16" r="C143">
+        <v>4</v>
+      </c>
+      <c s="17" r="D143">
+        <v>0.333333333333333</v>
+      </c>
+      <c s="18" r="E143">
+        <v>3.9600</v>
+      </c>
+      <c s="16" r="F143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A144">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B143">
+      <c s="16" r="B144">
         <v>1200</v>
       </c>
-      <c s="16" r="C143">
-        <v>70</v>
-      </c>
-      <c s="17" r="D143">
-        <v>0.0583333333333333</v>
-      </c>
-      <c s="18" r="E143">
-        <v>5.8870</v>
-      </c>
-      <c s="16" r="F143">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="144" ht="18" customHeight="0">
-      <c s="11" r="A144">
-        <v>45894</v>
-      </c>
-      <c s="12" r="B144">
-        <v>1386</v>
-      </c>
-      <c s="12" r="C144">
-        <v>204</v>
-      </c>
-      <c s="13" r="D144">
-        <v>0.147186147186147</v>
-      </c>
-      <c s="14" r="E144">
-        <v>39.3893</v>
-      </c>
-      <c s="12" r="F144">
-        <v>1182</v>
+      <c s="16" r="C144">
+        <v>90</v>
+      </c>
+      <c s="17" r="D144">
+        <v>0.075</v>
+      </c>
+      <c s="18" r="E144">
+        <v>7.5690</v>
+      </c>
+      <c s="16" r="F144">
+        <v>1110</v>
       </c>
     </row>
     <row r="145" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A145">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B145">
-        <v>0</v>
-      </c>
-      <c s="16" r="C145">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D145">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E145">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F145">
-        <v>0</v>
+      <c s="11" r="A145">
+        <v>45901</v>
+      </c>
+      <c s="12" r="B145">
+        <v>1428</v>
+      </c>
+      <c s="12" r="C145">
+        <v>178</v>
+      </c>
+      <c s="13" r="D145">
+        <v>0.124649859943978</v>
+      </c>
+      <c s="14" r="E145">
+        <v>37.9508</v>
+      </c>
+      <c s="12" r="F145">
+        <v>1250</v>
       </c>
     </row>
     <row r="146" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A146">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B146">
@@ -3398,7 +3398,7 @@
     <row r="147" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A147">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B147">
@@ -3420,115 +3420,115 @@
     <row r="148" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A148">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B148">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c s="16" r="C148">
-        <v>72</v>
-      </c>
-      <c s="17" r="D148">
-        <v>0.173913043478261</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D148">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E148">
-        <v>27.3822</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F148">
-        <v>342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A149">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B149">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c s="16" r="C149">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c s="17" r="D149">
-        <v>0.0833333333333333</v>
+        <v>0.173245614035088</v>
       </c>
       <c s="18" r="E149">
-        <v>0.9900</v>
+        <v>29.6249</v>
       </c>
       <c s="16" r="F149">
-        <v>11</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A150">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B150">
+        <v>12</v>
+      </c>
+      <c s="16" r="C150">
+        <v>0</v>
+      </c>
+      <c s="17" r="D150">
+        <v>0</v>
+      </c>
+      <c s="18" r="E150">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A151">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B150">
+      <c s="16" r="B151">
         <v>960</v>
       </c>
-      <c s="16" r="C150">
-        <v>131</v>
-      </c>
-      <c s="17" r="D150">
-        <v>0.136458333333333</v>
-      </c>
-      <c s="18" r="E150">
-        <v>11.0171</v>
-      </c>
-      <c s="16" r="F150">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="151" ht="18" customHeight="0">
-      <c s="11" r="A151">
-        <v>45895</v>
-      </c>
-      <c s="12" r="B151">
-        <v>1386</v>
-      </c>
-      <c s="12" r="C151">
-        <v>382</v>
-      </c>
-      <c s="13" r="D151">
-        <v>0.275613275613276</v>
-      </c>
-      <c s="14" r="E151">
-        <v>76.8811</v>
-      </c>
-      <c s="12" r="F151">
-        <v>1004</v>
+      <c s="16" r="C151">
+        <v>99</v>
+      </c>
+      <c s="17" r="D151">
+        <v>0.103125</v>
+      </c>
+      <c s="18" r="E151">
+        <v>8.3259</v>
+      </c>
+      <c s="16" r="F151">
+        <v>861</v>
       </c>
     </row>
     <row r="152" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A152">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B152">
-        <v>0</v>
-      </c>
-      <c s="16" r="C152">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D152">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E152">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F152">
-        <v>0</v>
+      <c s="11" r="A152">
+        <v>45902</v>
+      </c>
+      <c s="12" r="B152">
+        <v>1404</v>
+      </c>
+      <c s="12" r="C152">
+        <v>364</v>
+      </c>
+      <c s="13" r="D152">
+        <v>0.259259259259259</v>
+      </c>
+      <c s="14" r="E152">
+        <v>73.2018</v>
+      </c>
+      <c s="12" r="F152">
+        <v>1040</v>
       </c>
     </row>
     <row r="153" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A153">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B153">
@@ -3550,7 +3550,7 @@
     <row r="154" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A154">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B154">
@@ -3572,115 +3572,115 @@
     <row r="155" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A155">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B155">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c s="16" r="C155">
-        <v>152</v>
-      </c>
-      <c s="17" r="D155">
-        <v>0.367149758454106</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D155">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E155">
-        <v>57.5381</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F155">
-        <v>262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A156">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B156">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c s="16" r="C156">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c s="17" r="D156">
-        <v>0</v>
+        <v>0.326388888888889</v>
       </c>
       <c s="18" r="E156">
-        <v>0.0000</v>
+        <v>53.5416</v>
       </c>
       <c s="16" r="F156">
-        <v>12</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A157">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B157">
+        <v>12</v>
+      </c>
+      <c s="16" r="C157">
+        <v>1</v>
+      </c>
+      <c s="17" r="D157">
+        <v>0.0833333333333333</v>
+      </c>
+      <c s="18" r="E157">
+        <v>0.9900</v>
+      </c>
+      <c s="16" r="F157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A158">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B157">
+      <c s="16" r="B158">
         <v>960</v>
       </c>
-      <c s="16" r="C157">
-        <v>230</v>
-      </c>
-      <c s="17" r="D157">
-        <v>0.239583333333333</v>
-      </c>
-      <c s="18" r="E157">
-        <v>19.3430</v>
-      </c>
-      <c s="16" r="F157">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="158" ht="18" customHeight="0">
-      <c s="11" r="A158">
-        <v>45896</v>
-      </c>
-      <c s="12" r="B158">
-        <v>1536</v>
-      </c>
-      <c s="12" r="C158">
-        <v>646</v>
-      </c>
-      <c s="13" r="D158">
-        <v>0.420572916666667</v>
-      </c>
-      <c s="14" r="E158">
-        <v>103.3977</v>
-      </c>
-      <c s="12" r="F158">
-        <v>890</v>
+      <c s="16" r="C158">
+        <v>222</v>
+      </c>
+      <c s="17" r="D158">
+        <v>0.23125</v>
+      </c>
+      <c s="18" r="E158">
+        <v>18.6702</v>
+      </c>
+      <c s="16" r="F158">
+        <v>738</v>
       </c>
     </row>
     <row r="159" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A159">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B159">
-        <v>0</v>
-      </c>
-      <c s="16" r="C159">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D159">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E159">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F159">
-        <v>0</v>
+      <c s="11" r="A159">
+        <v>45903</v>
+      </c>
+      <c s="12" r="B159">
+        <v>1506</v>
+      </c>
+      <c s="12" r="C159">
+        <v>460</v>
+      </c>
+      <c s="13" r="D159">
+        <v>0.305444887118194</v>
+      </c>
+      <c s="14" r="E159">
+        <v>97.7788</v>
+      </c>
+      <c s="12" r="F159">
+        <v>1046</v>
       </c>
     </row>
     <row r="160" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A160">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B160">
@@ -3702,7 +3702,7 @@
     <row r="161" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A161">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B161">
@@ -3724,115 +3724,115 @@
     <row r="162" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A162">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B162">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c s="16" r="C162">
-        <v>157</v>
-      </c>
-      <c s="17" r="D162">
-        <v>0.353603603603604</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D162">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E162">
-        <v>58.6492</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F162">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A163">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B163">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c s="16" r="C163">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c s="17" r="D163">
-        <v>0.333333333333333</v>
+        <v>0.439613526570048</v>
       </c>
       <c s="18" r="E163">
-        <v>3.9600</v>
+        <v>68.9636</v>
       </c>
       <c s="16" r="F163">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A164">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B164">
+        <v>12</v>
+      </c>
+      <c s="16" r="C164">
+        <v>6</v>
+      </c>
+      <c s="17" r="D164">
+        <v>0.5</v>
+      </c>
+      <c s="18" r="E164">
+        <v>5.9400</v>
+      </c>
+      <c s="16" r="F164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A165">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B164">
+      <c s="16" r="B165">
         <v>1080</v>
       </c>
-      <c s="16" r="C164">
-        <v>485</v>
-      </c>
-      <c s="17" r="D164">
-        <v>0.449074074074074</v>
-      </c>
-      <c s="18" r="E164">
-        <v>40.7885</v>
-      </c>
-      <c s="16" r="F164">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="165" ht="18" customHeight="0">
-      <c s="11" r="A165">
-        <v>45897</v>
-      </c>
-      <c s="12" r="B165">
-        <v>1542</v>
-      </c>
-      <c s="12" r="C165">
-        <v>205</v>
-      </c>
-      <c s="13" r="D165">
-        <v>0.132944228274968</v>
-      </c>
-      <c s="14" r="E165">
-        <v>26.5593</v>
-      </c>
-      <c s="12" r="F165">
-        <v>1337</v>
+      <c s="16" r="C165">
+        <v>272</v>
+      </c>
+      <c s="17" r="D165">
+        <v>0.251851851851852</v>
+      </c>
+      <c s="18" r="E165">
+        <v>22.8752</v>
+      </c>
+      <c s="16" r="F165">
+        <v>808</v>
       </c>
     </row>
     <row r="166" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A166">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B166">
-        <v>0</v>
-      </c>
-      <c s="16" r="C166">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D166">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E166">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F166">
-        <v>0</v>
+      <c s="11" r="A166">
+        <v>45904</v>
+      </c>
+      <c s="12" r="B166">
+        <v>1404</v>
+      </c>
+      <c s="12" r="C166">
+        <v>304</v>
+      </c>
+      <c s="13" r="D166">
+        <v>0.216524216524217</v>
+      </c>
+      <c s="14" r="E166">
+        <v>76.3683</v>
+      </c>
+      <c s="12" r="F166">
+        <v>1100</v>
       </c>
     </row>
     <row r="167" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A167">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B167">
@@ -3854,7 +3854,7 @@
     <row r="168" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A168">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B168">
@@ -3876,115 +3876,115 @@
     <row r="169" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A169">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B169">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c s="16" r="C169">
-        <v>29</v>
-      </c>
-      <c s="17" r="D169">
-        <v>0.0644444444444444</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D169">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E169">
-        <v>10.8518</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F169">
-        <v>421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A170">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B170">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c s="16" r="C170">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c s="17" r="D170">
-        <v>0.0833333333333333</v>
+        <v>0.321759259259259</v>
       </c>
       <c s="18" r="E170">
-        <v>0.9900</v>
+        <v>52.5269</v>
       </c>
       <c s="16" r="F170">
-        <v>11</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A171">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B171">
+        <v>12</v>
+      </c>
+      <c s="16" r="C171">
+        <v>11</v>
+      </c>
+      <c s="17" r="D171">
+        <v>0.916666666666667</v>
+      </c>
+      <c s="18" r="E171">
+        <v>10.8900</v>
+      </c>
+      <c s="16" r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A172">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B171">
-        <v>1080</v>
-      </c>
-      <c s="16" r="C171">
-        <v>175</v>
-      </c>
-      <c s="17" r="D171">
-        <v>0.162037037037037</v>
-      </c>
-      <c s="18" r="E171">
-        <v>14.7175</v>
-      </c>
-      <c s="16" r="F171">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="172" ht="18" customHeight="0">
-      <c s="11" r="A172">
-        <v>45898</v>
-      </c>
-      <c s="12" r="B172">
-        <v>1770</v>
-      </c>
-      <c s="12" r="C172">
-        <v>113</v>
-      </c>
-      <c s="13" r="D172">
-        <v>0.0638418079096045</v>
-      </c>
-      <c s="14" r="E172">
-        <v>26.1458</v>
-      </c>
-      <c s="12" r="F172">
-        <v>1657</v>
+      <c s="16" r="B172">
+        <v>960</v>
+      </c>
+      <c s="16" r="C172">
+        <v>154</v>
+      </c>
+      <c s="17" r="D172">
+        <v>0.160416666666667</v>
+      </c>
+      <c s="18" r="E172">
+        <v>12.9514</v>
+      </c>
+      <c s="16" r="F172">
+        <v>806</v>
       </c>
     </row>
     <row r="173" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A173">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B173">
-        <v>0</v>
-      </c>
-      <c s="16" r="C173">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D173">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E173">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F173">
-        <v>0</v>
+      <c s="11" r="A173">
+        <v>45905</v>
+      </c>
+      <c s="12" r="B173">
+        <v>1704</v>
+      </c>
+      <c s="12" r="C173">
+        <v>55</v>
+      </c>
+      <c s="13" r="D173">
+        <v>0.0322769953051643</v>
+      </c>
+      <c s="14" r="E173">
+        <v>11.3711</v>
+      </c>
+      <c s="12" r="F173">
+        <v>1649</v>
       </c>
     </row>
     <row r="174" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A174">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B174">
@@ -4006,7 +4006,7 @@
     <row r="175" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A175">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B175">
@@ -4028,115 +4028,115 @@
     <row r="176" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A176">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B176">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c s="16" r="C176">
-        <v>48</v>
-      </c>
-      <c s="17" r="D176">
-        <v>0.0860215053763441</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D176">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E176">
-        <v>17.9616</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F176">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A177">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B177">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c s="16" r="C177">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c s="17" r="D177">
-        <v>0.25</v>
+        <v>0.0416666666666667</v>
       </c>
       <c s="18" r="E177">
-        <v>2.9700</v>
+        <v>8.6799</v>
       </c>
       <c s="16" r="F177">
-        <v>9</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A178">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B178">
+        <v>12</v>
+      </c>
+      <c s="16" r="C178">
+        <v>0</v>
+      </c>
+      <c s="17" r="D178">
+        <v>0</v>
+      </c>
+      <c s="18" r="E178">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A179">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B178">
-        <v>1200</v>
-      </c>
-      <c s="16" r="C178">
-        <v>62</v>
-      </c>
-      <c s="17" r="D178">
-        <v>0.0516666666666667</v>
-      </c>
-      <c s="18" r="E178">
-        <v>5.2142</v>
-      </c>
-      <c s="16" r="F178">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="179" ht="18" customHeight="0">
-      <c s="11" r="A179">
-        <v>45899</v>
-      </c>
-      <c s="12" r="B179">
-        <v>1770</v>
-      </c>
-      <c s="12" r="C179">
-        <v>131</v>
-      </c>
-      <c s="13" r="D179">
-        <v>0.0740112994350283</v>
-      </c>
-      <c s="14" r="E179">
-        <v>39.0447</v>
-      </c>
-      <c s="12" r="F179">
-        <v>1639</v>
+      <c s="16" r="B179">
+        <v>1140</v>
+      </c>
+      <c s="16" r="C179">
+        <v>32</v>
+      </c>
+      <c s="17" r="D179">
+        <v>0.0280701754385965</v>
+      </c>
+      <c s="18" r="E179">
+        <v>2.6912</v>
+      </c>
+      <c s="16" r="F179">
+        <v>1108</v>
       </c>
     </row>
     <row r="180" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A180">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B180">
-        <v>0</v>
-      </c>
-      <c s="16" r="C180">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D180">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E180">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F180">
-        <v>0</v>
+      <c s="11" r="A180">
+        <v>45906</v>
+      </c>
+      <c s="12" r="B180">
+        <v>1764</v>
+      </c>
+      <c s="12" r="C180">
+        <v>216</v>
+      </c>
+      <c s="13" r="D180">
+        <v>0.122448979591837</v>
+      </c>
+      <c s="14" r="E180">
+        <v>40.2875</v>
+      </c>
+      <c s="12" r="F180">
+        <v>1548</v>
       </c>
     </row>
     <row r="181" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A181">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B181">
@@ -4158,7 +4158,7 @@
     <row r="182" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A182">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B182">
@@ -4180,137 +4180,137 @@
     <row r="183" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A183">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B183">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c s="16" r="C183">
-        <v>81</v>
-      </c>
-      <c s="17" r="D183">
-        <v>0.145161290322581</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D183">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E183">
-        <v>30.3102</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F183">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A184">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B184">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c s="16" r="C184">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c s="17" r="D184">
-        <v>0.416666666666667</v>
+        <v>0.125</v>
       </c>
       <c s="18" r="E184">
-        <v>4.9500</v>
+        <v>26.1130</v>
       </c>
       <c s="16" r="F184">
-        <v>7</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A185">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B185">
+        <v>12</v>
+      </c>
+      <c s="16" r="C185">
+        <v>2</v>
+      </c>
+      <c s="17" r="D185">
+        <v>0.166666666666667</v>
+      </c>
+      <c s="18" r="E185">
+        <v>1.9800</v>
+      </c>
+      <c s="16" r="F185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A186">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B185">
+      <c s="16" r="B186">
         <v>1200</v>
       </c>
-      <c s="16" r="C185">
-        <v>45</v>
-      </c>
-      <c s="17" r="D185">
-        <v>0.0375</v>
-      </c>
-      <c s="18" r="E185">
-        <v>3.7845</v>
-      </c>
-      <c s="16" r="F185">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="186" ht="18" customHeight="0">
-      <c s="7" t="inlineStr" r="A186">
+      <c s="16" r="C186">
+        <v>145</v>
+      </c>
+      <c s="17" r="D186">
+        <v>0.120833333333333</v>
+      </c>
+      <c s="18" r="E186">
+        <v>12.1945</v>
+      </c>
+      <c s="16" r="F186">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="187" ht="18" customHeight="0">
+      <c s="7" t="inlineStr" r="A187">
         <is>
           <t xml:space="preserve">Marietta (OM)</t>
         </is>
       </c>
-      <c s="8" r="B186">
-        <v>9549</v>
-      </c>
-      <c s="8" r="C186">
-        <v>1280</v>
-      </c>
-      <c s="9" r="D186">
-        <v>0.134045449785318</v>
-      </c>
-      <c s="10" r="E186">
-        <v>298.1178</v>
-      </c>
-      <c s="8" r="F186">
-        <v>8269</v>
-      </c>
-    </row>
-    <row r="187" ht="18" customHeight="0">
-      <c s="11" r="A187">
-        <v>45893</v>
-      </c>
-      <c s="12" r="B187">
-        <v>1506</v>
-      </c>
-      <c s="12" r="C187">
-        <v>183</v>
-      </c>
-      <c s="13" r="D187">
-        <v>0.121513944223108</v>
-      </c>
-      <c s="14" r="E187">
-        <v>35.9534</v>
-      </c>
-      <c s="12" r="F187">
-        <v>1323</v>
+      <c s="8" r="B187">
+        <v>9483</v>
+      </c>
+      <c s="8" r="C187">
+        <v>1084</v>
+      </c>
+      <c s="9" r="D187">
+        <v>0.11430981756828</v>
+      </c>
+      <c s="10" r="E187">
+        <v>233.5115</v>
+      </c>
+      <c s="8" r="F187">
+        <v>8399</v>
       </c>
     </row>
     <row r="188" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A188">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B188">
-        <v>0</v>
-      </c>
-      <c s="16" r="C188">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D188">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E188">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F188">
-        <v>0</v>
+      <c s="11" r="A188">
+        <v>45900</v>
+      </c>
+      <c s="12" r="B188">
+        <v>1479</v>
+      </c>
+      <c s="12" r="C188">
+        <v>0</v>
+      </c>
+      <c s="13" r="D188">
+        <v>0</v>
+      </c>
+      <c s="14" r="E188">
+        <v>0.0000</v>
+      </c>
+      <c s="12" r="F188">
+        <v>1479</v>
       </c>
     </row>
     <row r="189" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A189">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B189">
@@ -4332,7 +4332,7 @@
     <row r="190" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A190">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B190">
@@ -4354,33 +4354,33 @@
     <row r="191" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A191">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B191">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c s="16" r="C191">
-        <v>70</v>
-      </c>
-      <c s="17" r="D191">
-        <v>0.147679324894515</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D191">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E191">
-        <v>26.4501</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F191">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A192">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B192">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c s="16" r="C192">
         <v>0</v>
@@ -4392,77 +4392,77 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F192">
-        <v>12</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A193">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B193">
+        <v>21</v>
+      </c>
+      <c s="16" r="C193">
+        <v>0</v>
+      </c>
+      <c s="17" r="D193">
+        <v>0</v>
+      </c>
+      <c s="18" r="E193">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F193">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A194">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B193">
+      <c s="16" r="B194">
         <v>1020</v>
       </c>
-      <c s="16" r="C193">
-        <v>113</v>
-      </c>
-      <c s="17" r="D193">
-        <v>0.11078431372549</v>
-      </c>
-      <c s="18" r="E193">
-        <v>9.5033</v>
-      </c>
-      <c s="16" r="F193">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="194" ht="18" customHeight="0">
-      <c s="11" r="A194">
-        <v>45894</v>
-      </c>
-      <c s="12" r="B194">
-        <v>1284</v>
-      </c>
-      <c s="12" r="C194">
-        <v>0</v>
-      </c>
-      <c s="13" r="D194">
-        <v>0</v>
-      </c>
-      <c s="14" r="E194">
-        <v>0.0000</v>
-      </c>
-      <c s="12" r="F194">
-        <v>1284</v>
+      <c s="16" r="C194">
+        <v>0</v>
+      </c>
+      <c s="17" r="D194">
+        <v>0</v>
+      </c>
+      <c s="18" r="E194">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F194">
+        <v>1020</v>
       </c>
     </row>
     <row r="195" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A195">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B195">
-        <v>0</v>
-      </c>
-      <c s="16" r="C195">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D195">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E195">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F195">
-        <v>0</v>
+      <c s="11" r="A195">
+        <v>45901</v>
+      </c>
+      <c s="12" r="B195">
+        <v>1218</v>
+      </c>
+      <c s="12" r="C195">
+        <v>123</v>
+      </c>
+      <c s="13" r="D195">
+        <v>0.100985221674877</v>
+      </c>
+      <c s="14" r="E195">
+        <v>13.0620</v>
+      </c>
+      <c s="12" r="F195">
+        <v>1095</v>
       </c>
     </row>
     <row r="196" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A196">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B196">
@@ -4484,7 +4484,7 @@
     <row r="197" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A197">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B197">
@@ -4506,33 +4506,33 @@
     <row r="198" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A198">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B198">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c s="16" r="C198">
         <v>0</v>
       </c>
-      <c s="17" r="D198">
-        <v>0</v>
+      <c s="19" t="e" r="D198">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E198">
         <v>0.0000</v>
       </c>
       <c s="16" r="F198">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A199">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B199">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c s="16" r="C199">
         <v>0</v>
@@ -4544,77 +4544,77 @@
         <v>0.0000</v>
       </c>
       <c s="16" r="F199">
-        <v>12</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A200">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B200">
+        <v>18</v>
+      </c>
+      <c s="16" r="C200">
+        <v>3</v>
+      </c>
+      <c s="17" r="D200">
+        <v>0.166666666666667</v>
+      </c>
+      <c s="18" r="E200">
+        <v>2.9700</v>
+      </c>
+      <c s="16" r="F200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A201">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B200">
+      <c s="16" r="B201">
         <v>840</v>
       </c>
-      <c s="16" r="C200">
-        <v>0</v>
-      </c>
-      <c s="17" r="D200">
-        <v>0</v>
-      </c>
-      <c s="18" r="E200">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F200">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="201" ht="18" customHeight="0">
-      <c s="11" r="A201">
-        <v>45895</v>
-      </c>
-      <c s="12" r="B201">
-        <v>1242</v>
-      </c>
-      <c s="12" r="C201">
-        <v>450</v>
-      </c>
-      <c s="13" r="D201">
-        <v>0.36231884057971</v>
-      </c>
-      <c s="14" r="E201">
-        <v>85.7093</v>
-      </c>
-      <c s="12" r="F201">
-        <v>792</v>
+      <c s="16" r="C201">
+        <v>120</v>
+      </c>
+      <c s="17" r="D201">
+        <v>0.142857142857143</v>
+      </c>
+      <c s="18" r="E201">
+        <v>10.0920</v>
+      </c>
+      <c s="16" r="F201">
+        <v>720</v>
       </c>
     </row>
     <row r="202" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A202">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B202">
-        <v>0</v>
-      </c>
-      <c s="16" r="C202">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D202">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E202">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F202">
-        <v>0</v>
+      <c s="11" r="A202">
+        <v>45902</v>
+      </c>
+      <c s="12" r="B202">
+        <v>1272</v>
+      </c>
+      <c s="12" r="C202">
+        <v>141</v>
+      </c>
+      <c s="13" r="D202">
+        <v>0.110849056603774</v>
+      </c>
+      <c s="14" r="E202">
+        <v>37.4176</v>
+      </c>
+      <c s="12" r="F202">
+        <v>1131</v>
       </c>
     </row>
     <row r="203" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A203">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B203">
@@ -4636,7 +4636,7 @@
     <row r="204" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A204">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B204">
@@ -4658,115 +4658,115 @@
     <row r="205" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A205">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B205">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c s="16" r="C205">
-        <v>139</v>
-      </c>
-      <c s="17" r="D205">
-        <v>0.356410256410256</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D205">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E205">
-        <v>52.3070</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F205">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A206">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B206">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c s="16" r="C206">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c s="17" r="D206">
-        <v>0.666666666666667</v>
+        <v>0.225</v>
       </c>
       <c s="18" r="E206">
-        <v>7.9200</v>
+        <v>30.5598</v>
       </c>
       <c s="16" r="F206">
-        <v>4</v>
+        <v>279</v>
       </c>
     </row>
     <row r="207" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A207">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B207">
+        <v>12</v>
+      </c>
+      <c s="16" r="C207">
+        <v>2</v>
+      </c>
+      <c s="17" r="D207">
+        <v>0.166666666666667</v>
+      </c>
+      <c s="18" r="E207">
+        <v>1.9800</v>
+      </c>
+      <c s="16" r="F207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A208">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B207">
-        <v>840</v>
-      </c>
-      <c s="16" r="C207">
-        <v>303</v>
-      </c>
-      <c s="17" r="D207">
-        <v>0.360714285714286</v>
-      </c>
-      <c s="18" r="E207">
-        <v>25.4823</v>
-      </c>
-      <c s="16" r="F207">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="208" ht="18" customHeight="0">
-      <c s="11" r="A208">
-        <v>45896</v>
-      </c>
-      <c s="12" r="B208">
-        <v>1302</v>
-      </c>
-      <c s="12" r="C208">
-        <v>309</v>
-      </c>
-      <c s="13" r="D208">
-        <v>0.237327188940092</v>
-      </c>
-      <c s="14" r="E208">
-        <v>86.3454</v>
-      </c>
-      <c s="12" r="F208">
-        <v>993</v>
+      <c s="16" r="B208">
+        <v>900</v>
+      </c>
+      <c s="16" r="C208">
+        <v>58</v>
+      </c>
+      <c s="17" r="D208">
+        <v>0.0644444444444444</v>
+      </c>
+      <c s="18" r="E208">
+        <v>4.8778</v>
+      </c>
+      <c s="16" r="F208">
+        <v>842</v>
       </c>
     </row>
     <row r="209" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A209">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B209">
-        <v>0</v>
-      </c>
-      <c s="16" r="C209">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D209">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E209">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F209">
-        <v>0</v>
+      <c s="11" r="A209">
+        <v>45903</v>
+      </c>
+      <c s="12" r="B209">
+        <v>1230</v>
+      </c>
+      <c s="12" r="C209">
+        <v>164</v>
+      </c>
+      <c s="13" r="D209">
+        <v>0.133333333333333</v>
+      </c>
+      <c s="14" r="E209">
+        <v>50.9628</v>
+      </c>
+      <c s="12" r="F209">
+        <v>1066</v>
       </c>
     </row>
     <row r="210" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A210">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B210">
@@ -4788,7 +4788,7 @@
     <row r="211" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A211">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B211">
@@ -4810,115 +4810,115 @@
     <row r="212" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A212">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B212">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c s="16" r="C212">
-        <v>172</v>
-      </c>
-      <c s="17" r="D212">
-        <v>0.447916666666667</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D212">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E212">
-        <v>64.8588</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F212">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A213">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B213">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c s="16" r="C213">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c s="17" r="D213">
-        <v>0.611111111111111</v>
+        <v>0.293650793650794</v>
       </c>
       <c s="18" r="E213">
-        <v>10.8900</v>
+        <v>41.9760</v>
       </c>
       <c s="16" r="F213">
-        <v>7</v>
+        <v>267</v>
       </c>
     </row>
     <row r="214" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A214">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B214">
+        <v>12</v>
+      </c>
+      <c s="16" r="C214">
+        <v>5</v>
+      </c>
+      <c s="17" r="D214">
+        <v>0.416666666666667</v>
+      </c>
+      <c s="18" r="E214">
+        <v>4.9500</v>
+      </c>
+      <c s="16" r="F214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A215">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B214">
-        <v>900</v>
-      </c>
-      <c s="16" r="C214">
-        <v>126</v>
-      </c>
-      <c s="17" r="D214">
-        <v>0.14</v>
-      </c>
-      <c s="18" r="E214">
-        <v>10.5966</v>
-      </c>
-      <c s="16" r="F214">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="215" ht="18" customHeight="0">
-      <c s="11" r="A215">
-        <v>45897</v>
-      </c>
-      <c s="12" r="B215">
-        <v>1305</v>
-      </c>
-      <c s="12" r="C215">
-        <v>228</v>
-      </c>
-      <c s="13" r="D215">
-        <v>0.174712643678161</v>
-      </c>
-      <c s="14" r="E215">
-        <v>35.5733</v>
-      </c>
-      <c s="12" r="F215">
-        <v>1077</v>
+      <c s="16" r="B215">
+        <v>840</v>
+      </c>
+      <c s="16" r="C215">
+        <v>48</v>
+      </c>
+      <c s="17" r="D215">
+        <v>0.0571428571428571</v>
+      </c>
+      <c s="18" r="E215">
+        <v>4.0368</v>
+      </c>
+      <c s="16" r="F215">
+        <v>792</v>
       </c>
     </row>
     <row r="216" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A216">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B216">
-        <v>0</v>
-      </c>
-      <c s="16" r="C216">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D216">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E216">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F216">
-        <v>0</v>
+      <c s="11" r="A216">
+        <v>45904</v>
+      </c>
+      <c s="12" r="B216">
+        <v>1422</v>
+      </c>
+      <c s="12" r="C216">
+        <v>327</v>
+      </c>
+      <c s="13" r="D216">
+        <v>0.229957805907173</v>
+      </c>
+      <c s="14" r="E216">
+        <v>60.1383</v>
+      </c>
+      <c s="12" r="F216">
+        <v>1095</v>
       </c>
     </row>
     <row r="217" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A217">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B217">
@@ -4940,7 +4940,7 @@
     <row r="218" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A218">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B218">
@@ -4962,115 +4962,115 @@
     <row r="219" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A219">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B219">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c s="16" r="C219">
-        <v>45</v>
-      </c>
-      <c s="17" r="D219">
-        <v>0.136363636363636</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D219">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E219">
-        <v>17.4653</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F219">
-        <v>285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A220">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B220">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c s="16" r="C220">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c s="17" r="D220">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c s="18" r="E220">
-        <v>2.9700</v>
+        <v>38.6663</v>
       </c>
       <c s="16" r="F220">
-        <v>12</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A221">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B221">
+        <v>12</v>
+      </c>
+      <c s="16" r="C221">
+        <v>3</v>
+      </c>
+      <c s="17" r="D221">
+        <v>0.25</v>
+      </c>
+      <c s="18" r="E221">
+        <v>2.9700</v>
+      </c>
+      <c s="16" r="F221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A222">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B221">
-        <v>960</v>
-      </c>
-      <c s="16" r="C221">
-        <v>180</v>
-      </c>
-      <c s="17" r="D221">
-        <v>0.1875</v>
-      </c>
-      <c s="18" r="E221">
-        <v>15.1380</v>
-      </c>
-      <c s="16" r="F221">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="222" ht="18" customHeight="0">
-      <c s="11" r="A222">
-        <v>45898</v>
-      </c>
-      <c s="12" r="B222">
-        <v>1440</v>
-      </c>
-      <c s="12" r="C222">
-        <v>81</v>
-      </c>
-      <c s="13" r="D222">
-        <v>0.05625</v>
-      </c>
-      <c s="14" r="E222">
-        <v>37.0778</v>
-      </c>
-      <c s="12" r="F222">
-        <v>1359</v>
+      <c s="16" r="B222">
+        <v>1020</v>
+      </c>
+      <c s="16" r="C222">
+        <v>220</v>
+      </c>
+      <c s="17" r="D222">
+        <v>0.215686274509804</v>
+      </c>
+      <c s="18" r="E222">
+        <v>18.5020</v>
+      </c>
+      <c s="16" r="F222">
+        <v>800</v>
       </c>
     </row>
     <row r="223" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A223">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B223">
-        <v>0</v>
-      </c>
-      <c s="16" r="C223">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D223">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E223">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F223">
-        <v>0</v>
+      <c s="11" r="A223">
+        <v>45905</v>
+      </c>
+      <c s="12" r="B223">
+        <v>1332</v>
+      </c>
+      <c s="12" r="C223">
+        <v>186</v>
+      </c>
+      <c s="13" r="D223">
+        <v>0.13963963963964</v>
+      </c>
+      <c s="14" r="E223">
+        <v>51.6037</v>
+      </c>
+      <c s="12" r="F223">
+        <v>1146</v>
       </c>
     </row>
     <row r="224" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A224">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B224">
@@ -5092,7 +5092,7 @@
     <row r="225" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A225">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B225">
@@ -5114,115 +5114,115 @@
     <row r="226" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A226">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B226">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c s="16" r="C226">
-        <v>71</v>
-      </c>
-      <c s="17" r="D226">
-        <v>0.153679653679654</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D226">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E226">
-        <v>27.1778</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F226">
-        <v>391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A227">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B227">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c s="16" r="C227">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c s="17" r="D227">
-        <v>0.555555555555556</v>
+        <v>0.264285714285714</v>
       </c>
       <c s="18" r="E227">
-        <v>9.9000</v>
+        <v>41.6726</v>
       </c>
       <c s="16" r="F227">
-        <v>8</v>
+        <v>309</v>
       </c>
     </row>
     <row r="228" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A228">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B228">
+        <v>12</v>
+      </c>
+      <c s="16" r="C228">
+        <v>4</v>
+      </c>
+      <c s="17" r="D228">
+        <v>0.333333333333333</v>
+      </c>
+      <c s="18" r="E228">
+        <v>3.9600</v>
+      </c>
+      <c s="16" r="F228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A229">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B228">
-        <v>960</v>
-      </c>
-      <c s="16" r="C228">
-        <v>0</v>
-      </c>
-      <c s="17" r="D228">
-        <v>0</v>
-      </c>
-      <c s="18" r="E228">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F228">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="229" ht="18" customHeight="0">
-      <c s="11" r="A229">
-        <v>45899</v>
-      </c>
-      <c s="12" r="B229">
-        <v>1470</v>
-      </c>
-      <c s="12" r="C229">
-        <v>29</v>
-      </c>
-      <c s="13" r="D229">
-        <v>0.0197278911564626</v>
-      </c>
-      <c s="14" r="E229">
-        <v>17.4586</v>
-      </c>
-      <c s="12" r="F229">
-        <v>1441</v>
+      <c s="16" r="B229">
+        <v>900</v>
+      </c>
+      <c s="16" r="C229">
+        <v>71</v>
+      </c>
+      <c s="17" r="D229">
+        <v>0.0788888888888889</v>
+      </c>
+      <c s="18" r="E229">
+        <v>5.9711</v>
+      </c>
+      <c s="16" r="F229">
+        <v>829</v>
       </c>
     </row>
     <row r="230" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A230">
-        <is>
-          <t xml:space="preserve">Bakery: Bagels</t>
-        </is>
-      </c>
-      <c s="16" r="B230">
-        <v>0</v>
-      </c>
-      <c s="16" r="C230">
-        <v>0</v>
-      </c>
-      <c s="19" t="e" r="D230">
-        <v>#DIV/0!</v>
-      </c>
-      <c s="18" r="E230">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F230">
-        <v>0</v>
+      <c s="11" r="A230">
+        <v>45906</v>
+      </c>
+      <c s="12" r="B230">
+        <v>1530</v>
+      </c>
+      <c s="12" r="C230">
+        <v>143</v>
+      </c>
+      <c s="13" r="D230">
+        <v>0.0934640522875817</v>
+      </c>
+      <c s="14" r="E230">
+        <v>20.3271</v>
+      </c>
+      <c s="12" r="F230">
+        <v>1387</v>
       </c>
     </row>
     <row r="231" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A231">
         <is>
-          <t xml:space="preserve">Bakery: Muffins</t>
+          <t xml:space="preserve">Bakery: Bagels</t>
         </is>
       </c>
       <c s="16" r="B231">
@@ -5244,7 +5244,7 @@
     <row r="232" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A232">
         <is>
-          <t xml:space="preserve">Bakery: Other</t>
+          <t xml:space="preserve">Bakery: Muffins</t>
         </is>
       </c>
       <c s="16" r="B232">
@@ -5266,1337 +5266,1359 @@
     <row r="233" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A233">
         <is>
-          <t xml:space="preserve">Donuts</t>
+          <t xml:space="preserve">Bakery: Other</t>
         </is>
       </c>
       <c s="16" r="B233">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c s="16" r="C233">
-        <v>18</v>
-      </c>
-      <c s="17" r="D233">
-        <v>0.0416666666666667</v>
+        <v>0</v>
+      </c>
+      <c s="19" t="e" r="D233">
+        <v>#DIV/0!</v>
       </c>
       <c s="18" r="E233">
-        <v>6.5686</v>
+        <v>0.0000</v>
       </c>
       <c s="16" r="F233">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A234">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B234">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c s="16" r="C234">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c s="17" r="D234">
-        <v>0.611111111111111</v>
+        <v>0.0300925925925926</v>
       </c>
       <c s="18" r="E234">
-        <v>10.8900</v>
+        <v>4.8646</v>
       </c>
       <c s="16" r="F234">
-        <v>7</v>
+        <v>419</v>
       </c>
     </row>
     <row r="235" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A235">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B235">
+        <v>18</v>
+      </c>
+      <c s="16" r="C235">
+        <v>5</v>
+      </c>
+      <c s="17" r="D235">
+        <v>0.277777777777778</v>
+      </c>
+      <c s="18" r="E235">
+        <v>4.9500</v>
+      </c>
+      <c s="16" r="F235">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A236">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B235">
-        <v>1020</v>
-      </c>
-      <c s="16" r="C235">
-        <v>0</v>
-      </c>
-      <c s="17" r="D235">
-        <v>0</v>
-      </c>
-      <c s="18" r="E235">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F235">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="236" ht="18" customHeight="0">
-      <c s="7" t="inlineStr" r="A236">
+      <c s="16" r="B236">
+        <v>1080</v>
+      </c>
+      <c s="16" r="C236">
+        <v>125</v>
+      </c>
+      <c s="17" r="D236">
+        <v>0.115740740740741</v>
+      </c>
+      <c s="18" r="E236">
+        <v>10.5125</v>
+      </c>
+      <c s="16" r="F236">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="237" ht="18" customHeight="0">
+      <c s="7" t="inlineStr" r="A237">
         <is>
           <t xml:space="preserve">Mount Joy (MJ)</t>
         </is>
       </c>
-      <c s="8" r="B236">
-        <v>9384</v>
-      </c>
-      <c s="8" r="C236">
-        <v>1555</v>
-      </c>
-      <c s="9" r="D236">
-        <v>0.165707587382779</v>
-      </c>
-      <c s="10" r="E236">
-        <v>281.1536</v>
-      </c>
-      <c s="8" r="F236">
-        <v>7829</v>
-      </c>
-    </row>
-    <row r="237" ht="18" customHeight="0">
-      <c s="11" r="A237">
-        <v>45893</v>
-      </c>
-      <c s="12" r="B237">
-        <v>1536</v>
-      </c>
-      <c s="12" r="C237">
-        <v>95</v>
-      </c>
-      <c s="13" r="D237">
-        <v>0.0618489583333333</v>
-      </c>
-      <c s="14" r="E237">
-        <v>19.3746</v>
-      </c>
-      <c s="12" r="F237">
-        <v>1441</v>
+      <c s="8" r="B237">
+        <v>8946</v>
+      </c>
+      <c s="8" r="C237">
+        <v>1460</v>
+      </c>
+      <c s="9" r="D237">
+        <v>0.163201430807065</v>
+      </c>
+      <c s="10" r="E237">
+        <v>328.6519</v>
+      </c>
+      <c s="8" r="F237">
+        <v>7486</v>
       </c>
     </row>
     <row r="238" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A238">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B238">
-        <v>384</v>
-      </c>
-      <c s="16" r="C238">
-        <v>33</v>
-      </c>
-      <c s="17" r="D238">
-        <v>0.0859375</v>
-      </c>
-      <c s="18" r="E238">
-        <v>12.3486</v>
-      </c>
-      <c s="16" r="F238">
-        <v>351</v>
+      <c s="11" r="A238">
+        <v>45900</v>
+      </c>
+      <c s="12" r="B238">
+        <v>1440</v>
+      </c>
+      <c s="12" r="C238">
+        <v>169</v>
+      </c>
+      <c s="13" r="D238">
+        <v>0.117361111111111</v>
+      </c>
+      <c s="14" r="E238">
+        <v>39.1562</v>
+      </c>
+      <c s="12" r="F238">
+        <v>1271</v>
       </c>
     </row>
     <row r="239" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A239">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B239">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c s="16" r="C239">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c s="17" r="D239">
-        <v>0.166666666666667</v>
+        <v>0.149509803921569</v>
       </c>
       <c s="18" r="E239">
-        <v>1.9800</v>
+        <v>22.8262</v>
       </c>
       <c s="16" r="F239">
-        <v>10</v>
+        <v>347</v>
       </c>
     </row>
     <row r="240" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A240">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B240">
+        <v>12</v>
+      </c>
+      <c s="16" r="C240">
+        <v>8</v>
+      </c>
+      <c s="17" r="D240">
+        <v>0.666666666666667</v>
+      </c>
+      <c s="18" r="E240">
+        <v>7.9200</v>
+      </c>
+      <c s="16" r="F240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A241">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B240">
-        <v>1140</v>
-      </c>
-      <c s="16" r="C240">
-        <v>60</v>
-      </c>
-      <c s="17" r="D240">
-        <v>0.0526315789473684</v>
-      </c>
-      <c s="18" r="E240">
-        <v>5.0460</v>
-      </c>
-      <c s="16" r="F240">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="241" ht="18" customHeight="0">
-      <c s="11" r="A241">
-        <v>45894</v>
-      </c>
-      <c s="12" r="B241">
-        <v>1230</v>
-      </c>
-      <c s="12" r="C241">
-        <v>191</v>
-      </c>
-      <c s="13" r="D241">
-        <v>0.155284552845528</v>
-      </c>
-      <c s="14" r="E241">
-        <v>45.4977</v>
-      </c>
-      <c s="12" r="F241">
-        <v>1039</v>
+      <c s="16" r="B241">
+        <v>1020</v>
+      </c>
+      <c s="16" r="C241">
+        <v>100</v>
+      </c>
+      <c s="17" r="D241">
+        <v>0.0980392156862745</v>
+      </c>
+      <c s="18" r="E241">
+        <v>8.4100</v>
+      </c>
+      <c s="16" r="F241">
+        <v>920</v>
       </c>
     </row>
     <row r="242" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A242">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B242">
-        <v>318</v>
-      </c>
-      <c s="16" r="C242">
-        <v>77</v>
-      </c>
-      <c s="17" r="D242">
-        <v>0.242138364779874</v>
-      </c>
-      <c s="18" r="E242">
-        <v>28.6631</v>
-      </c>
-      <c s="16" r="F242">
-        <v>241</v>
+      <c s="11" r="A242">
+        <v>45901</v>
+      </c>
+      <c s="12" r="B242">
+        <v>1242</v>
+      </c>
+      <c s="12" r="C242">
+        <v>261</v>
+      </c>
+      <c s="13" r="D242">
+        <v>0.210144927536232</v>
+      </c>
+      <c s="14" r="E242">
+        <v>47.2956</v>
+      </c>
+      <c s="12" r="F242">
+        <v>981</v>
       </c>
     </row>
     <row r="243" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A243">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B243">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c s="16" r="C243">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c s="17" r="D243">
-        <v>0.666666666666667</v>
+        <v>0.236363636363636</v>
       </c>
       <c s="18" r="E243">
-        <v>7.9200</v>
+        <v>29.1876</v>
       </c>
       <c s="16" r="F243">
-        <v>4</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A244">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B244">
+        <v>12</v>
+      </c>
+      <c s="16" r="C244">
+        <v>3</v>
+      </c>
+      <c s="17" r="D244">
+        <v>0.25</v>
+      </c>
+      <c s="18" r="E244">
+        <v>2.9700</v>
+      </c>
+      <c s="16" r="F244">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A245">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B244">
+      <c s="16" r="B245">
         <v>900</v>
       </c>
-      <c s="16" r="C244">
-        <v>106</v>
-      </c>
-      <c s="17" r="D244">
-        <v>0.117777777777778</v>
-      </c>
-      <c s="18" r="E244">
-        <v>8.9146</v>
-      </c>
-      <c s="16" r="F244">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="245" ht="18" customHeight="0">
-      <c s="11" r="A245">
-        <v>45895</v>
-      </c>
-      <c s="12" r="B245">
-        <v>1320</v>
-      </c>
-      <c s="12" r="C245">
-        <v>347</v>
-      </c>
-      <c s="13" r="D245">
-        <v>0.262878787878788</v>
-      </c>
-      <c s="14" r="E245">
-        <v>66.0056</v>
-      </c>
-      <c s="12" r="F245">
-        <v>973</v>
+      <c s="16" r="C245">
+        <v>180</v>
+      </c>
+      <c s="17" r="D245">
+        <v>0.2</v>
+      </c>
+      <c s="18" r="E245">
+        <v>15.1380</v>
+      </c>
+      <c s="16" r="F245">
+        <v>720</v>
       </c>
     </row>
     <row r="246" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A246">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B246">
-        <v>348</v>
-      </c>
-      <c s="16" r="C246">
-        <v>99</v>
-      </c>
-      <c s="17" r="D246">
-        <v>0.28448275862069</v>
-      </c>
-      <c s="18" r="E246">
-        <v>36.9957</v>
-      </c>
-      <c s="16" r="F246">
-        <v>249</v>
+      <c s="11" r="A246">
+        <v>45902</v>
+      </c>
+      <c s="12" r="B246">
+        <v>1020</v>
+      </c>
+      <c s="12" r="C246">
+        <v>230</v>
+      </c>
+      <c s="13" r="D246">
+        <v>0.225490196078431</v>
+      </c>
+      <c s="14" r="E246">
+        <v>38.3151</v>
+      </c>
+      <c s="12" r="F246">
+        <v>790</v>
       </c>
     </row>
     <row r="247" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A247">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B247">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c s="16" r="C247">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c s="17" r="D247">
-        <v>0.75</v>
+        <v>0.152777777777778</v>
       </c>
       <c s="18" r="E247">
-        <v>8.9100</v>
+        <v>16.3312</v>
       </c>
       <c s="16" r="F247">
-        <v>3</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A248">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B248">
+        <v>12</v>
+      </c>
+      <c s="16" r="C248">
+        <v>7</v>
+      </c>
+      <c s="17" r="D248">
+        <v>0.583333333333333</v>
+      </c>
+      <c s="18" r="E248">
+        <v>6.9300</v>
+      </c>
+      <c s="16" r="F248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A249">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B248">
-        <v>960</v>
-      </c>
-      <c s="16" r="C248">
-        <v>239</v>
-      </c>
-      <c s="17" r="D248">
-        <v>0.248958333333333</v>
-      </c>
-      <c s="18" r="E248">
-        <v>20.0999</v>
-      </c>
-      <c s="16" r="F248">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="249" ht="18" customHeight="0">
-      <c s="11" r="A249">
-        <v>45896</v>
-      </c>
-      <c s="12" r="B249">
-        <v>1314</v>
-      </c>
-      <c s="12" r="C249">
-        <v>465</v>
-      </c>
-      <c s="13" r="D249">
-        <v>0.353881278538813</v>
-      </c>
-      <c s="14" r="E249">
-        <v>62.2736</v>
-      </c>
-      <c s="12" r="F249">
-        <v>849</v>
+      <c s="16" r="B249">
+        <v>720</v>
+      </c>
+      <c s="16" r="C249">
+        <v>179</v>
+      </c>
+      <c s="17" r="D249">
+        <v>0.248611111111111</v>
+      </c>
+      <c s="18" r="E249">
+        <v>15.0539</v>
+      </c>
+      <c s="16" r="F249">
+        <v>541</v>
       </c>
     </row>
     <row r="250" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A250">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B250">
-        <v>342</v>
-      </c>
-      <c s="16" r="C250">
-        <v>58</v>
-      </c>
-      <c s="17" r="D250">
-        <v>0.169590643274854</v>
-      </c>
-      <c s="18" r="E250">
-        <v>21.7036</v>
-      </c>
-      <c s="16" r="F250">
-        <v>284</v>
+      <c s="11" r="A250">
+        <v>45903</v>
+      </c>
+      <c s="12" r="B250">
+        <v>954</v>
+      </c>
+      <c s="12" r="C250">
+        <v>197</v>
+      </c>
+      <c s="13" r="D250">
+        <v>0.206498951781971</v>
+      </c>
+      <c s="14" r="E250">
+        <v>49.5903</v>
+      </c>
+      <c s="12" r="F250">
+        <v>757</v>
       </c>
     </row>
     <row r="251" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A251">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B251">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c s="16" r="C251">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c s="17" r="D251">
-        <v>0.583333333333333</v>
+        <v>0.233918128654971</v>
       </c>
       <c s="18" r="E251">
-        <v>6.9300</v>
+        <v>29.7857</v>
       </c>
       <c s="16" r="F251">
-        <v>5</v>
+        <v>262</v>
       </c>
     </row>
     <row r="252" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A252">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B252">
+        <v>12</v>
+      </c>
+      <c s="16" r="C252">
+        <v>11</v>
+      </c>
+      <c s="17" r="D252">
+        <v>0.916666666666667</v>
+      </c>
+      <c s="18" r="E252">
+        <v>10.8900</v>
+      </c>
+      <c s="16" r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A253">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B252">
-        <v>960</v>
-      </c>
-      <c s="16" r="C252">
-        <v>400</v>
-      </c>
-      <c s="17" r="D252">
-        <v>0.416666666666667</v>
-      </c>
-      <c s="18" r="E252">
-        <v>33.6400</v>
-      </c>
-      <c s="16" r="F252">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="253" ht="18" customHeight="0">
-      <c s="11" r="A253">
-        <v>45897</v>
-      </c>
-      <c s="12" r="B253">
-        <v>1332</v>
-      </c>
-      <c s="12" r="C253">
-        <v>339</v>
-      </c>
-      <c s="13" r="D253">
-        <v>0.254504504504505</v>
-      </c>
-      <c s="14" r="E253">
-        <v>69.9889</v>
-      </c>
-      <c s="12" r="F253">
-        <v>993</v>
+      <c s="16" r="B253">
+        <v>600</v>
+      </c>
+      <c s="16" r="C253">
+        <v>106</v>
+      </c>
+      <c s="17" r="D253">
+        <v>0.176666666666667</v>
+      </c>
+      <c s="18" r="E253">
+        <v>8.9146</v>
+      </c>
+      <c s="16" r="F253">
+        <v>494</v>
       </c>
     </row>
     <row r="254" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A254">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B254">
-        <v>360</v>
-      </c>
-      <c s="16" r="C254">
-        <v>118</v>
-      </c>
-      <c s="17" r="D254">
-        <v>0.327777777777778</v>
-      </c>
-      <c s="18" r="E254">
-        <v>44.1556</v>
-      </c>
-      <c s="16" r="F254">
-        <v>242</v>
+      <c s="11" r="A254">
+        <v>45904</v>
+      </c>
+      <c s="12" r="B254">
+        <v>1350</v>
+      </c>
+      <c s="12" r="C254">
+        <v>289</v>
+      </c>
+      <c s="13" r="D254">
+        <v>0.214074074074074</v>
+      </c>
+      <c s="14" r="E254">
+        <v>75.2733</v>
+      </c>
+      <c s="12" r="F254">
+        <v>1061</v>
       </c>
     </row>
     <row r="255" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A255">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B255">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c s="16" r="C255">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c s="17" r="D255">
-        <v>0.666666666666667</v>
+        <v>0.425925925925926</v>
       </c>
       <c s="18" r="E255">
-        <v>7.9200</v>
+        <v>59.9790</v>
       </c>
       <c s="16" r="F255">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="256" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A256">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B256">
+        <v>12</v>
+      </c>
+      <c s="16" r="C256">
+        <v>5</v>
+      </c>
+      <c s="17" r="D256">
+        <v>0.416666666666667</v>
+      </c>
+      <c s="18" r="E256">
+        <v>4.9500</v>
+      </c>
+      <c s="16" r="F256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A257">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B256">
+      <c s="16" r="B257">
         <v>960</v>
       </c>
-      <c s="16" r="C256">
-        <v>213</v>
-      </c>
-      <c s="17" r="D256">
-        <v>0.221875</v>
-      </c>
-      <c s="18" r="E256">
-        <v>17.9133</v>
-      </c>
-      <c s="16" r="F256">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="257" ht="18" customHeight="0">
-      <c s="11" r="A257">
-        <v>45898</v>
-      </c>
-      <c s="12" r="B257">
-        <v>1296</v>
-      </c>
-      <c s="12" r="C257">
-        <v>80</v>
-      </c>
-      <c s="13" r="D257">
-        <v>0.0617283950617284</v>
-      </c>
-      <c s="14" r="E257">
-        <v>6.7280</v>
-      </c>
-      <c s="12" r="F257">
-        <v>1216</v>
+      <c s="16" r="C257">
+        <v>123</v>
+      </c>
+      <c s="17" r="D257">
+        <v>0.128125</v>
+      </c>
+      <c s="18" r="E257">
+        <v>10.3443</v>
+      </c>
+      <c s="16" r="F257">
+        <v>837</v>
       </c>
     </row>
     <row r="258" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A258">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B258">
-        <v>384</v>
-      </c>
-      <c s="16" r="C258">
-        <v>0</v>
-      </c>
-      <c s="17" r="D258">
-        <v>0</v>
-      </c>
-      <c s="18" r="E258">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F258">
-        <v>384</v>
+      <c s="11" r="A258">
+        <v>45905</v>
+      </c>
+      <c s="12" r="B258">
+        <v>1428</v>
+      </c>
+      <c s="12" r="C258">
+        <v>231</v>
+      </c>
+      <c s="13" r="D258">
+        <v>0.161764705882353</v>
+      </c>
+      <c s="14" r="E258">
+        <v>47.2358</v>
+      </c>
+      <c s="12" r="F258">
+        <v>1197</v>
       </c>
     </row>
     <row r="259" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A259">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B259">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c s="16" r="C259">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c s="17" r="D259">
-        <v>0</v>
+        <v>0.186868686868687</v>
       </c>
       <c s="18" r="E259">
-        <v>0.0000</v>
+        <v>27.6908</v>
       </c>
       <c s="16" r="F259">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A260">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B260">
+        <v>12</v>
+      </c>
+      <c s="16" r="C260">
+        <v>7</v>
+      </c>
+      <c s="17" r="D260">
+        <v>0.583333333333333</v>
+      </c>
+      <c s="18" r="E260">
+        <v>6.9300</v>
+      </c>
+      <c s="16" r="F260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A261">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B260">
-        <v>900</v>
-      </c>
-      <c s="16" r="C260">
-        <v>80</v>
-      </c>
-      <c s="17" r="D260">
-        <v>0.0888888888888889</v>
-      </c>
-      <c s="18" r="E260">
-        <v>6.7280</v>
-      </c>
-      <c s="16" r="F260">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="261" ht="18" customHeight="0">
-      <c s="11" r="A261">
-        <v>45899</v>
-      </c>
-      <c s="12" r="B261">
-        <v>1356</v>
-      </c>
-      <c s="12" r="C261">
-        <v>38</v>
-      </c>
-      <c s="13" r="D261">
-        <v>0.028023598820059</v>
-      </c>
-      <c s="14" r="E261">
-        <v>11.2852</v>
-      </c>
-      <c s="12" r="F261">
-        <v>1318</v>
+      <c s="16" r="B261">
+        <v>1020</v>
+      </c>
+      <c s="16" r="C261">
+        <v>150</v>
+      </c>
+      <c s="17" r="D261">
+        <v>0.147058823529412</v>
+      </c>
+      <c s="18" r="E261">
+        <v>12.6150</v>
+      </c>
+      <c s="16" r="F261">
+        <v>870</v>
       </c>
     </row>
     <row r="262" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A262">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B262">
-        <v>384</v>
-      </c>
-      <c s="16" r="C262">
-        <v>28</v>
-      </c>
-      <c s="17" r="D262">
-        <v>0.0729166666666667</v>
-      </c>
-      <c s="18" r="E262">
-        <v>10.4442</v>
-      </c>
-      <c s="16" r="F262">
-        <v>356</v>
+      <c s="11" r="A262">
+        <v>45906</v>
+      </c>
+      <c s="12" r="B262">
+        <v>1512</v>
+      </c>
+      <c s="12" r="C262">
+        <v>83</v>
+      </c>
+      <c s="13" r="D262">
+        <v>0.0548941798941799</v>
+      </c>
+      <c s="14" r="E262">
+        <v>31.7856</v>
+      </c>
+      <c s="12" r="F262">
+        <v>1429</v>
       </c>
     </row>
     <row r="263" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A263">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B263">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c s="16" r="C263">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c s="17" r="D263">
-        <v>0</v>
+        <v>0.15952380952381</v>
       </c>
       <c s="18" r="E263">
-        <v>0.0000</v>
+        <v>25.0046</v>
       </c>
       <c s="16" r="F263">
-        <v>12</v>
+        <v>353</v>
       </c>
     </row>
     <row r="264" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A264">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B264">
+        <v>12</v>
+      </c>
+      <c s="16" r="C264">
+        <v>6</v>
+      </c>
+      <c s="17" r="D264">
+        <v>0.5</v>
+      </c>
+      <c s="18" r="E264">
+        <v>5.9400</v>
+      </c>
+      <c s="16" r="F264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A265">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B264">
-        <v>960</v>
-      </c>
-      <c s="16" r="C264">
+      <c s="16" r="B265">
+        <v>1080</v>
+      </c>
+      <c s="16" r="C265">
         <v>10</v>
       </c>
-      <c s="17" r="D264">
-        <v>0.0104166666666667</v>
-      </c>
-      <c s="18" r="E264">
+      <c s="17" r="D265">
+        <v>0.00925925925925926</v>
+      </c>
+      <c s="18" r="E265">
         <v>0.8410</v>
       </c>
-      <c s="16" r="F264">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="265" ht="18" customHeight="0">
-      <c s="7" t="inlineStr" r="A265">
+      <c s="16" r="F265">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="266" ht="18" customHeight="0">
+      <c s="7" t="inlineStr" r="A266">
         <is>
           <t xml:space="preserve">PAXTON (PX)</t>
         </is>
       </c>
-      <c s="8" r="B265">
-        <v>8304</v>
-      </c>
-      <c s="8" r="C265">
-        <v>1602</v>
-      </c>
-      <c s="9" r="D265">
-        <v>0.192919075144509</v>
-      </c>
-      <c s="10" r="E265">
-        <v>353.1278</v>
-      </c>
-      <c s="8" r="F265">
-        <v>6702</v>
-      </c>
-    </row>
-    <row r="266" ht="18" customHeight="0">
-      <c s="11" r="A266">
-        <v>45893</v>
-      </c>
-      <c s="12" r="B266">
-        <v>1389</v>
-      </c>
-      <c s="12" r="C266">
-        <v>171</v>
-      </c>
-      <c s="13" r="D266">
-        <v>0.123110151187905</v>
-      </c>
-      <c s="14" r="E266">
-        <v>55.0916</v>
-      </c>
-      <c s="12" r="F266">
-        <v>1218</v>
+      <c s="8" r="B266">
+        <v>8613</v>
+      </c>
+      <c s="8" r="C266">
+        <v>2382</v>
+      </c>
+      <c s="9" r="D266">
+        <v>0.276558690351794</v>
+      </c>
+      <c s="10" r="E266">
+        <v>394.2650</v>
+      </c>
+      <c s="8" r="F266">
+        <v>6231</v>
       </c>
     </row>
     <row r="267" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A267">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B267">
-        <v>594</v>
-      </c>
-      <c s="16" r="C267">
-        <v>140</v>
-      </c>
-      <c s="17" r="D267">
-        <v>0.235690235690236</v>
-      </c>
-      <c s="18" r="E267">
-        <v>52.4845</v>
-      </c>
-      <c s="16" r="F267">
-        <v>454</v>
+      <c s="11" r="A267">
+        <v>45900</v>
+      </c>
+      <c s="12" r="B267">
+        <v>1416</v>
+      </c>
+      <c s="12" r="C267">
+        <v>262</v>
+      </c>
+      <c s="13" r="D267">
+        <v>0.185028248587571</v>
+      </c>
+      <c s="14" r="E267">
+        <v>48.6113</v>
+      </c>
+      <c s="12" r="F267">
+        <v>1154</v>
       </c>
     </row>
     <row r="268" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A268">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B268">
-        <v>15</v>
+        <v>558</v>
       </c>
       <c s="16" r="C268">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c s="17" r="D268">
-        <v>0</v>
+        <v>0.136200716845878</v>
       </c>
       <c s="18" r="E268">
-        <v>0.0000</v>
+        <v>28.4392</v>
       </c>
       <c s="16" r="F268">
-        <v>15</v>
+        <v>482</v>
       </c>
     </row>
     <row r="269" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A269">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B269">
+        <v>18</v>
+      </c>
+      <c s="16" r="C269">
+        <v>5</v>
+      </c>
+      <c s="17" r="D269">
+        <v>0.277777777777778</v>
+      </c>
+      <c s="18" r="E269">
+        <v>4.9500</v>
+      </c>
+      <c s="16" r="F269">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A270">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B269">
-        <v>780</v>
-      </c>
-      <c s="16" r="C269">
-        <v>31</v>
-      </c>
-      <c s="17" r="D269">
-        <v>0.0397435897435897</v>
-      </c>
-      <c s="18" r="E269">
-        <v>2.6071</v>
-      </c>
-      <c s="16" r="F269">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="270" ht="18" customHeight="0">
-      <c s="11" r="A270">
-        <v>45894</v>
-      </c>
-      <c s="12" r="B270">
-        <v>834</v>
-      </c>
-      <c s="12" r="C270">
-        <v>17</v>
-      </c>
-      <c s="13" r="D270">
-        <v>0.0203836930455636</v>
-      </c>
-      <c s="14" r="E270">
-        <v>6.4180</v>
-      </c>
-      <c s="12" r="F270">
-        <v>817</v>
+      <c s="16" r="B270">
+        <v>840</v>
+      </c>
+      <c s="16" r="C270">
+        <v>181</v>
+      </c>
+      <c s="17" r="D270">
+        <v>0.21547619047619</v>
+      </c>
+      <c s="18" r="E270">
+        <v>15.2221</v>
+      </c>
+      <c s="16" r="F270">
+        <v>659</v>
       </c>
     </row>
     <row r="271" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A271">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B271">
-        <v>336</v>
-      </c>
-      <c s="16" r="C271">
-        <v>17</v>
-      </c>
-      <c s="17" r="D271">
-        <v>0.0505952380952381</v>
-      </c>
-      <c s="18" r="E271">
-        <v>6.4180</v>
-      </c>
-      <c s="16" r="F271">
-        <v>319</v>
+      <c s="11" r="A271">
+        <v>45901</v>
+      </c>
+      <c s="12" r="B271">
+        <v>1107</v>
+      </c>
+      <c s="12" r="C271">
+        <v>446</v>
+      </c>
+      <c s="13" r="D271">
+        <v>0.402890695573622</v>
+      </c>
+      <c s="14" r="E271">
+        <v>64.3834</v>
+      </c>
+      <c s="12" r="F271">
+        <v>661</v>
       </c>
     </row>
     <row r="272" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A272">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B272">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c s="16" r="C272">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c s="17" r="D272">
-        <v>0</v>
+        <v>0.125514403292181</v>
       </c>
       <c s="18" r="E272">
-        <v>0.0000</v>
+        <v>22.9459</v>
       </c>
       <c s="16" r="F272">
-        <v>18</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A273">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B273">
+        <v>21</v>
+      </c>
+      <c s="16" r="C273">
+        <v>10</v>
+      </c>
+      <c s="17" r="D273">
+        <v>0.476190476190476</v>
+      </c>
+      <c s="18" r="E273">
+        <v>9.9000</v>
+      </c>
+      <c s="16" r="F273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A274">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B273">
-        <v>480</v>
-      </c>
-      <c s="16" r="C273">
-        <v>0</v>
-      </c>
-      <c s="17" r="D273">
-        <v>0</v>
-      </c>
-      <c s="18" r="E273">
-        <v>0.0000</v>
-      </c>
-      <c s="16" r="F273">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="274" ht="18" customHeight="0">
-      <c s="11" r="A274">
-        <v>45895</v>
-      </c>
-      <c s="12" r="B274">
-        <v>1062</v>
-      </c>
-      <c s="12" r="C274">
-        <v>280</v>
-      </c>
-      <c s="13" r="D274">
-        <v>0.263653483992467</v>
-      </c>
-      <c s="14" r="E274">
-        <v>93.5652</v>
-      </c>
-      <c s="12" r="F274">
-        <v>782</v>
+      <c s="16" r="B274">
+        <v>600</v>
+      </c>
+      <c s="16" r="C274">
+        <v>375</v>
+      </c>
+      <c s="17" r="D274">
+        <v>0.625</v>
+      </c>
+      <c s="18" r="E274">
+        <v>31.5375</v>
+      </c>
+      <c s="16" r="F274">
+        <v>225</v>
       </c>
     </row>
     <row r="275" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A275">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B275">
-        <v>504</v>
-      </c>
-      <c s="16" r="C275">
-        <v>203</v>
-      </c>
-      <c s="17" r="D275">
-        <v>0.402777777777778</v>
-      </c>
-      <c s="18" r="E275">
-        <v>76.2187</v>
-      </c>
-      <c s="16" r="F275">
-        <v>301</v>
+      <c s="11" r="A275">
+        <v>45902</v>
+      </c>
+      <c s="12" r="B275">
+        <v>1107</v>
+      </c>
+      <c s="12" r="C275">
+        <v>260</v>
+      </c>
+      <c s="13" r="D275">
+        <v>0.23486901535682</v>
+      </c>
+      <c s="14" r="E275">
+        <v>53.1709</v>
+      </c>
+      <c s="12" r="F275">
+        <v>847</v>
       </c>
     </row>
     <row r="276" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A276">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B276">
-        <v>18</v>
+        <v>492</v>
       </c>
       <c s="16" r="C276">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c s="17" r="D276">
-        <v>0.666666666666667</v>
+        <v>0.205284552845528</v>
       </c>
       <c s="18" r="E276">
-        <v>11.8800</v>
+        <v>37.9872</v>
       </c>
       <c s="16" r="F276">
-        <v>6</v>
+        <v>391</v>
       </c>
     </row>
     <row r="277" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A277">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B277">
+        <v>15</v>
+      </c>
+      <c s="16" r="C277">
+        <v>2</v>
+      </c>
+      <c s="17" r="D277">
+        <v>0.133333333333333</v>
+      </c>
+      <c s="18" r="E277">
+        <v>1.9800</v>
+      </c>
+      <c s="16" r="F277">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A278">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B277">
-        <v>540</v>
-      </c>
-      <c s="16" r="C277">
-        <v>65</v>
-      </c>
-      <c s="17" r="D277">
-        <v>0.12037037037037</v>
-      </c>
-      <c s="18" r="E277">
-        <v>5.4665</v>
-      </c>
-      <c s="16" r="F277">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="278" ht="18" customHeight="0">
-      <c s="11" r="A278">
-        <v>45896</v>
-      </c>
-      <c s="12" r="B278">
-        <v>1260</v>
-      </c>
-      <c s="12" r="C278">
-        <v>320</v>
-      </c>
-      <c s="13" r="D278">
-        <v>0.253968253968254</v>
-      </c>
-      <c s="14" r="E278">
-        <v>65.5869</v>
-      </c>
-      <c s="12" r="F278">
-        <v>940</v>
+      <c s="16" r="B278">
+        <v>600</v>
+      </c>
+      <c s="16" r="C278">
+        <v>157</v>
+      </c>
+      <c s="17" r="D278">
+        <v>0.261666666666667</v>
+      </c>
+      <c s="18" r="E278">
+        <v>13.2037</v>
+      </c>
+      <c s="16" r="F278">
+        <v>443</v>
       </c>
     </row>
     <row r="279" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A279">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B279">
-        <v>582</v>
-      </c>
-      <c s="16" r="C279">
-        <v>129</v>
-      </c>
-      <c s="17" r="D279">
-        <v>0.221649484536082</v>
-      </c>
-      <c s="18" r="E279">
-        <v>48.6179</v>
-      </c>
-      <c s="16" r="F279">
-        <v>453</v>
+      <c s="11" r="A279">
+        <v>45903</v>
+      </c>
+      <c s="12" r="B279">
+        <v>1146</v>
+      </c>
+      <c s="12" r="C279">
+        <v>354</v>
+      </c>
+      <c s="13" r="D279">
+        <v>0.308900523560209</v>
+      </c>
+      <c s="14" r="E279">
+        <v>59.4359</v>
+      </c>
+      <c s="12" r="F279">
+        <v>792</v>
       </c>
     </row>
     <row r="280" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A280">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B280">
-        <v>18</v>
+        <v>528</v>
       </c>
       <c s="16" r="C280">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c s="17" r="D280">
-        <v>0.0555555555555556</v>
+        <v>0.179924242424242</v>
       </c>
       <c s="18" r="E280">
-        <v>0.9900</v>
+        <v>35.8422</v>
       </c>
       <c s="16" r="F280">
-        <v>17</v>
+        <v>433</v>
       </c>
     </row>
     <row r="281" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A281">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B281">
+        <v>18</v>
+      </c>
+      <c s="16" r="C281">
+        <v>2</v>
+      </c>
+      <c s="17" r="D281">
+        <v>0.111111111111111</v>
+      </c>
+      <c s="18" r="E281">
+        <v>1.9800</v>
+      </c>
+      <c s="16" r="F281">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A282">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B281">
-        <v>660</v>
-      </c>
-      <c s="16" r="C281">
-        <v>190</v>
-      </c>
-      <c s="17" r="D281">
-        <v>0.287878787878788</v>
-      </c>
-      <c s="18" r="E281">
-        <v>15.9790</v>
-      </c>
-      <c s="16" r="F281">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="282" ht="18" customHeight="0">
-      <c s="11" r="A282">
-        <v>45897</v>
-      </c>
-      <c s="12" r="B282">
-        <v>1158</v>
-      </c>
-      <c s="12" r="C282">
-        <v>285</v>
-      </c>
-      <c s="13" r="D282">
-        <v>0.246113989637306</v>
-      </c>
-      <c s="14" r="E282">
-        <v>57.9764</v>
-      </c>
-      <c s="12" r="F282">
-        <v>873</v>
+      <c s="16" r="B282">
+        <v>600</v>
+      </c>
+      <c s="16" r="C282">
+        <v>257</v>
+      </c>
+      <c s="17" r="D282">
+        <v>0.428333333333333</v>
+      </c>
+      <c s="18" r="E282">
+        <v>21.6137</v>
+      </c>
+      <c s="16" r="F282">
+        <v>343</v>
       </c>
     </row>
     <row r="283" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A283">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B283">
-        <v>540</v>
-      </c>
-      <c s="16" r="C283">
-        <v>116</v>
-      </c>
-      <c s="17" r="D283">
-        <v>0.214814814814815</v>
-      </c>
-      <c s="18" r="E283">
-        <v>43.7635</v>
-      </c>
-      <c s="16" r="F283">
-        <v>424</v>
+      <c s="11" r="A283">
+        <v>45904</v>
+      </c>
+      <c s="12" r="B283">
+        <v>1194</v>
+      </c>
+      <c s="12" r="C283">
+        <v>399</v>
+      </c>
+      <c s="13" r="D283">
+        <v>0.334170854271357</v>
+      </c>
+      <c s="14" r="E283">
+        <v>50.4529</v>
+      </c>
+      <c s="12" r="F283">
+        <v>795</v>
       </c>
     </row>
     <row r="284" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A284">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B284">
-        <v>18</v>
+        <v>516</v>
       </c>
       <c s="16" r="C284">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c s="17" r="D284">
-        <v>0</v>
+        <v>0.10077519379845</v>
       </c>
       <c s="18" r="E284">
-        <v>0.0000</v>
+        <v>19.4584</v>
       </c>
       <c s="16" r="F284">
-        <v>18</v>
+        <v>464</v>
       </c>
     </row>
     <row r="285" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A285">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B285">
+        <v>18</v>
+      </c>
+      <c s="16" r="C285">
+        <v>2</v>
+      </c>
+      <c s="17" r="D285">
+        <v>0.111111111111111</v>
+      </c>
+      <c s="18" r="E285">
+        <v>1.9800</v>
+      </c>
+      <c s="16" r="F285">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A286">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B285">
-        <v>600</v>
-      </c>
-      <c s="16" r="C285">
-        <v>169</v>
-      </c>
-      <c s="17" r="D285">
-        <v>0.281666666666667</v>
-      </c>
-      <c s="18" r="E285">
-        <v>14.2129</v>
-      </c>
-      <c s="16" r="F285">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="286" ht="18" customHeight="0">
-      <c s="11" r="A286">
-        <v>45898</v>
-      </c>
-      <c s="12" r="B286">
-        <v>1344</v>
-      </c>
-      <c s="12" r="C286">
-        <v>118</v>
-      </c>
-      <c s="13" r="D286">
-        <v>0.087797619047619</v>
-      </c>
-      <c s="14" r="E286">
-        <v>28.4327</v>
-      </c>
-      <c s="12" r="F286">
-        <v>1226</v>
+      <c s="16" r="B286">
+        <v>660</v>
+      </c>
+      <c s="16" r="C286">
+        <v>345</v>
+      </c>
+      <c s="17" r="D286">
+        <v>0.522727272727273</v>
+      </c>
+      <c s="18" r="E286">
+        <v>29.0145</v>
+      </c>
+      <c s="16" r="F286">
+        <v>315</v>
       </c>
     </row>
     <row r="287" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A287">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B287">
-        <v>606</v>
-      </c>
-      <c s="16" r="C287">
-        <v>61</v>
-      </c>
-      <c s="17" r="D287">
-        <v>0.100660066006601</v>
-      </c>
-      <c s="18" r="E287">
-        <v>23.6390</v>
-      </c>
-      <c s="16" r="F287">
-        <v>545</v>
+      <c s="11" r="A287">
+        <v>45905</v>
+      </c>
+      <c s="12" r="B287">
+        <v>1200</v>
+      </c>
+      <c s="12" r="C287">
+        <v>372</v>
+      </c>
+      <c s="13" r="D287">
+        <v>0.31</v>
+      </c>
+      <c s="14" r="E287">
+        <v>68.6382</v>
+      </c>
+      <c s="12" r="F287">
+        <v>828</v>
       </c>
     </row>
     <row r="288" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A288">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B288">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c s="16" r="C288">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c s="17" r="D288">
-        <v>0</v>
+        <v>0.173539518900344</v>
       </c>
       <c s="18" r="E288">
-        <v>0.0000</v>
+        <v>37.6940</v>
       </c>
       <c s="16" r="F288">
-        <v>18</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A289">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B289">
+        <v>18</v>
+      </c>
+      <c s="16" r="C289">
+        <v>9</v>
+      </c>
+      <c s="17" r="D289">
+        <v>0.5</v>
+      </c>
+      <c s="18" r="E289">
+        <v>8.9100</v>
+      </c>
+      <c s="16" r="F289">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A290">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B289">
-        <v>720</v>
-      </c>
-      <c s="16" r="C289">
-        <v>57</v>
-      </c>
-      <c s="17" r="D289">
-        <v>0.0791666666666667</v>
-      </c>
-      <c s="18" r="E289">
-        <v>4.7937</v>
-      </c>
-      <c s="16" r="F289">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="290" ht="18" customHeight="0">
-      <c s="11" r="A290">
-        <v>45899</v>
-      </c>
-      <c s="12" r="B290">
-        <v>1257</v>
-      </c>
-      <c s="12" r="C290">
-        <v>411</v>
-      </c>
-      <c s="13" r="D290">
-        <v>0.326968973747017</v>
-      </c>
-      <c s="14" r="E290">
-        <v>46.0570</v>
-      </c>
-      <c s="12" r="F290">
-        <v>846</v>
+      <c s="16" r="B290">
+        <v>600</v>
+      </c>
+      <c s="16" r="C290">
+        <v>262</v>
+      </c>
+      <c s="17" r="D290">
+        <v>0.436666666666667</v>
+      </c>
+      <c s="18" r="E290">
+        <v>22.0342</v>
+      </c>
+      <c s="16" r="F290">
+        <v>338</v>
       </c>
     </row>
     <row r="291" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A291">
-        <is>
-          <t xml:space="preserve">Donuts</t>
-        </is>
-      </c>
-      <c s="16" r="B291">
-        <v>576</v>
-      </c>
-      <c s="16" r="C291">
-        <v>24</v>
-      </c>
-      <c s="17" r="D291">
-        <v>0.0416666666666667</v>
-      </c>
-      <c s="18" r="E291">
-        <v>8.9808</v>
-      </c>
-      <c s="16" r="F291">
-        <v>552</v>
+      <c s="11" r="A291">
+        <v>45906</v>
+      </c>
+      <c s="12" r="B291">
+        <v>1443</v>
+      </c>
+      <c s="12" r="C291">
+        <v>289</v>
+      </c>
+      <c s="13" r="D291">
+        <v>0.2002772002772</v>
+      </c>
+      <c s="14" r="E291">
+        <v>49.5724</v>
+      </c>
+      <c s="12" r="F291">
+        <v>1154</v>
       </c>
     </row>
     <row r="292" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A292">
         <is>
-          <t xml:space="preserve">Fancies</t>
+          <t xml:space="preserve">Donuts</t>
         </is>
       </c>
       <c s="16" r="B292">
-        <v>21</v>
+        <v>642</v>
       </c>
       <c s="16" r="C292">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c s="17" r="D292">
-        <v>0.238095238095238</v>
+        <v>0.130841121495327</v>
       </c>
       <c s="18" r="E292">
-        <v>4.9500</v>
+        <v>32.3319</v>
       </c>
       <c s="16" r="F292">
-        <v>16</v>
+        <v>558</v>
       </c>
     </row>
     <row r="293" ht="18" customHeight="0">
       <c s="15" t="inlineStr" r="A293">
         <is>
+          <t xml:space="preserve">Fancies</t>
+        </is>
+      </c>
+      <c s="16" r="B293">
+        <v>21</v>
+      </c>
+      <c s="16" r="C293">
+        <v>0</v>
+      </c>
+      <c s="17" r="D293">
+        <v>0</v>
+      </c>
+      <c s="18" r="E293">
+        <v>0.0000</v>
+      </c>
+      <c s="16" r="F293">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" ht="18" customHeight="0">
+      <c s="15" t="inlineStr" r="A294">
+        <is>
           <t xml:space="preserve">Munchkins</t>
         </is>
       </c>
-      <c s="16" r="B293">
-        <v>660</v>
-      </c>
-      <c s="16" r="C293">
-        <v>382</v>
-      </c>
-      <c s="17" r="D293">
-        <v>0.578787878787879</v>
-      </c>
-      <c s="18" r="E293">
-        <v>32.1262</v>
-      </c>
-      <c s="16" r="F293">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="294" ht="18" customHeight="0">
-      <c s="20" t="inlineStr" r="A294">
+      <c s="16" r="B294">
+        <v>780</v>
+      </c>
+      <c s="16" r="C294">
+        <v>205</v>
+      </c>
+      <c s="17" r="D294">
+        <v>0.262820512820513</v>
+      </c>
+      <c s="18" r="E294">
+        <v>17.2405</v>
+      </c>
+      <c s="16" r="F294">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="295" ht="18" customHeight="0">
+      <c s="20" t="inlineStr" r="A295">
         <is>
           <t xml:space="preserve">TOTAL</t>
         </is>
       </c>
-      <c s="21" r="B294">
-        <v>74328</v>
-      </c>
-      <c s="21" r="C294">
-        <v>9231</v>
-      </c>
-      <c s="22" r="D294">
-        <v>0.124192767194059</v>
-      </c>
-      <c s="23" r="E294">
-        <v>1959.6409</v>
-      </c>
-      <c s="21" r="F294">
-        <v>65097</v>
+      <c s="21" r="B295">
+        <v>74058</v>
+      </c>
+      <c s="21" r="C295">
+        <v>10711</v>
+      </c>
+      <c s="22" r="D295">
+        <v>0.144629884684977</v>
+      </c>
+      <c s="23" r="E295">
+        <v>2167.6850</v>
+      </c>
+      <c s="21" r="F295">
+        <v>63347</v>
       </c>
     </row>
   </sheetData>
@@ -6609,7 +6631,7 @@
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.888889763779528" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8 Delvadia, Eddie - 9/2/2025 1:13 PM &amp;R&amp;"Arial,Regular"&amp;8Page &amp;P of &amp;N </oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8 Delvadia, Eddie - 9/10/2025 9:29 AM &amp;R&amp;"Arial,Regular"&amp;8Page &amp;P of &amp;N </oddFooter>
   </headerFooter>
 </worksheet>
 </file>